--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>11.8733429252204</v>
+        <v>11.873346186188</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>8.89219580272647</v>
+        <v>8.8922098912054</v>
       </c>
     </row>
     <row r="4">
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>5.95288205111335</v>
+        <v>5.95288411294567</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2.9559590380564</v>
+        <v>2.95595266050216</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>2.62915899895798</v>
+        <v>2.62914868831527</v>
       </c>
     </row>
     <row r="7">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>8.18850643597895</v>
+        <v>8.18850652296743</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>8.6834037875843</v>
+        <v>8.68340362124239</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>7.25035298348251</v>
+        <v>7.25034397279708</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.00532865270085</v>
+        <v>4.0053273839574</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>4.00364402314341</v>
+        <v>4.00364032300353</v>
       </c>
     </row>
     <row r="12">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>10.7929196413035</v>
+        <v>10.792923819956</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>9.37595713593968</v>
+        <v>9.37597681371454</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>3.58255422213319</v>
+        <v>3.58255873696166</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>3.7119413146556</v>
+        <v>3.71194415780881</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>10.4333390548264</v>
+        <v>10.4333389727401</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>7.79999446920371</v>
+        <v>7.79998726189651</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>7.81212174251043</v>
+        <v>7.81211309726763</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>3.24750126849453</v>
+        <v>3.2474864689764</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.92269414987793</v>
+        <v>3.92268723213472</v>
       </c>
     </row>
     <row r="21">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>9.5188754738974</v>
+        <v>9.51886141114216</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>15.2069693081642</v>
+        <v>15.2069806029274</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>8.47951559987495</v>
+        <v>8.47950167552673</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>3.59581998132447</v>
+        <v>3.59583490557686</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>3.46875372282952</v>
+        <v>3.46876530051629</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>8.97354615919647</v>
+        <v>8.97354490924574</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>10.2293834068671</v>
+        <v>10.2293977720985</v>
       </c>
     </row>
     <row r="28">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>4.53200771630693</v>
+        <v>4.53201201370289</v>
       </c>
     </row>
     <row r="29">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>4.37402381651721</v>
+        <v>4.37406929504702</v>
       </c>
     </row>
     <row r="30">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>10.7700287116227</v>
+        <v>10.7700257051919</v>
       </c>
     </row>
     <row r="31">
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>11.14165778791</v>
+        <v>11.1416565551923</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>9.84424323206599</v>
+        <v>9.84425315404779</v>
       </c>
     </row>
     <row r="33">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>4.78429877928521</v>
+        <v>4.78427703841723</v>
       </c>
     </row>
     <row r="34">
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>4.77473717466068</v>
+        <v>4.77473538409866</v>
       </c>
     </row>
     <row r="35">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>4.57779438144443</v>
+        <v>4.57779382853644</v>
       </c>
     </row>
     <row r="36">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>4.6506276976925</v>
+        <v>4.65062295512026</v>
       </c>
     </row>
     <row r="37">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>2.5981712353139</v>
+        <v>2.59816297044368</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>2.87221887529343</v>
+        <v>2.87223644089315</v>
       </c>
     </row>
     <row r="39">
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>7.18595387816866</v>
+        <v>7.18595456592546</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7.34000585248785</v>
+        <v>7.34000560116542</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5.02784416058518</v>
+        <v>5.02784347827696</v>
       </c>
     </row>
     <row r="42">
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>2.47190073122713</v>
+        <v>2.4715471017486</v>
       </c>
     </row>
     <row r="43">
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>2.56221911441242</v>
+        <v>2.56182909855192</v>
       </c>
     </row>
     <row r="44">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5.61184454513894</v>
+        <v>5.6118398487879</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>6.81458247085585</v>
+        <v>6.81458668838061</v>
       </c>
     </row>
     <row r="46">
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5.17774352065215</v>
+        <v>5.17774493872412</v>
       </c>
     </row>
     <row r="47">
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>2.2547803834692</v>
+        <v>2.25477988790639</v>
       </c>
     </row>
     <row r="48">
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2.36440553079887</v>
+        <v>2.36440931402087</v>
       </c>
     </row>
     <row r="49">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7.12960829968896</v>
+        <v>7.12961162993987</v>
       </c>
     </row>
     <row r="50">
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>9.91021962503212</v>
+        <v>9.91021232364095</v>
       </c>
     </row>
     <row r="51">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>8.61529640952407</v>
+        <v>8.61529998422915</v>
       </c>
     </row>
     <row r="52">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>3.56659994399444</v>
+        <v>3.56659797536876</v>
       </c>
     </row>
     <row r="53">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>3.72226190526907</v>
+        <v>3.72226344224999</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>9.76782096497169</v>
+        <v>9.76783270829874</v>
       </c>
     </row>
     <row r="55">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>13.1242086137895</v>
+        <v>13.1241993218996</v>
       </c>
     </row>
     <row r="56">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>15.4429685838028</v>
+        <v>15.4429583154792</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>4.42839164498991</v>
+        <v>4.42839968860728</v>
       </c>
     </row>
     <row r="58">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>4.57962883550152</v>
+        <v>4.57963583105236</v>
       </c>
     </row>
     <row r="59">
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>9.58501217127509</v>
+        <v>9.58500931423606</v>
       </c>
     </row>
     <row r="60">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>7.10969167184616</v>
+        <v>7.10969388897448</v>
       </c>
     </row>
     <row r="61">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6.7387533543576</v>
+        <v>6.7387549602214</v>
       </c>
     </row>
     <row r="62">
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>3.49945638741286</v>
+        <v>3.49945737418417</v>
       </c>
     </row>
     <row r="63">
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>4.29792362383695</v>
+        <v>4.29791027259516</v>
       </c>
     </row>
     <row r="64">
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.0609260190355</v>
+        <v>11.0609592750186</v>
       </c>
     </row>
     <row r="65">
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>11.2466591769712</v>
+        <v>11.2466654937807</v>
       </c>
     </row>
     <row r="66">
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>11.3484820592232</v>
+        <v>11.3484807761143</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>4.73755679759522</v>
+        <v>4.73754281692674</v>
       </c>
     </row>
     <row r="68">
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>5.15248328216844</v>
+        <v>5.15246256421819</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>6.39625792077972</v>
+        <v>6.39626004733186</v>
       </c>
     </row>
     <row r="70">
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>7.77869911779442</v>
+        <v>7.77869645990147</v>
       </c>
     </row>
     <row r="71">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>6.37545881747195</v>
+        <v>6.37546349279694</v>
       </c>
     </row>
     <row r="72">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>2.63482499353598</v>
+        <v>2.63483926526544</v>
       </c>
     </row>
     <row r="73">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>2.70017973232683</v>
+        <v>2.70018414349361</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>7.47370900658353</v>
+        <v>7.47371017612731</v>
       </c>
     </row>
     <row r="75">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>7.03745891956184</v>
+        <v>7.03745400720634</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>7.08214335926101</v>
+        <v>7.0821472982621</v>
       </c>
     </row>
     <row r="77">
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>3.65625455518789</v>
+        <v>3.65625323430113</v>
       </c>
     </row>
     <row r="78">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>3.7999453730565</v>
+        <v>3.79995341283962</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>8.95025803856457</v>
+        <v>8.95026218991422</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>6.51780165535688</v>
+        <v>6.51780048863259</v>
       </c>
     </row>
     <row r="81">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>5.8350760417599</v>
+        <v>5.83506423856661</v>
       </c>
     </row>
     <row r="82">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>2.95855712548738</v>
+        <v>2.95854682838174</v>
       </c>
     </row>
     <row r="83">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>8.63831123806589</v>
+        <v>8.63828850427172</v>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>8.58132920970115</v>
+        <v>8.58133725232871</v>
       </c>
     </row>
     <row r="85">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>10.3735028206564</v>
+        <v>10.3734971800258</v>
       </c>
     </row>
     <row r="86">
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>3.47749370962723</v>
+        <v>3.47751570007124</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3.19613865776066</v>
+        <v>3.19612906724975</v>
       </c>
     </row>
     <row r="88">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>14.6294258448026</v>
+        <v>14.6294114743101</v>
       </c>
     </row>
     <row r="89">
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>18.1485562437509</v>
+        <v>18.1485692124763</v>
       </c>
     </row>
     <row r="90">
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>15.5507670634586</v>
+        <v>15.5507605256013</v>
       </c>
     </row>
     <row r="91">
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>5.78842010878501</v>
+        <v>5.78842248211571</v>
       </c>
     </row>
     <row r="92">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6.24292107335619</v>
+        <v>6.24290956414578</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>9.24034405292308</v>
+        <v>9.24034044963039</v>
       </c>
     </row>
     <row r="94">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>11.269295570552</v>
+        <v>11.2693001912366</v>
       </c>
     </row>
     <row r="95">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>7.35663432149586</v>
+        <v>7.35665465866223</v>
       </c>
     </row>
     <row r="96">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>3.18626119678697</v>
+        <v>3.18626677989494</v>
       </c>
     </row>
     <row r="97">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>3.68495242610077</v>
+        <v>3.6849310829329</v>
       </c>
     </row>
     <row r="98">
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>9.3127880415379</v>
+        <v>9.31278617310039</v>
       </c>
     </row>
     <row r="99">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>11.594919210298</v>
+        <v>11.5949247489475</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>10.5430758655951</v>
+        <v>10.5430706133986</v>
       </c>
     </row>
     <row r="101">
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>4.60086511430435</v>
+        <v>4.60086997418569</v>
       </c>
     </row>
     <row r="102">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>3.727165692989</v>
+        <v>3.72715652986222</v>
       </c>
     </row>
     <row r="103">
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>7.27547647160158</v>
+        <v>7.27546983768456</v>
       </c>
     </row>
     <row r="104">
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>7.00401931475006</v>
+        <v>7.0040198600275</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>6.05134001127655</v>
+        <v>6.05135803174478</v>
       </c>
     </row>
     <row r="106">
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>2.35265849965072</v>
+        <v>2.35266164224863</v>
       </c>
     </row>
     <row r="107">
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>2.38354878159926</v>
+        <v>2.38354474104518</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>7.99611241607022</v>
+        <v>7.9961090748868</v>
       </c>
     </row>
     <row r="109">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>10.5982975008859</v>
+        <v>10.5982989181201</v>
       </c>
     </row>
     <row r="110">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>6.6627103666965</v>
+        <v>6.66271124540708</v>
       </c>
     </row>
     <row r="111">
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>2.93684006499832</v>
+        <v>2.93685113336298</v>
       </c>
     </row>
     <row r="112">
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>3.0196037015168</v>
+        <v>3.0196079619195</v>
       </c>
     </row>
     <row r="113">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>7.3166677610454</v>
+        <v>7.31666298394634</v>
       </c>
     </row>
     <row r="114">
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>9.13976869826818</v>
+        <v>9.13977255459474</v>
       </c>
     </row>
     <row r="115">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>7.77902002634887</v>
+        <v>7.77901838940862</v>
       </c>
     </row>
     <row r="116">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>3.01631039026993</v>
+        <v>3.01630715449973</v>
       </c>
     </row>
     <row r="117">
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>2.97671018500301</v>
+        <v>2.97669585380046</v>
       </c>
     </row>
     <row r="118">
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>9.31054829293441</v>
+        <v>9.31052411046433</v>
       </c>
     </row>
     <row r="119">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>6.19034101632202</v>
+        <v>6.19035326085668</v>
       </c>
     </row>
     <row r="120">
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>5.08870780713036</v>
+        <v>5.08871358032323</v>
       </c>
     </row>
     <row r="121">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>1.67139065153589</v>
+        <v>1.67139680243467</v>
       </c>
     </row>
     <row r="122">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>1.67487261989172</v>
+        <v>1.67486269914711</v>
       </c>
     </row>
     <row r="123">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>16.9204808700529</v>
+        <v>16.9205024302777</v>
       </c>
     </row>
     <row r="124">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>14.6688008809184</v>
+        <v>14.6687930345246</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>6.70364028571668</v>
+        <v>6.70362337262884</v>
       </c>
     </row>
     <row r="126">
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>7.19726694697458</v>
+        <v>7.19725561427002</v>
       </c>
     </row>
     <row r="127">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>11.176841562565</v>
+        <v>11.1768355872793</v>
       </c>
     </row>
     <row r="128">
@@ -3355,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>8.67780180335474</v>
+        <v>8.67781927919046</v>
       </c>
     </row>
     <row r="129">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>7.92314367929843</v>
+        <v>7.92313284911466</v>
       </c>
     </row>
     <row r="130">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>3.23683810017059</v>
+        <v>3.23683219089537</v>
       </c>
     </row>
     <row r="131">
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>3.2856308411215</v>
+        <v>3.28562718421122</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>9.45080337316169</v>
+        <v>9.45078371198659</v>
       </c>
     </row>
     <row r="133">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>7.68295697017859</v>
+        <v>7.68296853807697</v>
       </c>
     </row>
     <row r="134">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>3.20989213450647</v>
+        <v>3.2099012110643</v>
       </c>
     </row>
     <row r="135">
@@ -3474,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>3.31593151198922</v>
+        <v>3.31590847886065</v>
       </c>
     </row>
     <row r="136">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>10.0780954336761</v>
+        <v>10.0781210284417</v>
       </c>
     </row>
     <row r="137">
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>7.63156025886851</v>
+        <v>7.63154960488441</v>
       </c>
     </row>
     <row r="138">
@@ -3525,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>7.94237367119228</v>
+        <v>7.94236938594953</v>
       </c>
     </row>
     <row r="139">
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>3.00216460955938</v>
+        <v>3.00217161882408</v>
       </c>
     </row>
     <row r="140">
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>2.73279125983657</v>
+        <v>2.73278897026151</v>
       </c>
     </row>
     <row r="141">
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>6.41350105654022</v>
+        <v>6.41350027665284</v>
       </c>
     </row>
     <row r="142">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4.96938680017854</v>
+        <v>4.96961414119414</v>
       </c>
     </row>
     <row r="143">
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>5.40734528717</v>
+        <v>5.40735068806962</v>
       </c>
     </row>
     <row r="144">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>1.7262670022987</v>
+        <v>1.72626670688284</v>
       </c>
     </row>
     <row r="145">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>2.1162008910926</v>
+        <v>2.11620993326559</v>
       </c>
     </row>
     <row r="146">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>8.67281362601267</v>
+        <v>8.67281738747084</v>
       </c>
     </row>
     <row r="147">
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>8.08745072459658</v>
+        <v>8.08744179862879</v>
       </c>
     </row>
     <row r="148">
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>6.29893688803991</v>
+        <v>6.29893611867812</v>
       </c>
     </row>
     <row r="149">
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>2.09564605938133</v>
+        <v>2.0956520758029</v>
       </c>
     </row>
     <row r="150">
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>2.46251535209542</v>
+        <v>2.46251994323174</v>
       </c>
     </row>
     <row r="151">
@@ -3746,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>8.40172257771571</v>
+        <v>8.40172099744931</v>
       </c>
     </row>
     <row r="152">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>9.52428696431176</v>
+        <v>9.52428896415064</v>
       </c>
     </row>
     <row r="153">
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>9.15513882116238</v>
+        <v>9.15513224411121</v>
       </c>
     </row>
     <row r="154">
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>4.32721584971659</v>
+        <v>4.32721044149058</v>
       </c>
     </row>
     <row r="155">
@@ -3814,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>3.68325635334675</v>
+        <v>3.6832593278431</v>
       </c>
     </row>
     <row r="156">
@@ -3831,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>6.09441452623522</v>
+        <v>6.09442342533629</v>
       </c>
     </row>
     <row r="157">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>5.74475262033901</v>
+        <v>5.74475153299253</v>
       </c>
     </row>
     <row r="158">
@@ -3865,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>2.31553175636311</v>
+        <v>2.31553166753742</v>
       </c>
     </row>
     <row r="159">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>2.35420407738585</v>
+        <v>2.35420882062212</v>
       </c>
     </row>
     <row r="160">
@@ -3899,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>10.2436934938203</v>
+        <v>10.2436907729644</v>
       </c>
     </row>
     <row r="161">
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>10.4062536085717</v>
+        <v>10.4062491731472</v>
       </c>
     </row>
     <row r="162">
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>8.57156736019569</v>
+        <v>8.57157043888638</v>
       </c>
     </row>
     <row r="163">
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>3.26089787360337</v>
+        <v>3.2608952248349</v>
       </c>
     </row>
     <row r="164">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>3.39314662978136</v>
+        <v>3.39313601728278</v>
       </c>
     </row>
     <row r="165">
@@ -3984,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>4.51517264495407</v>
+        <v>4.5151786301883</v>
       </c>
     </row>
     <row r="166">
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>6.0416365749816</v>
+        <v>6.04162918293329</v>
       </c>
     </row>
     <row r="167">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>1.49907967129681</v>
+        <v>1.4990796377085</v>
       </c>
     </row>
     <row r="168">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>1.85955944530607</v>
+        <v>1.85956130066607</v>
       </c>
     </row>
     <row r="169">
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>9.77958515237851</v>
+        <v>9.77958102488327</v>
       </c>
     </row>
     <row r="170">
@@ -4069,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>12.1275164037328</v>
+        <v>12.1275186195081</v>
       </c>
     </row>
     <row r="171">
@@ -4086,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>9.19790563900143</v>
+        <v>9.19791333835357</v>
       </c>
     </row>
     <row r="172">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>6.11216228027521</v>
+        <v>6.11216976141994</v>
       </c>
     </row>
     <row r="173">
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>6.31496819109351</v>
+        <v>6.31496248491028</v>
       </c>
     </row>
     <row r="174">
@@ -4137,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>6.37137332498564</v>
+        <v>6.37137237480615</v>
       </c>
     </row>
     <row r="175">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>7.45734556290715</v>
+        <v>7.45735014110871</v>
       </c>
     </row>
     <row r="176">
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>5.88504228220608</v>
+        <v>5.88504211453789</v>
       </c>
     </row>
     <row r="177">
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>6.09035614151932</v>
+        <v>6.09035581138933</v>
       </c>
     </row>
     <row r="178">
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>7.35501595279509</v>
+        <v>7.35501250338734</v>
       </c>
     </row>
     <row r="179">
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>7.18561942337314</v>
+        <v>7.18561865310226</v>
       </c>
     </row>
     <row r="180">
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>7.07902683467711</v>
+        <v>7.07903000644842</v>
       </c>
     </row>
     <row r="181">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>2.45731786156902</v>
+        <v>2.45731928395648</v>
       </c>
     </row>
     <row r="182">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>2.63038303406869</v>
+        <v>2.63038823125444</v>
       </c>
     </row>
     <row r="183">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>7.75690990545471</v>
+        <v>7.75691345874796</v>
       </c>
     </row>
     <row r="184">
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>8.19802154971909</v>
+        <v>8.19801897653312</v>
       </c>
     </row>
     <row r="185">
@@ -4324,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>9.33879863265765</v>
+        <v>9.33879778974423</v>
       </c>
     </row>
     <row r="186">
@@ -4341,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>5.61238093478147</v>
+        <v>5.61239442141102</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>5.22680883803268</v>
+        <v>5.22681548855723</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>19.4286012523647</v>
+        <v>19.4286001496619</v>
       </c>
     </row>
     <row r="189">
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>14.7211490495406</v>
+        <v>14.7211621314031</v>
       </c>
     </row>
     <row r="190">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>19.6346141368859</v>
+        <v>19.6346058510088</v>
       </c>
     </row>
     <row r="191">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>12.4496928050591</v>
+        <v>12.4496856368396</v>
       </c>
     </row>
     <row r="192">
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>16.1122437182277</v>
+        <v>16.1122376939228</v>
       </c>
     </row>
     <row r="193">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>8.75883918716083</v>
+        <v>8.75884589788215</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>6.71777716354663</v>
+        <v>6.71777550283409</v>
       </c>
     </row>
     <row r="195">
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>6.25017403095245</v>
+        <v>6.25018482163875</v>
       </c>
     </row>
     <row r="196">
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>2.68006533619928</v>
+        <v>2.68005689571947</v>
       </c>
     </row>
     <row r="197">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>2.56989668493651</v>
+        <v>2.56989007220349</v>
       </c>
     </row>
     <row r="198">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>7.37469774580803</v>
+        <v>7.37469370326619</v>
       </c>
     </row>
     <row r="199">
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>5.82737900466386</v>
+        <v>5.82737382877491</v>
       </c>
     </row>
     <row r="200">
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>5.30832757577715</v>
+        <v>5.30832747489482</v>
       </c>
     </row>
     <row r="201">
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>1.64795729593614</v>
+        <v>1.64796057511196</v>
       </c>
     </row>
     <row r="202">
@@ -4613,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>1.62840248855982</v>
+        <v>1.6284100441959</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>7.63996824504915</v>
+        <v>7.63996936647226</v>
       </c>
     </row>
     <row r="204">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>7.09471606407994</v>
+        <v>7.0947080952633</v>
       </c>
     </row>
     <row r="205">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>6.32942508647254</v>
+        <v>6.32942177203594</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>2.6610108006404</v>
+        <v>2.66100694279303</v>
       </c>
     </row>
     <row r="207">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>2.77861504019653</v>
+        <v>2.7786140666743</v>
       </c>
     </row>
     <row r="208">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>13.0536630627924</v>
+        <v>13.0536543651264</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>11.6357386108175</v>
+        <v>11.6357403753744</v>
       </c>
     </row>
     <row r="210">
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>8.87561974659747</v>
+        <v>8.87560717548716</v>
       </c>
     </row>
     <row r="211">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>3.51560774443709</v>
+        <v>3.51562837726599</v>
       </c>
     </row>
     <row r="212">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>3.8423645137156</v>
+        <v>3.84235171735358</v>
       </c>
     </row>
     <row r="213">
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>9.32587849840405</v>
+        <v>9.32588234616902</v>
       </c>
     </row>
     <row r="214">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>8.52129828941489</v>
+        <v>8.52128549953131</v>
       </c>
     </row>
     <row r="215">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>7.61348257127471</v>
+        <v>7.61347217909721</v>
       </c>
     </row>
     <row r="216">
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>3.05733121662461</v>
+        <v>3.0573297568281</v>
       </c>
     </row>
     <row r="217">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>3.10984722122444</v>
+        <v>3.10984351264305</v>
       </c>
     </row>
     <row r="218">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>13.3034153075629</v>
+        <v>13.3034218560646</v>
       </c>
     </row>
     <row r="219">
@@ -4902,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>11.7309839527352</v>
+        <v>11.7309862974758</v>
       </c>
     </row>
     <row r="220">
@@ -4919,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>11.1486432452722</v>
+        <v>11.148649949826</v>
       </c>
     </row>
     <row r="221">
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>4.45682467942925</v>
+        <v>4.45681873965503</v>
       </c>
     </row>
     <row r="222">
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>4.65145995881904</v>
+        <v>4.65146231985886</v>
       </c>
     </row>
     <row r="223">
@@ -4970,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>9.27370477356946</v>
+        <v>9.27370509509663</v>
       </c>
     </row>
     <row r="224">
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>7.30864876072381</v>
+        <v>7.30864870378402</v>
       </c>
     </row>
     <row r="225">
@@ -5004,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>6.21599620858579</v>
+        <v>6.21599121171803</v>
       </c>
     </row>
     <row r="226">
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>4.38212618940467</v>
+        <v>4.38212092716305</v>
       </c>
     </row>
     <row r="227">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>4.16093758411503</v>
+        <v>4.16093216061464</v>
       </c>
     </row>
     <row r="228">
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>8.26810850782015</v>
+        <v>8.26812089256284</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>10.0726103909599</v>
+        <v>10.0725961775231</v>
       </c>
     </row>
     <row r="230">
@@ -5089,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>7.73926765259576</v>
+        <v>7.73927291648799</v>
       </c>
     </row>
     <row r="231">
@@ -5106,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>3.64960111035355</v>
+        <v>3.64959455195349</v>
       </c>
     </row>
     <row r="232">
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>3.8955849201677</v>
+        <v>3.89559353889075</v>
       </c>
     </row>
     <row r="233">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>5.42969081045034</v>
+        <v>5.42969711508481</v>
       </c>
     </row>
     <row r="235">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>5.91138251510751</v>
+        <v>5.91137937776343</v>
       </c>
     </row>
     <row r="236">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>3.04406130623849</v>
+        <v>3.04405632387855</v>
       </c>
     </row>
     <row r="237">
@@ -5208,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>3.10735602627945</v>
+        <v>3.10735960490781</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>12.5566318325515</v>
+        <v>12.5566374075601</v>
       </c>
     </row>
     <row r="239">
@@ -5242,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>13.4947685439551</v>
+        <v>13.4947693954083</v>
       </c>
     </row>
     <row r="240">
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>10.592329337</v>
+        <v>10.5923314638479</v>
       </c>
     </row>
     <row r="241">
@@ -5276,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>3.93711651380533</v>
+        <v>3.93711559499467</v>
       </c>
     </row>
     <row r="242">
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>4.12901838399912</v>
+        <v>4.12901892160761</v>
       </c>
     </row>
     <row r="243">
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>9.52775097558859</v>
+        <v>9.52774987382292</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>10.3282215386333</v>
+        <v>10.3282270123953</v>
       </c>
     </row>
     <row r="245">
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>9.61103765419197</v>
+        <v>9.61103061177335</v>
       </c>
     </row>
     <row r="246">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>5.25860171008272</v>
+        <v>5.25860021908937</v>
       </c>
     </row>
     <row r="247">
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>5.31109254685457</v>
+        <v>5.3111099925232</v>
       </c>
     </row>
     <row r="248">
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>8.81012615997435</v>
+        <v>8.81010160785486</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>10.4078831840715</v>
+        <v>10.4078741684845</v>
       </c>
     </row>
     <row r="250">
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>9.19988962560492</v>
+        <v>9.19989989728216</v>
       </c>
     </row>
     <row r="251">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>3.31902166395131</v>
+        <v>3.31900722657455</v>
       </c>
     </row>
     <row r="252">
@@ -5463,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>3.38880360820403</v>
+        <v>3.38882776486066</v>
       </c>
     </row>
     <row r="253">
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>11.2271480829939</v>
+        <v>11.227146303835</v>
       </c>
     </row>
     <row r="254">
@@ -5497,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>11.4293967649978</v>
+        <v>11.4294006220526</v>
       </c>
     </row>
     <row r="255">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>10.817688217534</v>
+        <v>10.8176769848994</v>
       </c>
     </row>
     <row r="256">
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>4.03949704056509</v>
+        <v>4.03949403184506</v>
       </c>
     </row>
     <row r="257">
@@ -5548,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>4.10628437145452</v>
+        <v>4.10628137065151</v>
       </c>
     </row>
     <row r="258">
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>9.25265373079545</v>
+        <v>9.25266757116961</v>
       </c>
     </row>
     <row r="259">
@@ -5582,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>8.28286199997571</v>
+        <v>8.28286120251697</v>
       </c>
     </row>
     <row r="260">
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>8.15790064141648</v>
+        <v>8.15789649384483</v>
       </c>
     </row>
     <row r="261">
@@ -5616,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>4.73367319575599</v>
+        <v>4.73366777915381</v>
       </c>
     </row>
     <row r="262">
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>4.93524337333844</v>
+        <v>4.93524316406821</v>
       </c>
     </row>
     <row r="263">
@@ -5650,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>8.27874869137248</v>
+        <v>8.27876462683696</v>
       </c>
     </row>
     <row r="264">
@@ -5667,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>6.60540393118465</v>
+        <v>6.60539693740558</v>
       </c>
     </row>
     <row r="265">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>5.94836114422981</v>
+        <v>5.94835666558232</v>
       </c>
     </row>
     <row r="266">
@@ -5701,7 +5701,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>2.73233298155324</v>
+        <v>2.73233156928988</v>
       </c>
     </row>
     <row r="267">
@@ -5718,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>2.77749426176783</v>
+        <v>2.77750267060776</v>
       </c>
     </row>
     <row r="268">
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>7.3203133393017</v>
+        <v>7.32032915643209</v>
       </c>
     </row>
     <row r="269">
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>6.63712079764715</v>
+        <v>6.63711821269852</v>
       </c>
     </row>
     <row r="270">
@@ -5769,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>6.08314157465215</v>
+        <v>6.08314057555372</v>
       </c>
     </row>
     <row r="271">
@@ -5786,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>4.09016571785892</v>
+        <v>4.09015943496302</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>3.21757657725196</v>
+        <v>3.21757954406767</v>
       </c>
     </row>
     <row r="273">
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>6.6601271284592</v>
+        <v>6.66010917810316</v>
       </c>
     </row>
     <row r="274">
@@ -5837,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>7.95612138391778</v>
+        <v>7.95612371371985</v>
       </c>
     </row>
     <row r="275">
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>7.12099943769862</v>
+        <v>7.12099224668338</v>
       </c>
     </row>
     <row r="276">
@@ -5871,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>2.8808552340209</v>
+        <v>2.88085001342672</v>
       </c>
     </row>
     <row r="277">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>3.52183571686613</v>
+        <v>3.52183171382916</v>
       </c>
     </row>
     <row r="278">
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>8.30828146171881</v>
+        <v>8.30828267770087</v>
       </c>
     </row>
     <row r="279">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>8.85637186098476</v>
+        <v>8.8563528730607</v>
       </c>
     </row>
     <row r="280">
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>7.99781013050883</v>
+        <v>7.99779348718795</v>
       </c>
     </row>
     <row r="281">
@@ -5956,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>2.56067776231249</v>
+        <v>2.56066814091612</v>
       </c>
     </row>
     <row r="282">
@@ -5973,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>2.95326625250208</v>
+        <v>2.95327817617658</v>
       </c>
     </row>
     <row r="283">
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>6.80809461887755</v>
+        <v>6.8080966709887</v>
       </c>
     </row>
     <row r="284">
@@ -6007,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>9.53808647126997</v>
+        <v>9.53808836651899</v>
       </c>
     </row>
     <row r="285">
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>8.60174257642084</v>
+        <v>8.60174889935442</v>
       </c>
     </row>
     <row r="286">
@@ -6041,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>5.31787038713655</v>
+        <v>5.31787994566607</v>
       </c>
     </row>
     <row r="287">
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>5.31338893748546</v>
+        <v>5.31337210986613</v>
       </c>
     </row>
     <row r="288">
@@ -6075,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>7.32943045106334</v>
+        <v>7.32942894504693</v>
       </c>
     </row>
     <row r="289">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>6.85740722116061</v>
+        <v>6.85740789305004</v>
       </c>
     </row>
     <row r="290">
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>7.49791653777708</v>
+        <v>7.49791490874988</v>
       </c>
     </row>
     <row r="291">
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>3.9653075152291</v>
+        <v>3.96529594040599</v>
       </c>
     </row>
     <row r="292">
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>3.86912406329154</v>
+        <v>3.86914345069199</v>
       </c>
     </row>
     <row r="293">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>15.6116422274701</v>
+        <v>15.6116262137633</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>12.2835927810454</v>
+        <v>12.283597425516</v>
       </c>
     </row>
     <row r="295">
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>12.5234146985061</v>
+        <v>12.5234181486338</v>
       </c>
     </row>
     <row r="296">
@@ -6211,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>6.67414352991783</v>
+        <v>6.67413198905411</v>
       </c>
     </row>
     <row r="297">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>5.48808191037249</v>
+        <v>5.48810650141477</v>
       </c>
     </row>
     <row r="298">
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>10.564414419975</v>
+        <v>10.5644178771604</v>
       </c>
     </row>
     <row r="299">
@@ -6262,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>12.4383320631334</v>
+        <v>12.4383404695416</v>
       </c>
     </row>
     <row r="300">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>12.9886000223407</v>
+        <v>12.9885969671017</v>
       </c>
     </row>
     <row r="301">
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>4.78785337937044</v>
+        <v>4.78784445178429</v>
       </c>
     </row>
     <row r="302">
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>5.45933013608801</v>
+        <v>5.45931339544995</v>
       </c>
     </row>
     <row r="303">
@@ -6330,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>8.99495982402223</v>
+        <v>8.99498862646724</v>
       </c>
     </row>
     <row r="304">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>9.00774460664425</v>
+        <v>9.00774304669508</v>
       </c>
     </row>
     <row r="305">
@@ -6364,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>9.98955023171496</v>
+        <v>9.98954572912787</v>
       </c>
     </row>
     <row r="306">
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>6.06236083398398</v>
+        <v>6.06235908463673</v>
       </c>
     </row>
     <row r="307">
@@ -6398,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>5.95771393114886</v>
+        <v>5.95771505588167</v>
       </c>
     </row>
     <row r="308">
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>9.75301150834343</v>
+        <v>9.75301143315162</v>
       </c>
     </row>
     <row r="309">
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>13.5311579488073</v>
+        <v>13.5311667223676</v>
       </c>
     </row>
     <row r="310">
@@ -6449,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>10.8726642044359</v>
+        <v>10.8726612671791</v>
       </c>
     </row>
     <row r="311">
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>8.49893030447298</v>
+        <v>8.49893422101728</v>
       </c>
     </row>
     <row r="312">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>10.1533515486411</v>
+        <v>10.1533657043673</v>
       </c>
     </row>
     <row r="313">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>13.4982856465143</v>
+        <v>13.4982933475617</v>
       </c>
     </row>
     <row r="314">
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>8.01078433681038</v>
+        <v>8.01078124860587</v>
       </c>
     </row>
     <row r="315">
@@ -6534,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>8.75391670286279</v>
+        <v>8.75391157506356</v>
       </c>
     </row>
     <row r="316">
@@ -6551,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>4.25088028169014</v>
+        <v>4.25087448596202</v>
       </c>
     </row>
     <row r="317">
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>5.48184225481311</v>
+        <v>5.48184322057075</v>
       </c>
     </row>
     <row r="318">
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>4.73553175809803</v>
+        <v>4.73552988705618</v>
       </c>
     </row>
     <row r="319">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>5.66365982935523</v>
+        <v>5.66365951387245</v>
       </c>
     </row>
     <row r="320">
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>2.85477125086553</v>
+        <v>2.85477479393408</v>
       </c>
     </row>
     <row r="321">
@@ -6636,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>2.76828907522053</v>
+        <v>2.76828869312947</v>
       </c>
     </row>
     <row r="322">
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>8.19403221065433</v>
+        <v>8.19401025734194</v>
       </c>
     </row>
     <row r="323">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>7.67681091678763</v>
+        <v>7.6768161679126</v>
       </c>
     </row>
     <row r="324">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>7.0691051751275</v>
+        <v>7.06909979259971</v>
       </c>
     </row>
     <row r="325">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>2.63671604031501</v>
+        <v>2.63671261221039</v>
       </c>
     </row>
     <row r="326">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>7.79814679768341</v>
+        <v>7.7981411333871</v>
       </c>
     </row>
     <row r="327">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>7.06816254414581</v>
+        <v>7.06817077353737</v>
       </c>
     </row>
     <row r="328">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>5.18255371799747</v>
+        <v>5.18254798791063</v>
       </c>
     </row>
     <row r="329">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>2.04456302925893</v>
+        <v>2.04455688445753</v>
       </c>
     </row>
     <row r="330">
@@ -6789,7 +6789,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>2.06135077477429</v>
+        <v>2.06135610440921</v>
       </c>
     </row>
     <row r="331">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>7.74652948397565</v>
+        <v>7.74652585910462</v>
       </c>
     </row>
     <row r="332">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>6.89293813766452</v>
+        <v>6.89293958047392</v>
       </c>
     </row>
     <row r="333">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>6.23893583982225</v>
+        <v>6.23891900946255</v>
       </c>
     </row>
     <row r="334">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>3.20701988523088</v>
+        <v>3.2070149997256</v>
       </c>
     </row>
     <row r="335">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>3.08581120973432</v>
+        <v>3.08580960389739</v>
       </c>
     </row>
     <row r="336">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>11.581468202713</v>
+        <v>11.5814927511154</v>
       </c>
     </row>
     <row r="337">
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>9.73409301449317</v>
+        <v>9.734074212963</v>
       </c>
     </row>
     <row r="338">
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>9.0381585305741</v>
+        <v>9.03815995818088</v>
       </c>
     </row>
     <row r="339">
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>3.77836912048995</v>
+        <v>3.77837970501102</v>
       </c>
     </row>
     <row r="340">
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>3.57348843856334</v>
+        <v>3.573499978708</v>
       </c>
     </row>
     <row r="341">
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>10.4385625448434</v>
+        <v>10.4385673114443</v>
       </c>
     </row>
     <row r="342">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>11.7000550835744</v>
+        <v>11.7000588437225</v>
       </c>
     </row>
     <row r="343">
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>10.5403333255518</v>
+        <v>10.5403348497741</v>
       </c>
     </row>
     <row r="344">
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>4.0499775800736</v>
+        <v>4.0499758177365</v>
       </c>
     </row>
     <row r="345">
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>3.84478119367757</v>
+        <v>3.84478455544366</v>
       </c>
     </row>
     <row r="346">
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>11.6894338302064</v>
+        <v>11.6894206750458</v>
       </c>
     </row>
     <row r="347">
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>10.1156989232181</v>
+        <v>10.115708799826</v>
       </c>
     </row>
     <row r="348">
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>9.1194468273155</v>
+        <v>9.11945666703889</v>
       </c>
     </row>
     <row r="349">
@@ -7112,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>5.03663721207168</v>
+        <v>5.0366322087952</v>
       </c>
     </row>
     <row r="350">
@@ -7129,7 +7129,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>5.21717836354019</v>
+        <v>5.21717628737978</v>
       </c>
     </row>
     <row r="351">
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>6.94148316199982</v>
+        <v>6.94149078132162</v>
       </c>
     </row>
     <row r="352">
@@ -7163,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>6.27903357118912</v>
+        <v>6.27904842131616</v>
       </c>
     </row>
     <row r="353">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>3.06735181716693</v>
+        <v>3.06734718399075</v>
       </c>
     </row>
     <row r="354">
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>2.8866251807211</v>
+        <v>2.88662955707565</v>
       </c>
     </row>
     <row r="355">
@@ -7214,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>9.62181406739933</v>
+        <v>9.62180458644249</v>
       </c>
     </row>
     <row r="356">
@@ -7231,7 +7231,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>3.00608125257824</v>
+        <v>3.00609368739937</v>
       </c>
     </row>
     <row r="357">
@@ -7248,7 +7248,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>4.30591807642651</v>
+        <v>4.30591618944001</v>
       </c>
     </row>
     <row r="358">
@@ -7265,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>3.47823720854749</v>
+        <v>3.47824017323365</v>
       </c>
     </row>
     <row r="359">
@@ -7282,7 +7282,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>10.3165826678546</v>
+        <v>10.3165899701313</v>
       </c>
     </row>
     <row r="360">
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>10.5917861764599</v>
+        <v>10.5917906566569</v>
       </c>
     </row>
     <row r="361">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>6.67223085757207</v>
+        <v>6.67223178165859</v>
       </c>
     </row>
     <row r="362">
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>2.77273207978172</v>
+        <v>2.7727299530385</v>
       </c>
     </row>
     <row r="363">
@@ -7350,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>3.10141949478667</v>
+        <v>3.10141905591397</v>
       </c>
     </row>
     <row r="364">
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>7.44703294984949</v>
+        <v>7.44703778784906</v>
       </c>
     </row>
     <row r="365">
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>6.24069056101876</v>
+        <v>6.24068956955926</v>
       </c>
     </row>
     <row r="366">
@@ -7401,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>2.8558103224848</v>
+        <v>2.85581087044776</v>
       </c>
     </row>
     <row r="367">
@@ -7418,7 +7418,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>2.58474159243211</v>
+        <v>2.58474008745224</v>
       </c>
     </row>
     <row r="368">
@@ -7435,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>5.81449242082773</v>
+        <v>5.81449736511506</v>
       </c>
     </row>
     <row r="369">
@@ -7452,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>5.9749987131404</v>
+        <v>5.97500408333687</v>
       </c>
     </row>
     <row r="370">
@@ -7469,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>1.92129053781451</v>
+        <v>1.92128859106578</v>
       </c>
     </row>
     <row r="371">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>1.86163781193731</v>
+        <v>1.86163889241958</v>
       </c>
     </row>
     <row r="372">
@@ -7503,7 +7503,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>8.56384511608448</v>
+        <v>8.56384622554045</v>
       </c>
     </row>
     <row r="373">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>10.1836115764282</v>
+        <v>10.183604497238</v>
       </c>
     </row>
     <row r="374">
@@ -7537,7 +7537,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>8.71468045972525</v>
+        <v>8.71466734624833</v>
       </c>
     </row>
     <row r="375">
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>3.0661097919645</v>
+        <v>3.06610749030634</v>
       </c>
     </row>
     <row r="376">
@@ -7571,7 +7571,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>3.61692675993615</v>
+        <v>3.61693352366388</v>
       </c>
     </row>
     <row r="377">
@@ -7588,7 +7588,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>10.603716340858</v>
+        <v>10.6037187463333</v>
       </c>
     </row>
     <row r="378">
@@ -7605,7 +7605,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>7.97485157890272</v>
+        <v>7.97485101847027</v>
       </c>
     </row>
     <row r="379">
@@ -7622,7 +7622,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>6.88906536907321</v>
+        <v>6.89034835168044</v>
       </c>
     </row>
     <row r="380">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>4.90229981401725</v>
+        <v>4.90230625063937</v>
       </c>
     </row>
     <row r="381">
@@ -7656,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>2.31157942352612</v>
+        <v>2.31158299355749</v>
       </c>
     </row>
     <row r="382">
@@ -7673,7 +7673,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>7.17514744305706</v>
+        <v>7.17513531303983</v>
       </c>
     </row>
     <row r="383">
@@ -7690,7 +7690,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>6.26603616157853</v>
+        <v>6.26604057478032</v>
       </c>
     </row>
     <row r="384">
@@ -7707,7 +7707,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>18.8012086605205</v>
+        <v>18.8012206823571</v>
       </c>
     </row>
     <row r="385">
@@ -7724,7 +7724,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>9.315972351184</v>
+        <v>9.31598037146559</v>
       </c>
     </row>
     <row r="386">
@@ -7741,7 +7741,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>9.34110639063429</v>
+        <v>9.34110527986801</v>
       </c>
     </row>
     <row r="387">
@@ -7758,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>9.15253174324772</v>
+        <v>9.1525444764795</v>
       </c>
     </row>
     <row r="388">
@@ -7775,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>4.900175351809</v>
+        <v>4.90018330237283</v>
       </c>
     </row>
     <row r="389">
@@ -7792,7 +7792,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>5.27637119196446</v>
+        <v>5.27636442875168</v>
       </c>
     </row>
     <row r="390">
@@ -7809,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>8.96362977415031</v>
+        <v>8.9636314104233</v>
       </c>
     </row>
     <row r="391">
@@ -7826,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>9.7915307411918</v>
+        <v>9.7915445324669</v>
       </c>
     </row>
     <row r="392">
@@ -7843,7 +7843,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>10.504759602304</v>
+        <v>10.5047466777795</v>
       </c>
     </row>
     <row r="393">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>6.75010984673449</v>
+        <v>6.7500967409657</v>
       </c>
     </row>
     <row r="394">
@@ -7877,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>4.72115511531225</v>
+        <v>4.72114630435763</v>
       </c>
     </row>
     <row r="395">
@@ -7894,7 +7894,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>10.2311068505909</v>
+        <v>10.2311129323222</v>
       </c>
     </row>
     <row r="396">
@@ -7911,7 +7911,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>9.89023840103233</v>
+        <v>9.89024008814698</v>
       </c>
     </row>
     <row r="397">
@@ -7928,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>10.1920319043671</v>
+        <v>10.192034180047</v>
       </c>
     </row>
     <row r="398">
@@ -7945,7 +7945,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>4.0053179954166</v>
+        <v>4.00532070076513</v>
       </c>
     </row>
     <row r="399">
@@ -7962,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>5.37216078844084</v>
+        <v>5.37216275614056</v>
       </c>
     </row>
     <row r="400">
@@ -7979,7 +7979,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>8.18633500417287</v>
+        <v>8.18633308930031</v>
       </c>
     </row>
     <row r="401">
@@ -7996,7 +7996,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>1.98203304661546</v>
+        <v>1.98203298412481</v>
       </c>
     </row>
     <row r="402">
@@ -8013,7 +8013,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>0.0923480983241345</v>
+        <v>0.0923461719019898</v>
       </c>
     </row>
     <row r="403">
@@ -8030,7 +8030,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>7.45438548438093</v>
+        <v>7.45438353340657</v>
       </c>
     </row>
     <row r="404">
@@ -8047,7 +8047,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>6.83656427275089</v>
+        <v>6.83656260075334</v>
       </c>
     </row>
     <row r="405">
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>7.20697713604904</v>
+        <v>7.20696442742711</v>
       </c>
     </row>
     <row r="406">
@@ -8081,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>3.8659688912823</v>
+        <v>3.86596488873411</v>
       </c>
     </row>
     <row r="407">
@@ -8098,7 +8098,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>3.98892931667139</v>
+        <v>3.98892435031855</v>
       </c>
     </row>
     <row r="408">
@@ -8115,7 +8115,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>13.064637629</v>
+        <v>13.0646523931089</v>
       </c>
     </row>
     <row r="409">
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>11.7449377187316</v>
+        <v>11.7449363534639</v>
       </c>
     </row>
     <row r="410">
@@ -8149,7 +8149,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>7.32254012394332</v>
+        <v>7.32255063615005</v>
       </c>
     </row>
     <row r="411">
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>4.14289501868125</v>
+        <v>4.14289206181569</v>
       </c>
     </row>
     <row r="412">
@@ -8183,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>3.93713840680678</v>
+        <v>3.93714631853271</v>
       </c>
     </row>
     <row r="413">
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>9.72355791557873</v>
+        <v>9.72354691560234</v>
       </c>
     </row>
     <row r="414">
@@ -8217,7 +8217,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>8.986256675439</v>
+        <v>8.98626899283736</v>
       </c>
     </row>
     <row r="415">
@@ -8234,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>4.04728424631075</v>
+        <v>4.04727658147586</v>
       </c>
     </row>
     <row r="416">
@@ -8251,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>4.36961035221113</v>
+        <v>4.36961861801544</v>
       </c>
     </row>
     <row r="417">
@@ -8268,7 +8268,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>8.97393763278803</v>
+        <v>8.9739255037393</v>
       </c>
     </row>
     <row r="418">
@@ -8285,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>14.5487699865053</v>
+        <v>14.5487706062056</v>
       </c>
     </row>
     <row r="419">
@@ -8302,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>13.9460631097558</v>
+        <v>13.9460601739954</v>
       </c>
     </row>
     <row r="420">
@@ -8319,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>6.10067186195109</v>
+        <v>6.10066645666986</v>
       </c>
     </row>
     <row r="421">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>6.40821156028835</v>
+        <v>6.40820265976177</v>
       </c>
     </row>
     <row r="422">
@@ -8353,7 +8353,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>7.85160410344029</v>
+        <v>7.85159070976478</v>
       </c>
     </row>
     <row r="423">
@@ -8370,7 +8370,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>6.54269765541442</v>
+        <v>6.54270562652523</v>
       </c>
     </row>
     <row r="424">
@@ -8387,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>6.44814078727065</v>
+        <v>6.44814336314601</v>
       </c>
     </row>
     <row r="425">
@@ -8404,7 +8404,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>2.24142453213585</v>
+        <v>2.24142891917309</v>
       </c>
     </row>
     <row r="426">
@@ -8421,7 +8421,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>2.9783525628269</v>
+        <v>2.97836088734162</v>
       </c>
     </row>
     <row r="427">
@@ -8438,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>11.6959819564528</v>
+        <v>11.6959819052555</v>
       </c>
     </row>
     <row r="428">
@@ -8455,7 +8455,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>11.1813781823189</v>
+        <v>11.1813743459796</v>
       </c>
     </row>
     <row r="429">
@@ -8472,7 +8472,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>11.2928895869826</v>
+        <v>11.2928946364714</v>
       </c>
     </row>
     <row r="430">
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>4.77072031841498</v>
+        <v>4.77070309566356</v>
       </c>
     </row>
     <row r="431">
@@ -8506,7 +8506,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>5.04416780078117</v>
+        <v>5.0441613615538</v>
       </c>
     </row>
     <row r="432">
@@ -8523,7 +8523,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>7.75430234108246</v>
+        <v>7.75430452921526</v>
       </c>
     </row>
     <row r="433">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>6.43276984323464</v>
+        <v>6.43276756748644</v>
       </c>
     </row>
     <row r="434">
@@ -8557,7 +8557,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>7.1601098450652</v>
+        <v>7.16011145930358</v>
       </c>
     </row>
     <row r="435">
@@ -8574,7 +8574,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>4.57631450108819</v>
+        <v>4.57631300508669</v>
       </c>
     </row>
     <row r="436">
@@ -8591,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>3.85347975699504</v>
+        <v>3.85347706328145</v>
       </c>
     </row>
     <row r="437">
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>8.35996187639535</v>
+        <v>8.3599726921645</v>
       </c>
     </row>
     <row r="438">
@@ -8625,7 +8625,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>7.74304970040943</v>
+        <v>7.7430558838447</v>
       </c>
     </row>
     <row r="439">
@@ -8642,7 +8642,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>7.25789734051053</v>
+        <v>7.2578926152393</v>
       </c>
     </row>
     <row r="440">
@@ -8659,7 +8659,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>5.72794263597689</v>
+        <v>5.72794671765994</v>
       </c>
     </row>
     <row r="441">
@@ -8676,7 +8676,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>5.8726687327228</v>
+        <v>5.87266776967117</v>
       </c>
     </row>
     <row r="442">
@@ -8693,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>17.965083309496</v>
+        <v>17.9650710113863</v>
       </c>
     </row>
     <row r="443">
@@ -8710,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>15.0370574468901</v>
+        <v>15.0370386381313</v>
       </c>
     </row>
     <row r="444">
@@ -8727,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>15.6392320085929</v>
+        <v>15.6392244050876</v>
       </c>
     </row>
     <row r="445">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>6.4620968417473</v>
+        <v>6.46208013200029</v>
       </c>
     </row>
     <row r="446">
@@ -8761,7 +8761,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>6.26957719786439</v>
+        <v>6.26960523034716</v>
       </c>
     </row>
     <row r="447">
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>8.00750467921917</v>
+        <v>8.0074993525966</v>
       </c>
     </row>
     <row r="448">
@@ -8795,7 +8795,7 @@
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>3.02827210748569</v>
+        <v>3.02827948664478</v>
       </c>
     </row>
     <row r="449">
@@ -8812,7 +8812,7 @@
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>3.01604746633808</v>
+        <v>3.01603898326827</v>
       </c>
     </row>
     <row r="450">
@@ -8829,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>13.7310647197418</v>
+        <v>13.7310751754742</v>
       </c>
     </row>
     <row r="451">
@@ -8846,7 +8846,7 @@
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>2.84430812121112</v>
+        <v>2.84431178955569</v>
       </c>
     </row>
     <row r="452">
@@ -8863,7 +8863,7 @@
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>2.38721583303683</v>
+        <v>2.38723216400704</v>
       </c>
     </row>
     <row r="453">
@@ -8880,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>3.02049960490241</v>
+        <v>3.02047984163184</v>
       </c>
     </row>
     <row r="454">
@@ -8897,7 +8897,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>10.0824687064262</v>
+        <v>10.0824774871366</v>
       </c>
     </row>
     <row r="455">
@@ -8914,7 +8914,7 @@
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>7.84401179182817</v>
+        <v>7.84401665103379</v>
       </c>
     </row>
     <row r="456">
@@ -8931,7 +8931,7 @@
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>8.53762064745396</v>
+        <v>8.53760232077742</v>
       </c>
     </row>
     <row r="457">
@@ -8948,7 +8948,7 @@
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>4.31470176600453</v>
+        <v>4.3147155160544</v>
       </c>
     </row>
     <row r="458">
@@ -8965,7 +8965,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>4.50441406052121</v>
+        <v>4.50439635440184</v>
       </c>
     </row>
     <row r="459">
@@ -8982,7 +8982,7 @@
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>5.04890146179182</v>
+        <v>5.04890709807218</v>
       </c>
     </row>
     <row r="460">
@@ -8999,7 +8999,7 @@
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>5.75259606354439</v>
+        <v>5.7525968908275</v>
       </c>
     </row>
     <row r="461">
@@ -9016,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>6.01448785727893</v>
+        <v>6.0134708027742</v>
       </c>
     </row>
     <row r="462">
@@ -9033,7 +9033,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>3.56943327559768</v>
+        <v>3.56942619527015</v>
       </c>
     </row>
     <row r="463">
@@ -9050,7 +9050,7 @@
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>3.34675539307115</v>
+        <v>3.3467601832916</v>
       </c>
     </row>
     <row r="464">
@@ -9067,7 +9067,7 @@
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>10.3460054842244</v>
+        <v>10.3460110665562</v>
       </c>
     </row>
     <row r="465">
@@ -9084,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>7.32025951746748</v>
+        <v>7.3202660846667</v>
       </c>
     </row>
     <row r="466">
@@ -9101,7 +9101,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>8.59141916433998</v>
+        <v>8.59142398088117</v>
       </c>
     </row>
     <row r="467">
@@ -9118,7 +9118,7 @@
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>4.76552120666783</v>
+        <v>4.76551138955178</v>
       </c>
     </row>
     <row r="468">
@@ -9135,7 +9135,7 @@
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>4.10686969015331</v>
+        <v>4.10686392212455</v>
       </c>
     </row>
     <row r="469">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>8.44494631849491</v>
+        <v>8.44494529964525</v>
       </c>
     </row>
     <row r="470">
@@ -9169,7 +9169,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>9.48123228926622</v>
+        <v>9.48122455542808</v>
       </c>
     </row>
     <row r="471">
@@ -9186,7 +9186,7 @@
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>8.30629770446159</v>
+        <v>8.30629898410762</v>
       </c>
     </row>
     <row r="472">
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>4.11939453077779</v>
+        <v>4.11939054885735</v>
       </c>
     </row>
     <row r="473">
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>4.21942065849354</v>
+        <v>4.21941385789732</v>
       </c>
     </row>
     <row r="474">
@@ -9237,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>8.28042258756903</v>
+        <v>8.28041794592948</v>
       </c>
     </row>
     <row r="475">
@@ -9254,7 +9254,7 @@
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>6.76530178230002</v>
+        <v>6.76530864482789</v>
       </c>
     </row>
     <row r="476">
@@ -9271,7 +9271,7 @@
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>5.94226482783435</v>
+        <v>5.9422657283936</v>
       </c>
     </row>
     <row r="477">
@@ -9288,7 +9288,7 @@
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>2.43073784313875</v>
+        <v>2.43073319635665</v>
       </c>
     </row>
     <row r="478">
@@ -9305,7 +9305,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>2.49200289598501</v>
+        <v>2.49199573569038</v>
       </c>
     </row>
     <row r="479">
@@ -9322,7 +9322,7 @@
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>11.6389531836648</v>
+        <v>11.6389639217804</v>
       </c>
     </row>
     <row r="480">
@@ -9339,7 +9339,7 @@
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>15.3191610397407</v>
+        <v>15.3191680915763</v>
       </c>
     </row>
     <row r="481">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>12.4710210393521</v>
+        <v>12.4710062615334</v>
       </c>
     </row>
     <row r="482">
@@ -9373,7 +9373,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>4.25865362923137</v>
+        <v>4.2586467265156</v>
       </c>
     </row>
     <row r="483">
@@ -9390,7 +9390,7 @@
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>4.5137467095642</v>
+        <v>4.51374303021412</v>
       </c>
     </row>
     <row r="484">
@@ -9407,7 +9407,7 @@
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>5.86847743389127</v>
+        <v>5.86848046115121</v>
       </c>
     </row>
     <row r="485">
@@ -9424,7 +9424,7 @@
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>5.86656745039984</v>
+        <v>5.86657413605499</v>
       </c>
     </row>
     <row r="486">
@@ -9441,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>2.27371962518352</v>
+        <v>2.27371488846368</v>
       </c>
     </row>
     <row r="487">
@@ -9458,7 +9458,7 @@
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>2.2788415760143</v>
+        <v>2.27882887385513</v>
       </c>
     </row>
     <row r="488">
@@ -9475,7 +9475,7 @@
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>10.4724016994578</v>
+        <v>10.4724094406545</v>
       </c>
     </row>
     <row r="489">
@@ -9492,7 +9492,7 @@
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>7.81854966588855</v>
+        <v>7.81854806641631</v>
       </c>
     </row>
     <row r="490">
@@ -9509,7 +9509,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>7.9503471928306</v>
+        <v>7.95035548847996</v>
       </c>
     </row>
     <row r="491">
@@ -9526,7 +9526,7 @@
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>2.94937909063772</v>
+        <v>2.94937140626014</v>
       </c>
     </row>
     <row r="492">
@@ -9543,7 +9543,7 @@
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>2.87950416713372</v>
+        <v>2.8795172444756</v>
       </c>
     </row>
     <row r="493">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>7.09440877001168</v>
+        <v>7.09440851244348</v>
       </c>
     </row>
     <row r="494">
@@ -9577,7 +9577,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>7.43739526201362</v>
+        <v>7.43739640254527</v>
       </c>
     </row>
     <row r="495">
@@ -9594,7 +9594,7 @@
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>3.41947378741201</v>
+        <v>3.4194858085743</v>
       </c>
     </row>
     <row r="496">
@@ -9611,7 +9611,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>3.14261931756968</v>
+        <v>3.14262579938956</v>
       </c>
     </row>
     <row r="497">
@@ -9628,7 +9628,7 @@
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>11.1230126924374</v>
+        <v>11.1230097075742</v>
       </c>
     </row>
     <row r="498">
@@ -9645,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>14.6885339664741</v>
+        <v>14.6885296725182</v>
       </c>
     </row>
     <row r="499">
@@ -9662,7 +9662,7 @@
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>12.1025814058066</v>
+        <v>12.1025809414454</v>
       </c>
     </row>
     <row r="500">
@@ -9679,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>5.78205604836662</v>
+        <v>5.78203933275637</v>
       </c>
     </row>
     <row r="501">
@@ -9696,7 +9696,7 @@
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>4.94184438622371</v>
+        <v>4.94184466895133</v>
       </c>
     </row>
     <row r="502">
@@ -9713,7 +9713,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>4.5918404366569</v>
+        <v>4.59184283174218</v>
       </c>
     </row>
     <row r="503">
@@ -9730,7 +9730,7 @@
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>4.01979130772833</v>
+        <v>4.01979506393479</v>
       </c>
     </row>
     <row r="504">
@@ -9747,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>4.37787613728177</v>
+        <v>4.37787879942587</v>
       </c>
     </row>
     <row r="505">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>19.0517742224241</v>
+        <v>19.0517760341452</v>
       </c>
     </row>
     <row r="506">
@@ -9781,7 +9781,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>20.5895124328021</v>
+        <v>20.5895236246539</v>
       </c>
     </row>
     <row r="507">
@@ -9798,7 +9798,7 @@
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>7.28296892371221</v>
+        <v>7.28297190040978</v>
       </c>
     </row>
     <row r="508">
@@ -9815,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>7.19045999886769</v>
+        <v>7.19045441173739</v>
       </c>
     </row>
     <row r="509">
@@ -9832,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>7.59199407633146</v>
+        <v>7.59199542393648</v>
       </c>
     </row>
     <row r="510">
@@ -9849,7 +9849,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>4.17614125899171</v>
+        <v>4.17614232837901</v>
       </c>
     </row>
     <row r="511">
@@ -9866,7 +9866,7 @@
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>4.20645319176632</v>
+        <v>4.20644592200153</v>
       </c>
     </row>
     <row r="512">
@@ -9883,7 +9883,7 @@
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>7.94661642659305</v>
+        <v>7.94662647904924</v>
       </c>
     </row>
     <row r="513">
@@ -9900,7 +9900,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>8.23472660111181</v>
+        <v>8.2347209525916</v>
       </c>
     </row>
     <row r="514">
@@ -9917,7 +9917,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>6.71418196126219</v>
+        <v>6.71418244776595</v>
       </c>
     </row>
     <row r="515">
@@ -9934,7 +9934,7 @@
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>2.7716007035508</v>
+        <v>2.77160201378017</v>
       </c>
     </row>
     <row r="516">
@@ -9951,7 +9951,7 @@
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>2.73903623532917</v>
+        <v>2.73904236201718</v>
       </c>
     </row>
     <row r="517">
@@ -9968,7 +9968,7 @@
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>8.12550779311317</v>
+        <v>8.12550808085498</v>
       </c>
     </row>
     <row r="518">
@@ -9985,7 +9985,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>6.09212893187095</v>
+        <v>6.0921282730127</v>
       </c>
     </row>
     <row r="519">
@@ -10002,7 +10002,7 @@
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>5.16454541576766</v>
+        <v>5.16454265251543</v>
       </c>
     </row>
     <row r="520">
@@ -10019,7 +10019,7 @@
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>2.48883712572162</v>
+        <v>2.48883864487316</v>
       </c>
     </row>
     <row r="521">
@@ -10036,7 +10036,7 @@
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>2.54747305743303</v>
+        <v>2.54747244689278</v>
       </c>
     </row>
     <row r="522">
@@ -10053,7 +10053,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>9.00773166144415</v>
+        <v>9.00774057125783</v>
       </c>
     </row>
     <row r="523">
@@ -10070,7 +10070,7 @@
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>10.107800367983</v>
+        <v>10.10780226485</v>
       </c>
     </row>
     <row r="524">
@@ -10087,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>10.3442633038841</v>
+        <v>10.3442640826259</v>
       </c>
     </row>
     <row r="525">
@@ -10104,7 +10104,7 @@
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>4.11337040862991</v>
+        <v>4.11336416245093</v>
       </c>
     </row>
     <row r="526">
@@ -10121,7 +10121,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>3.53190426840325</v>
+        <v>3.53189805855939</v>
       </c>
     </row>
     <row r="527">
@@ -10138,7 +10138,7 @@
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>10.4099595101718</v>
+        <v>10.4099513129626</v>
       </c>
     </row>
     <row r="528">
@@ -10155,7 +10155,7 @@
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>10.0458333774248</v>
+        <v>10.0458184438864</v>
       </c>
     </row>
     <row r="529">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>3.91719749648429</v>
+        <v>3.91719646768963</v>
       </c>
     </row>
     <row r="530">
@@ -10189,7 +10189,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>3.73264053942938</v>
+        <v>3.73263723251937</v>
       </c>
     </row>
   </sheetData>
@@ -10237,19 +10237,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8733429252204</v>
+        <v>11.873346186188</v>
       </c>
       <c r="D2" t="n">
-        <v>8.89219580272647</v>
+        <v>8.8922098912054</v>
       </c>
       <c r="E2" t="n">
-        <v>5.95288205111335</v>
+        <v>5.95288411294567</v>
       </c>
       <c r="F2" t="n">
-        <v>2.9559590380564</v>
+        <v>2.95595266050216</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62915899895798</v>
+        <v>2.62914868831527</v>
       </c>
     </row>
     <row r="3">
@@ -10260,19 +10260,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>8.18850643597895</v>
+        <v>8.18850652296743</v>
       </c>
       <c r="D3" t="n">
-        <v>8.6834037875843</v>
+        <v>8.68340362124239</v>
       </c>
       <c r="E3" t="n">
-        <v>7.25035298348251</v>
+        <v>7.25034397279708</v>
       </c>
       <c r="F3" t="n">
-        <v>4.00532865270085</v>
+        <v>4.0053273839574</v>
       </c>
       <c r="G3" t="n">
-        <v>4.00364402314341</v>
+        <v>4.00364032300353</v>
       </c>
     </row>
     <row r="4">
@@ -10284,16 +10284,16 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>10.7929196413035</v>
+        <v>10.792923819956</v>
       </c>
       <c r="E4" t="n">
-        <v>9.37595713593968</v>
+        <v>9.37597681371454</v>
       </c>
       <c r="F4" t="n">
-        <v>3.58255422213319</v>
+        <v>3.58255873696166</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7119413146556</v>
+        <v>3.71194415780881</v>
       </c>
     </row>
     <row r="5">
@@ -10304,19 +10304,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4333390548264</v>
+        <v>10.4333389727401</v>
       </c>
       <c r="D5" t="n">
-        <v>7.79999446920371</v>
+        <v>7.79998726189651</v>
       </c>
       <c r="E5" t="n">
-        <v>7.81212174251043</v>
+        <v>7.81211309726763</v>
       </c>
       <c r="F5" t="n">
-        <v>3.24750126849453</v>
+        <v>3.2474864689764</v>
       </c>
       <c r="G5" t="n">
-        <v>3.92269414987793</v>
+        <v>3.92268723213472</v>
       </c>
     </row>
     <row r="6">
@@ -10327,19 +10327,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>9.5188754738974</v>
+        <v>9.51886141114216</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2069693081642</v>
+        <v>15.2069806029274</v>
       </c>
       <c r="E6" t="n">
-        <v>8.47951559987495</v>
+        <v>8.47950167552673</v>
       </c>
       <c r="F6" t="n">
-        <v>3.59581998132447</v>
+        <v>3.59583490557686</v>
       </c>
       <c r="G6" t="n">
-        <v>3.46875372282952</v>
+        <v>3.46876530051629</v>
       </c>
     </row>
     <row r="7">
@@ -10351,16 +10351,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>8.97354615919647</v>
+        <v>8.97354490924574</v>
       </c>
       <c r="E7" t="n">
-        <v>10.2293834068671</v>
+        <v>10.2293977720985</v>
       </c>
       <c r="F7" t="n">
-        <v>4.53200771630693</v>
+        <v>4.53201201370289</v>
       </c>
       <c r="G7" t="n">
-        <v>4.37402381651721</v>
+        <v>4.37406929504702</v>
       </c>
     </row>
     <row r="8">
@@ -10371,19 +10371,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>10.7700287116227</v>
+        <v>10.7700257051919</v>
       </c>
       <c r="D8" t="n">
-        <v>11.14165778791</v>
+        <v>11.1416565551923</v>
       </c>
       <c r="E8" t="n">
-        <v>9.84424323206599</v>
+        <v>9.84425315404779</v>
       </c>
       <c r="F8" t="n">
-        <v>4.78429877928521</v>
+        <v>4.78427703841723</v>
       </c>
       <c r="G8" t="n">
-        <v>4.77473717466068</v>
+        <v>4.77473538409866</v>
       </c>
     </row>
     <row r="9">
@@ -10395,16 +10395,16 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>4.57779438144443</v>
+        <v>4.57779382853644</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6506276976925</v>
+        <v>4.65062295512026</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5981712353139</v>
+        <v>2.59816297044368</v>
       </c>
       <c r="G9" t="n">
-        <v>2.87221887529343</v>
+        <v>2.87223644089315</v>
       </c>
     </row>
     <row r="10">
@@ -10415,19 +10415,19 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>7.18595387816866</v>
+        <v>7.18595456592546</v>
       </c>
       <c r="D10" t="n">
-        <v>7.34000585248785</v>
+        <v>7.34000560116542</v>
       </c>
       <c r="E10" t="n">
-        <v>5.02784416058518</v>
+        <v>5.02784347827696</v>
       </c>
       <c r="F10" t="n">
-        <v>2.47190073122713</v>
+        <v>2.4715471017486</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56221911441242</v>
+        <v>2.56182909855192</v>
       </c>
     </row>
     <row r="11">
@@ -10438,19 +10438,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>5.61184454513894</v>
+        <v>5.6118398487879</v>
       </c>
       <c r="D11" t="n">
-        <v>6.81458247085585</v>
+        <v>6.81458668838061</v>
       </c>
       <c r="E11" t="n">
-        <v>5.17774352065215</v>
+        <v>5.17774493872412</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2547803834692</v>
+        <v>2.25477988790639</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36440553079887</v>
+        <v>2.36440931402087</v>
       </c>
     </row>
     <row r="12">
@@ -10461,19 +10461,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7.12960829968896</v>
+        <v>7.12961162993987</v>
       </c>
       <c r="D12" t="n">
-        <v>9.91021962503212</v>
+        <v>9.91021232364095</v>
       </c>
       <c r="E12" t="n">
-        <v>8.61529640952407</v>
+        <v>8.61529998422915</v>
       </c>
       <c r="F12" t="n">
-        <v>3.56659994399444</v>
+        <v>3.56659797536876</v>
       </c>
       <c r="G12" t="n">
-        <v>3.72226190526907</v>
+        <v>3.72226344224999</v>
       </c>
     </row>
     <row r="13">
@@ -10484,19 +10484,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>9.76782096497169</v>
+        <v>9.76783270829874</v>
       </c>
       <c r="D13" t="n">
-        <v>13.1242086137895</v>
+        <v>13.1241993218996</v>
       </c>
       <c r="E13" t="n">
-        <v>15.4429685838028</v>
+        <v>15.4429583154792</v>
       </c>
       <c r="F13" t="n">
-        <v>4.42839164498991</v>
+        <v>4.42839968860728</v>
       </c>
       <c r="G13" t="n">
-        <v>4.57962883550152</v>
+        <v>4.57963583105236</v>
       </c>
     </row>
     <row r="14">
@@ -10507,19 +10507,19 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>9.58501217127509</v>
+        <v>9.58500931423606</v>
       </c>
       <c r="D14" t="n">
-        <v>7.10969167184616</v>
+        <v>7.10969388897448</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7387533543576</v>
+        <v>6.7387549602214</v>
       </c>
       <c r="F14" t="n">
-        <v>3.49945638741286</v>
+        <v>3.49945737418417</v>
       </c>
       <c r="G14" t="n">
-        <v>4.29792362383695</v>
+        <v>4.29791027259516</v>
       </c>
     </row>
     <row r="15">
@@ -10530,19 +10530,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0609260190355</v>
+        <v>11.0609592750186</v>
       </c>
       <c r="D15" t="n">
-        <v>11.2466591769712</v>
+        <v>11.2466654937807</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3484820592232</v>
+        <v>11.3484807761143</v>
       </c>
       <c r="F15" t="n">
-        <v>4.73755679759522</v>
+        <v>4.73754281692674</v>
       </c>
       <c r="G15" t="n">
-        <v>5.15248328216844</v>
+        <v>5.15246256421819</v>
       </c>
     </row>
     <row r="16">
@@ -10553,19 +10553,19 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>6.39625792077972</v>
+        <v>6.39626004733186</v>
       </c>
       <c r="D16" t="n">
-        <v>7.77869911779442</v>
+        <v>7.77869645990147</v>
       </c>
       <c r="E16" t="n">
-        <v>6.37545881747195</v>
+        <v>6.37546349279694</v>
       </c>
       <c r="F16" t="n">
-        <v>2.63482499353598</v>
+        <v>2.63483926526544</v>
       </c>
       <c r="G16" t="n">
-        <v>2.70017973232683</v>
+        <v>2.70018414349361</v>
       </c>
     </row>
     <row r="17">
@@ -10576,19 +10576,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>7.47370900658353</v>
+        <v>7.47371017612731</v>
       </c>
       <c r="D17" t="n">
-        <v>7.03745891956184</v>
+        <v>7.03745400720634</v>
       </c>
       <c r="E17" t="n">
-        <v>7.08214335926101</v>
+        <v>7.0821472982621</v>
       </c>
       <c r="F17" t="n">
-        <v>3.65625455518789</v>
+        <v>3.65625323430113</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7999453730565</v>
+        <v>3.79995341283962</v>
       </c>
     </row>
     <row r="18">
@@ -10599,16 +10599,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>8.95025803856457</v>
+        <v>8.95026218991422</v>
       </c>
       <c r="D18" t="n">
-        <v>6.51780165535688</v>
+        <v>6.51780048863259</v>
       </c>
       <c r="E18" t="n">
-        <v>5.8350760417599</v>
+        <v>5.83506423856661</v>
       </c>
       <c r="F18" t="n">
-        <v>2.95855712548738</v>
+        <v>2.95854682838174</v>
       </c>
       <c r="G18"/>
     </row>
@@ -10620,19 +10620,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>8.63831123806589</v>
+        <v>8.63828850427172</v>
       </c>
       <c r="D19" t="n">
-        <v>8.58132920970115</v>
+        <v>8.58133725232871</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3735028206564</v>
+        <v>10.3734971800258</v>
       </c>
       <c r="F19" t="n">
-        <v>3.47749370962723</v>
+        <v>3.47751570007124</v>
       </c>
       <c r="G19" t="n">
-        <v>3.19613865776066</v>
+        <v>3.19612906724975</v>
       </c>
     </row>
     <row r="20">
@@ -10643,19 +10643,19 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>14.6294258448026</v>
+        <v>14.6294114743101</v>
       </c>
       <c r="D20" t="n">
-        <v>18.1485562437509</v>
+        <v>18.1485692124763</v>
       </c>
       <c r="E20" t="n">
-        <v>15.5507670634586</v>
+        <v>15.5507605256013</v>
       </c>
       <c r="F20" t="n">
-        <v>5.78842010878501</v>
+        <v>5.78842248211571</v>
       </c>
       <c r="G20" t="n">
-        <v>6.24292107335619</v>
+        <v>6.24290956414578</v>
       </c>
     </row>
     <row r="21">
@@ -10666,19 +10666,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>9.24034405292308</v>
+        <v>9.24034044963039</v>
       </c>
       <c r="D21" t="n">
-        <v>11.269295570552</v>
+        <v>11.2693001912366</v>
       </c>
       <c r="E21" t="n">
-        <v>7.35663432149586</v>
+        <v>7.35665465866223</v>
       </c>
       <c r="F21" t="n">
-        <v>3.18626119678697</v>
+        <v>3.18626677989494</v>
       </c>
       <c r="G21" t="n">
-        <v>3.68495242610077</v>
+        <v>3.6849310829329</v>
       </c>
     </row>
     <row r="22">
@@ -10689,19 +10689,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>9.3127880415379</v>
+        <v>9.31278617310039</v>
       </c>
       <c r="D22" t="n">
-        <v>11.594919210298</v>
+        <v>11.5949247489475</v>
       </c>
       <c r="E22" t="n">
-        <v>10.5430758655951</v>
+        <v>10.5430706133986</v>
       </c>
       <c r="F22" t="n">
-        <v>4.60086511430435</v>
+        <v>4.60086997418569</v>
       </c>
       <c r="G22" t="n">
-        <v>3.727165692989</v>
+        <v>3.72715652986222</v>
       </c>
     </row>
     <row r="23">
@@ -10712,19 +10712,19 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>7.27547647160158</v>
+        <v>7.27546983768456</v>
       </c>
       <c r="D23" t="n">
-        <v>7.00401931475006</v>
+        <v>7.0040198600275</v>
       </c>
       <c r="E23" t="n">
-        <v>6.05134001127655</v>
+        <v>6.05135803174478</v>
       </c>
       <c r="F23" t="n">
-        <v>2.35265849965072</v>
+        <v>2.35266164224863</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38354878159926</v>
+        <v>2.38354474104518</v>
       </c>
     </row>
     <row r="24">
@@ -10735,19 +10735,19 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>7.99611241607022</v>
+        <v>7.9961090748868</v>
       </c>
       <c r="D24" t="n">
-        <v>10.5982975008859</v>
+        <v>10.5982989181201</v>
       </c>
       <c r="E24" t="n">
-        <v>6.6627103666965</v>
+        <v>6.66271124540708</v>
       </c>
       <c r="F24" t="n">
-        <v>2.93684006499832</v>
+        <v>2.93685113336298</v>
       </c>
       <c r="G24" t="n">
-        <v>3.0196037015168</v>
+        <v>3.0196079619195</v>
       </c>
     </row>
     <row r="25">
@@ -10758,19 +10758,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>7.3166677610454</v>
+        <v>7.31666298394634</v>
       </c>
       <c r="D25" t="n">
-        <v>9.13976869826818</v>
+        <v>9.13977255459474</v>
       </c>
       <c r="E25" t="n">
-        <v>7.77902002634887</v>
+        <v>7.77901838940862</v>
       </c>
       <c r="F25" t="n">
-        <v>3.01631039026993</v>
+        <v>3.01630715449973</v>
       </c>
       <c r="G25" t="n">
-        <v>2.97671018500301</v>
+        <v>2.97669585380046</v>
       </c>
     </row>
     <row r="26">
@@ -10781,19 +10781,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>9.31054829293441</v>
+        <v>9.31052411046433</v>
       </c>
       <c r="D26" t="n">
-        <v>6.19034101632202</v>
+        <v>6.19035326085668</v>
       </c>
       <c r="E26" t="n">
-        <v>5.08870780713036</v>
+        <v>5.08871358032323</v>
       </c>
       <c r="F26" t="n">
-        <v>1.67139065153589</v>
+        <v>1.67139680243467</v>
       </c>
       <c r="G26" t="n">
-        <v>1.67487261989172</v>
+        <v>1.67486269914711</v>
       </c>
     </row>
     <row r="27">
@@ -10805,16 +10805,16 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>16.9204808700529</v>
+        <v>16.9205024302777</v>
       </c>
       <c r="E27" t="n">
-        <v>14.6688008809184</v>
+        <v>14.6687930345246</v>
       </c>
       <c r="F27" t="n">
-        <v>6.70364028571668</v>
+        <v>6.70362337262884</v>
       </c>
       <c r="G27" t="n">
-        <v>7.19726694697458</v>
+        <v>7.19725561427002</v>
       </c>
     </row>
     <row r="28">
@@ -10825,19 +10825,19 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>11.176841562565</v>
+        <v>11.1768355872793</v>
       </c>
       <c r="D28" t="n">
-        <v>8.67780180335474</v>
+        <v>8.67781927919046</v>
       </c>
       <c r="E28" t="n">
-        <v>7.92314367929843</v>
+        <v>7.92313284911466</v>
       </c>
       <c r="F28" t="n">
-        <v>3.23683810017059</v>
+        <v>3.23683219089537</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2856308411215</v>
+        <v>3.28562718421122</v>
       </c>
     </row>
     <row r="29">
@@ -10849,16 +10849,16 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>9.45080337316169</v>
+        <v>9.45078371198659</v>
       </c>
       <c r="E29" t="n">
-        <v>7.68295697017859</v>
+        <v>7.68296853807697</v>
       </c>
       <c r="F29" t="n">
-        <v>3.20989213450647</v>
+        <v>3.2099012110643</v>
       </c>
       <c r="G29" t="n">
-        <v>3.31593151198922</v>
+        <v>3.31590847886065</v>
       </c>
     </row>
     <row r="30">
@@ -10869,19 +10869,19 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>10.0780954336761</v>
+        <v>10.0781210284417</v>
       </c>
       <c r="D30" t="n">
-        <v>7.63156025886851</v>
+        <v>7.63154960488441</v>
       </c>
       <c r="E30" t="n">
-        <v>7.94237367119228</v>
+        <v>7.94236938594953</v>
       </c>
       <c r="F30" t="n">
-        <v>3.00216460955938</v>
+        <v>3.00217161882408</v>
       </c>
       <c r="G30" t="n">
-        <v>2.73279125983657</v>
+        <v>2.73278897026151</v>
       </c>
     </row>
     <row r="31">
@@ -10892,19 +10892,19 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>6.41350105654022</v>
+        <v>6.41350027665284</v>
       </c>
       <c r="D31" t="n">
-        <v>4.96938680017854</v>
+        <v>4.96961414119414</v>
       </c>
       <c r="E31" t="n">
-        <v>5.40734528717</v>
+        <v>5.40735068806962</v>
       </c>
       <c r="F31" t="n">
-        <v>1.7262670022987</v>
+        <v>1.72626670688284</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1162008910926</v>
+        <v>2.11620993326559</v>
       </c>
     </row>
     <row r="32">
@@ -10915,19 +10915,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>8.67281362601267</v>
+        <v>8.67281738747084</v>
       </c>
       <c r="D32" t="n">
-        <v>8.08745072459658</v>
+        <v>8.08744179862879</v>
       </c>
       <c r="E32" t="n">
-        <v>6.29893688803991</v>
+        <v>6.29893611867812</v>
       </c>
       <c r="F32" t="n">
-        <v>2.09564605938133</v>
+        <v>2.0956520758029</v>
       </c>
       <c r="G32" t="n">
-        <v>2.46251535209542</v>
+        <v>2.46251994323174</v>
       </c>
     </row>
     <row r="33">
@@ -10938,19 +10938,19 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>8.40172257771571</v>
+        <v>8.40172099744931</v>
       </c>
       <c r="D33" t="n">
-        <v>9.52428696431176</v>
+        <v>9.52428896415064</v>
       </c>
       <c r="E33" t="n">
-        <v>9.15513882116238</v>
+        <v>9.15513224411121</v>
       </c>
       <c r="F33" t="n">
-        <v>4.32721584971659</v>
+        <v>4.32721044149058</v>
       </c>
       <c r="G33" t="n">
-        <v>3.68325635334675</v>
+        <v>3.6832593278431</v>
       </c>
     </row>
     <row r="34">
@@ -10961,17 +10961,17 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>6.09441452623522</v>
+        <v>6.09442342533629</v>
       </c>
       <c r="D34" t="n">
-        <v>5.74475262033901</v>
+        <v>5.74475153299253</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>2.31553175636311</v>
+        <v>2.31553166753742</v>
       </c>
       <c r="G34" t="n">
-        <v>2.35420407738585</v>
+        <v>2.35420882062212</v>
       </c>
     </row>
     <row r="35">
@@ -10982,19 +10982,19 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>10.2436934938203</v>
+        <v>10.2436907729644</v>
       </c>
       <c r="D35" t="n">
-        <v>10.4062536085717</v>
+        <v>10.4062491731472</v>
       </c>
       <c r="E35" t="n">
-        <v>8.57156736019569</v>
+        <v>8.57157043888638</v>
       </c>
       <c r="F35" t="n">
-        <v>3.26089787360337</v>
+        <v>3.2608952248349</v>
       </c>
       <c r="G35" t="n">
-        <v>3.39314662978136</v>
+        <v>3.39313601728278</v>
       </c>
     </row>
     <row r="36">
@@ -11005,17 +11005,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>4.51517264495407</v>
+        <v>4.5151786301883</v>
       </c>
       <c r="D36" t="n">
-        <v>6.0416365749816</v>
+        <v>6.04162918293329</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>1.49907967129681</v>
+        <v>1.4990796377085</v>
       </c>
       <c r="G36" t="n">
-        <v>1.85955944530607</v>
+        <v>1.85956130066607</v>
       </c>
     </row>
     <row r="37">
@@ -11026,19 +11026,19 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>9.77958515237851</v>
+        <v>9.77958102488327</v>
       </c>
       <c r="D37" t="n">
-        <v>12.1275164037328</v>
+        <v>12.1275186195081</v>
       </c>
       <c r="E37" t="n">
-        <v>9.19790563900143</v>
+        <v>9.19791333835357</v>
       </c>
       <c r="F37" t="n">
-        <v>6.11216228027521</v>
+        <v>6.11216976141994</v>
       </c>
       <c r="G37" t="n">
-        <v>6.31496819109351</v>
+        <v>6.31496248491028</v>
       </c>
     </row>
     <row r="38">
@@ -11050,16 +11050,16 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>6.37137332498564</v>
+        <v>6.37137237480615</v>
       </c>
       <c r="E38" t="n">
-        <v>7.45734556290715</v>
+        <v>7.45735014110871</v>
       </c>
       <c r="F38" t="n">
-        <v>5.88504228220608</v>
+        <v>5.88504211453789</v>
       </c>
       <c r="G38" t="n">
-        <v>6.09035614151932</v>
+        <v>6.09035581138933</v>
       </c>
     </row>
     <row r="39">
@@ -11070,19 +11070,19 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>7.35501595279509</v>
+        <v>7.35501250338734</v>
       </c>
       <c r="D39" t="n">
-        <v>7.18561942337314</v>
+        <v>7.18561865310226</v>
       </c>
       <c r="E39" t="n">
-        <v>7.07902683467711</v>
+        <v>7.07903000644842</v>
       </c>
       <c r="F39" t="n">
-        <v>2.45731786156902</v>
+        <v>2.45731928395648</v>
       </c>
       <c r="G39" t="n">
-        <v>2.63038303406869</v>
+        <v>2.63038823125444</v>
       </c>
     </row>
     <row r="40">
@@ -11093,19 +11093,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>7.75690990545471</v>
+        <v>7.75691345874796</v>
       </c>
       <c r="D40" t="n">
-        <v>8.19802154971909</v>
+        <v>8.19801897653312</v>
       </c>
       <c r="E40" t="n">
-        <v>9.33879863265765</v>
+        <v>9.33879778974423</v>
       </c>
       <c r="F40" t="n">
-        <v>5.61238093478147</v>
+        <v>5.61239442141102</v>
       </c>
       <c r="G40" t="n">
-        <v>5.22680883803268</v>
+        <v>5.22681548855723</v>
       </c>
     </row>
     <row r="41">
@@ -11116,19 +11116,19 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>19.4286012523647</v>
+        <v>19.4286001496619</v>
       </c>
       <c r="D41" t="n">
-        <v>14.7211490495406</v>
+        <v>14.7211621314031</v>
       </c>
       <c r="E41" t="n">
-        <v>19.6346141368859</v>
+        <v>19.6346058510088</v>
       </c>
       <c r="F41" t="n">
-        <v>12.4496928050591</v>
+        <v>12.4496856368396</v>
       </c>
       <c r="G41" t="n">
-        <v>16.1122437182277</v>
+        <v>16.1122376939228</v>
       </c>
     </row>
     <row r="42">
@@ -11139,19 +11139,19 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>8.75883918716083</v>
+        <v>8.75884589788215</v>
       </c>
       <c r="D42" t="n">
-        <v>6.71777716354663</v>
+        <v>6.71777550283409</v>
       </c>
       <c r="E42" t="n">
-        <v>6.25017403095245</v>
+        <v>6.25018482163875</v>
       </c>
       <c r="F42" t="n">
-        <v>2.68006533619928</v>
+        <v>2.68005689571947</v>
       </c>
       <c r="G42" t="n">
-        <v>2.56989668493651</v>
+        <v>2.56989007220349</v>
       </c>
     </row>
     <row r="43">
@@ -11162,19 +11162,19 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>7.37469774580803</v>
+        <v>7.37469370326619</v>
       </c>
       <c r="D43" t="n">
-        <v>5.82737900466386</v>
+        <v>5.82737382877491</v>
       </c>
       <c r="E43" t="n">
-        <v>5.30832757577715</v>
+        <v>5.30832747489482</v>
       </c>
       <c r="F43" t="n">
-        <v>1.64795729593614</v>
+        <v>1.64796057511196</v>
       </c>
       <c r="G43" t="n">
-        <v>1.62840248855982</v>
+        <v>1.6284100441959</v>
       </c>
     </row>
     <row r="44">
@@ -11185,19 +11185,19 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>7.63996824504915</v>
+        <v>7.63996936647226</v>
       </c>
       <c r="D44" t="n">
-        <v>7.09471606407994</v>
+        <v>7.0947080952633</v>
       </c>
       <c r="E44" t="n">
-        <v>6.32942508647254</v>
+        <v>6.32942177203594</v>
       </c>
       <c r="F44" t="n">
-        <v>2.6610108006404</v>
+        <v>2.66100694279303</v>
       </c>
       <c r="G44" t="n">
-        <v>2.77861504019653</v>
+        <v>2.7786140666743</v>
       </c>
     </row>
     <row r="45">
@@ -11208,19 +11208,19 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>13.0536630627924</v>
+        <v>13.0536543651264</v>
       </c>
       <c r="D45" t="n">
-        <v>11.6357386108175</v>
+        <v>11.6357403753744</v>
       </c>
       <c r="E45" t="n">
-        <v>8.87561974659747</v>
+        <v>8.87560717548716</v>
       </c>
       <c r="F45" t="n">
-        <v>3.51560774443709</v>
+        <v>3.51562837726599</v>
       </c>
       <c r="G45" t="n">
-        <v>3.8423645137156</v>
+        <v>3.84235171735358</v>
       </c>
     </row>
     <row r="46">
@@ -11231,19 +11231,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>9.32587849840405</v>
+        <v>9.32588234616902</v>
       </c>
       <c r="D46" t="n">
-        <v>8.52129828941489</v>
+        <v>8.52128549953131</v>
       </c>
       <c r="E46" t="n">
-        <v>7.61348257127471</v>
+        <v>7.61347217909721</v>
       </c>
       <c r="F46" t="n">
-        <v>3.05733121662461</v>
+        <v>3.0573297568281</v>
       </c>
       <c r="G46" t="n">
-        <v>3.10984722122444</v>
+        <v>3.10984351264305</v>
       </c>
     </row>
     <row r="47">
@@ -11254,19 +11254,19 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>13.3034153075629</v>
+        <v>13.3034218560646</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7309839527352</v>
+        <v>11.7309862974758</v>
       </c>
       <c r="E47" t="n">
-        <v>11.1486432452722</v>
+        <v>11.148649949826</v>
       </c>
       <c r="F47" t="n">
-        <v>4.45682467942925</v>
+        <v>4.45681873965503</v>
       </c>
       <c r="G47" t="n">
-        <v>4.65145995881904</v>
+        <v>4.65146231985886</v>
       </c>
     </row>
     <row r="48">
@@ -11277,19 +11277,19 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>9.27370477356946</v>
+        <v>9.27370509509663</v>
       </c>
       <c r="D48" t="n">
-        <v>7.30864876072381</v>
+        <v>7.30864870378402</v>
       </c>
       <c r="E48" t="n">
-        <v>6.21599620858579</v>
+        <v>6.21599121171803</v>
       </c>
       <c r="F48" t="n">
-        <v>4.38212618940467</v>
+        <v>4.38212092716305</v>
       </c>
       <c r="G48" t="n">
-        <v>4.16093758411503</v>
+        <v>4.16093216061464</v>
       </c>
     </row>
     <row r="49">
@@ -11300,19 +11300,19 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>8.26810850782015</v>
+        <v>8.26812089256284</v>
       </c>
       <c r="D49" t="n">
-        <v>10.0726103909599</v>
+        <v>10.0725961775231</v>
       </c>
       <c r="E49" t="n">
-        <v>7.73926765259576</v>
+        <v>7.73927291648799</v>
       </c>
       <c r="F49" t="n">
-        <v>3.64960111035355</v>
+        <v>3.64959455195349</v>
       </c>
       <c r="G49" t="n">
-        <v>3.8955849201677</v>
+        <v>3.89559353889075</v>
       </c>
     </row>
     <row r="50">
@@ -11326,16 +11326,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>5.42969081045034</v>
+        <v>5.42969711508481</v>
       </c>
       <c r="E50" t="n">
-        <v>5.91138251510751</v>
+        <v>5.91137937776343</v>
       </c>
       <c r="F50" t="n">
-        <v>3.04406130623849</v>
+        <v>3.04405632387855</v>
       </c>
       <c r="G50" t="n">
-        <v>3.10735602627945</v>
+        <v>3.10735960490781</v>
       </c>
     </row>
     <row r="51">
@@ -11346,19 +11346,19 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>12.5566318325515</v>
+        <v>12.5566374075601</v>
       </c>
       <c r="D51" t="n">
-        <v>13.4947685439551</v>
+        <v>13.4947693954083</v>
       </c>
       <c r="E51" t="n">
-        <v>10.592329337</v>
+        <v>10.5923314638479</v>
       </c>
       <c r="F51" t="n">
-        <v>3.93711651380533</v>
+        <v>3.93711559499467</v>
       </c>
       <c r="G51" t="n">
-        <v>4.12901838399912</v>
+        <v>4.12901892160761</v>
       </c>
     </row>
     <row r="52">
@@ -11369,19 +11369,19 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>9.52775097558859</v>
+        <v>9.52774987382292</v>
       </c>
       <c r="D52" t="n">
-        <v>10.3282215386333</v>
+        <v>10.3282270123953</v>
       </c>
       <c r="E52" t="n">
-        <v>9.61103765419197</v>
+        <v>9.61103061177335</v>
       </c>
       <c r="F52" t="n">
-        <v>5.25860171008272</v>
+        <v>5.25860021908937</v>
       </c>
       <c r="G52" t="n">
-        <v>5.31109254685457</v>
+        <v>5.3111099925232</v>
       </c>
     </row>
     <row r="53">
@@ -11392,19 +11392,19 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>8.81012615997435</v>
+        <v>8.81010160785486</v>
       </c>
       <c r="D53" t="n">
-        <v>10.4078831840715</v>
+        <v>10.4078741684845</v>
       </c>
       <c r="E53" t="n">
-        <v>9.19988962560492</v>
+        <v>9.19989989728216</v>
       </c>
       <c r="F53" t="n">
-        <v>3.31902166395131</v>
+        <v>3.31900722657455</v>
       </c>
       <c r="G53" t="n">
-        <v>3.38880360820403</v>
+        <v>3.38882776486066</v>
       </c>
     </row>
     <row r="54">
@@ -11415,19 +11415,19 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>11.2271480829939</v>
+        <v>11.227146303835</v>
       </c>
       <c r="D54" t="n">
-        <v>11.4293967649978</v>
+        <v>11.4294006220526</v>
       </c>
       <c r="E54" t="n">
-        <v>10.817688217534</v>
+        <v>10.8176769848994</v>
       </c>
       <c r="F54" t="n">
-        <v>4.03949704056509</v>
+        <v>4.03949403184506</v>
       </c>
       <c r="G54" t="n">
-        <v>4.10628437145452</v>
+        <v>4.10628137065151</v>
       </c>
     </row>
     <row r="55">
@@ -11438,19 +11438,19 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>9.25265373079545</v>
+        <v>9.25266757116961</v>
       </c>
       <c r="D55" t="n">
-        <v>8.28286199997571</v>
+        <v>8.28286120251697</v>
       </c>
       <c r="E55" t="n">
-        <v>8.15790064141648</v>
+        <v>8.15789649384483</v>
       </c>
       <c r="F55" t="n">
-        <v>4.73367319575599</v>
+        <v>4.73366777915381</v>
       </c>
       <c r="G55" t="n">
-        <v>4.93524337333844</v>
+        <v>4.93524316406821</v>
       </c>
     </row>
     <row r="56">
@@ -11461,19 +11461,19 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>8.27874869137248</v>
+        <v>8.27876462683696</v>
       </c>
       <c r="D56" t="n">
-        <v>6.60540393118465</v>
+        <v>6.60539693740558</v>
       </c>
       <c r="E56" t="n">
-        <v>5.94836114422981</v>
+        <v>5.94835666558232</v>
       </c>
       <c r="F56" t="n">
-        <v>2.73233298155324</v>
+        <v>2.73233156928988</v>
       </c>
       <c r="G56" t="n">
-        <v>2.77749426176783</v>
+        <v>2.77750267060776</v>
       </c>
     </row>
     <row r="57">
@@ -11484,19 +11484,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>7.3203133393017</v>
+        <v>7.32032915643209</v>
       </c>
       <c r="D57" t="n">
-        <v>6.63712079764715</v>
+        <v>6.63711821269852</v>
       </c>
       <c r="E57" t="n">
-        <v>6.08314157465215</v>
+        <v>6.08314057555372</v>
       </c>
       <c r="F57" t="n">
-        <v>4.09016571785892</v>
+        <v>4.09015943496302</v>
       </c>
       <c r="G57" t="n">
-        <v>3.21757657725196</v>
+        <v>3.21757954406767</v>
       </c>
     </row>
     <row r="58">
@@ -11507,19 +11507,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>6.6601271284592</v>
+        <v>6.66010917810316</v>
       </c>
       <c r="D58" t="n">
-        <v>7.95612138391778</v>
+        <v>7.95612371371985</v>
       </c>
       <c r="E58" t="n">
-        <v>7.12099943769862</v>
+        <v>7.12099224668338</v>
       </c>
       <c r="F58" t="n">
-        <v>2.8808552340209</v>
+        <v>2.88085001342672</v>
       </c>
       <c r="G58" t="n">
-        <v>3.52183571686613</v>
+        <v>3.52183171382916</v>
       </c>
     </row>
     <row r="59">
@@ -11530,19 +11530,19 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>8.30828146171881</v>
+        <v>8.30828267770087</v>
       </c>
       <c r="D59" t="n">
-        <v>8.85637186098476</v>
+        <v>8.8563528730607</v>
       </c>
       <c r="E59" t="n">
-        <v>7.99781013050883</v>
+        <v>7.99779348718795</v>
       </c>
       <c r="F59" t="n">
-        <v>2.56067776231249</v>
+        <v>2.56066814091612</v>
       </c>
       <c r="G59" t="n">
-        <v>2.95326625250208</v>
+        <v>2.95327817617658</v>
       </c>
     </row>
     <row r="60">
@@ -11553,19 +11553,19 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>6.80809461887755</v>
+        <v>6.8080966709887</v>
       </c>
       <c r="D60" t="n">
-        <v>9.53808647126997</v>
+        <v>9.53808836651899</v>
       </c>
       <c r="E60" t="n">
-        <v>8.60174257642084</v>
+        <v>8.60174889935442</v>
       </c>
       <c r="F60" t="n">
-        <v>5.31787038713655</v>
+        <v>5.31787994566607</v>
       </c>
       <c r="G60" t="n">
-        <v>5.31338893748546</v>
+        <v>5.31337210986613</v>
       </c>
     </row>
     <row r="61">
@@ -11576,19 +11576,19 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>7.32943045106334</v>
+        <v>7.32942894504693</v>
       </c>
       <c r="D61" t="n">
-        <v>6.85740722116061</v>
+        <v>6.85740789305004</v>
       </c>
       <c r="E61" t="n">
-        <v>7.49791653777708</v>
+        <v>7.49791490874988</v>
       </c>
       <c r="F61" t="n">
-        <v>3.9653075152291</v>
+        <v>3.96529594040599</v>
       </c>
       <c r="G61" t="n">
-        <v>3.86912406329154</v>
+        <v>3.86914345069199</v>
       </c>
     </row>
     <row r="62">
@@ -11599,19 +11599,19 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>15.6116422274701</v>
+        <v>15.6116262137633</v>
       </c>
       <c r="D62" t="n">
-        <v>12.2835927810454</v>
+        <v>12.283597425516</v>
       </c>
       <c r="E62" t="n">
-        <v>12.5234146985061</v>
+        <v>12.5234181486338</v>
       </c>
       <c r="F62" t="n">
-        <v>6.67414352991783</v>
+        <v>6.67413198905411</v>
       </c>
       <c r="G62" t="n">
-        <v>5.48808191037249</v>
+        <v>5.48810650141477</v>
       </c>
     </row>
     <row r="63">
@@ -11622,19 +11622,19 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>10.564414419975</v>
+        <v>10.5644178771604</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4383320631334</v>
+        <v>12.4383404695416</v>
       </c>
       <c r="E63" t="n">
-        <v>12.9886000223407</v>
+        <v>12.9885969671017</v>
       </c>
       <c r="F63" t="n">
-        <v>4.78785337937044</v>
+        <v>4.78784445178429</v>
       </c>
       <c r="G63" t="n">
-        <v>5.45933013608801</v>
+        <v>5.45931339544995</v>
       </c>
     </row>
     <row r="64">
@@ -11645,19 +11645,19 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>8.99495982402223</v>
+        <v>8.99498862646724</v>
       </c>
       <c r="D64" t="n">
-        <v>9.00774460664425</v>
+        <v>9.00774304669508</v>
       </c>
       <c r="E64" t="n">
-        <v>9.98955023171496</v>
+        <v>9.98954572912787</v>
       </c>
       <c r="F64" t="n">
-        <v>6.06236083398398</v>
+        <v>6.06235908463673</v>
       </c>
       <c r="G64" t="n">
-        <v>5.95771393114886</v>
+        <v>5.95771505588167</v>
       </c>
     </row>
     <row r="65">
@@ -11668,19 +11668,19 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>9.75301150834343</v>
+        <v>9.75301143315162</v>
       </c>
       <c r="D65" t="n">
-        <v>13.5311579488073</v>
+        <v>13.5311667223676</v>
       </c>
       <c r="E65" t="n">
-        <v>10.8726642044359</v>
+        <v>10.8726612671791</v>
       </c>
       <c r="F65" t="n">
-        <v>8.49893030447298</v>
+        <v>8.49893422101728</v>
       </c>
       <c r="G65" t="n">
-        <v>10.1533515486411</v>
+        <v>10.1533657043673</v>
       </c>
     </row>
     <row r="66">
@@ -11691,19 +11691,19 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>13.4982856465143</v>
+        <v>13.4982933475617</v>
       </c>
       <c r="D66" t="n">
-        <v>8.01078433681038</v>
+        <v>8.01078124860587</v>
       </c>
       <c r="E66" t="n">
-        <v>8.75391670286279</v>
+        <v>8.75391157506356</v>
       </c>
       <c r="F66" t="n">
-        <v>4.25088028169014</v>
+        <v>4.25087448596202</v>
       </c>
       <c r="G66" t="n">
-        <v>5.48184225481311</v>
+        <v>5.48184322057075</v>
       </c>
     </row>
     <row r="67">
@@ -11714,17 +11714,17 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>4.73553175809803</v>
+        <v>4.73552988705618</v>
       </c>
       <c r="D67" t="n">
-        <v>5.66365982935523</v>
+        <v>5.66365951387245</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>2.85477125086553</v>
+        <v>2.85477479393408</v>
       </c>
       <c r="G67" t="n">
-        <v>2.76828907522053</v>
+        <v>2.76828869312947</v>
       </c>
     </row>
     <row r="68">
@@ -11735,16 +11735,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>8.19403221065433</v>
+        <v>8.19401025734194</v>
       </c>
       <c r="D68" t="n">
-        <v>7.67681091678763</v>
+        <v>7.6768161679126</v>
       </c>
       <c r="E68" t="n">
-        <v>7.0691051751275</v>
+        <v>7.06909979259971</v>
       </c>
       <c r="F68" t="n">
-        <v>2.63671604031501</v>
+        <v>2.63671261221039</v>
       </c>
       <c r="G68"/>
     </row>
@@ -11756,19 +11756,19 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>7.79814679768341</v>
+        <v>7.7981411333871</v>
       </c>
       <c r="D69" t="n">
-        <v>7.06816254414581</v>
+        <v>7.06817077353737</v>
       </c>
       <c r="E69" t="n">
-        <v>5.18255371799747</v>
+        <v>5.18254798791063</v>
       </c>
       <c r="F69" t="n">
-        <v>2.04456302925893</v>
+        <v>2.04455688445753</v>
       </c>
       <c r="G69" t="n">
-        <v>2.06135077477429</v>
+        <v>2.06135610440921</v>
       </c>
     </row>
     <row r="70">
@@ -11779,19 +11779,19 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>7.74652948397565</v>
+        <v>7.74652585910462</v>
       </c>
       <c r="D70" t="n">
-        <v>6.89293813766452</v>
+        <v>6.89293958047392</v>
       </c>
       <c r="E70" t="n">
-        <v>6.23893583982225</v>
+        <v>6.23891900946255</v>
       </c>
       <c r="F70" t="n">
-        <v>3.20701988523088</v>
+        <v>3.2070149997256</v>
       </c>
       <c r="G70" t="n">
-        <v>3.08581120973432</v>
+        <v>3.08580960389739</v>
       </c>
     </row>
     <row r="71">
@@ -11802,19 +11802,19 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>11.581468202713</v>
+        <v>11.5814927511154</v>
       </c>
       <c r="D71" t="n">
-        <v>9.73409301449317</v>
+        <v>9.734074212963</v>
       </c>
       <c r="E71" t="n">
-        <v>9.0381585305741</v>
+        <v>9.03815995818088</v>
       </c>
       <c r="F71" t="n">
-        <v>3.77836912048995</v>
+        <v>3.77837970501102</v>
       </c>
       <c r="G71" t="n">
-        <v>3.57348843856334</v>
+        <v>3.573499978708</v>
       </c>
     </row>
     <row r="72">
@@ -11825,19 +11825,19 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>10.4385625448434</v>
+        <v>10.4385673114443</v>
       </c>
       <c r="D72" t="n">
-        <v>11.7000550835744</v>
+        <v>11.7000588437225</v>
       </c>
       <c r="E72" t="n">
-        <v>10.5403333255518</v>
+        <v>10.5403348497741</v>
       </c>
       <c r="F72" t="n">
-        <v>4.0499775800736</v>
+        <v>4.0499758177365</v>
       </c>
       <c r="G72" t="n">
-        <v>3.84478119367757</v>
+        <v>3.84478455544366</v>
       </c>
     </row>
     <row r="73">
@@ -11848,19 +11848,19 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>11.6894338302064</v>
+        <v>11.6894206750458</v>
       </c>
       <c r="D73" t="n">
-        <v>10.1156989232181</v>
+        <v>10.115708799826</v>
       </c>
       <c r="E73" t="n">
-        <v>9.1194468273155</v>
+        <v>9.11945666703889</v>
       </c>
       <c r="F73" t="n">
-        <v>5.03663721207168</v>
+        <v>5.0366322087952</v>
       </c>
       <c r="G73" t="n">
-        <v>5.21717836354019</v>
+        <v>5.21717628737978</v>
       </c>
     </row>
     <row r="74">
@@ -11871,17 +11871,17 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>6.94148316199982</v>
+        <v>6.94149078132162</v>
       </c>
       <c r="D74" t="n">
-        <v>6.27903357118912</v>
+        <v>6.27904842131616</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>3.06735181716693</v>
+        <v>3.06734718399075</v>
       </c>
       <c r="G74" t="n">
-        <v>2.8866251807211</v>
+        <v>2.88662955707565</v>
       </c>
     </row>
     <row r="75">
@@ -11892,17 +11892,17 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>9.62181406739933</v>
+        <v>9.62180458644249</v>
       </c>
       <c r="D75" t="n">
-        <v>3.00608125257824</v>
+        <v>3.00609368739937</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>4.30591807642651</v>
+        <v>4.30591618944001</v>
       </c>
       <c r="G75" t="n">
-        <v>3.47823720854749</v>
+        <v>3.47824017323365</v>
       </c>
     </row>
     <row r="76">
@@ -11913,19 +11913,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>10.3165826678546</v>
+        <v>10.3165899701313</v>
       </c>
       <c r="D76" t="n">
-        <v>10.5917861764599</v>
+        <v>10.5917906566569</v>
       </c>
       <c r="E76" t="n">
-        <v>6.67223085757207</v>
+        <v>6.67223178165859</v>
       </c>
       <c r="F76" t="n">
-        <v>2.77273207978172</v>
+        <v>2.7727299530385</v>
       </c>
       <c r="G76" t="n">
-        <v>3.10141949478667</v>
+        <v>3.10141905591397</v>
       </c>
     </row>
     <row r="77">
@@ -11936,17 +11936,17 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>7.44703294984949</v>
+        <v>7.44703778784906</v>
       </c>
       <c r="D77" t="n">
-        <v>6.24069056101876</v>
+        <v>6.24068956955926</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>2.8558103224848</v>
+        <v>2.85581087044776</v>
       </c>
       <c r="G77" t="n">
-        <v>2.58474159243211</v>
+        <v>2.58474008745224</v>
       </c>
     </row>
     <row r="78">
@@ -11957,17 +11957,17 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>5.81449242082773</v>
+        <v>5.81449736511506</v>
       </c>
       <c r="D78" t="n">
-        <v>5.9749987131404</v>
+        <v>5.97500408333687</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>1.92129053781451</v>
+        <v>1.92128859106578</v>
       </c>
       <c r="G78" t="n">
-        <v>1.86163781193731</v>
+        <v>1.86163889241958</v>
       </c>
     </row>
     <row r="79">
@@ -11978,19 +11978,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>8.56384511608448</v>
+        <v>8.56384622554045</v>
       </c>
       <c r="D79" t="n">
-        <v>10.1836115764282</v>
+        <v>10.183604497238</v>
       </c>
       <c r="E79" t="n">
-        <v>8.71468045972525</v>
+        <v>8.71466734624833</v>
       </c>
       <c r="F79" t="n">
-        <v>3.0661097919645</v>
+        <v>3.06610749030634</v>
       </c>
       <c r="G79" t="n">
-        <v>3.61692675993615</v>
+        <v>3.61693352366388</v>
       </c>
     </row>
     <row r="80">
@@ -12001,19 +12001,19 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>10.603716340858</v>
+        <v>10.6037187463333</v>
       </c>
       <c r="D80" t="n">
-        <v>7.97485157890272</v>
+        <v>7.97485101847027</v>
       </c>
       <c r="E80" t="n">
-        <v>6.88906536907321</v>
+        <v>6.89034835168044</v>
       </c>
       <c r="F80" t="n">
-        <v>4.90229981401725</v>
+        <v>4.90230625063937</v>
       </c>
       <c r="G80" t="n">
-        <v>2.31157942352612</v>
+        <v>2.31158299355749</v>
       </c>
     </row>
     <row r="81">
@@ -12024,13 +12024,13 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>7.17514744305706</v>
+        <v>7.17513531303983</v>
       </c>
       <c r="D81" t="n">
-        <v>6.26603616157853</v>
+        <v>6.26604057478032</v>
       </c>
       <c r="E81" t="n">
-        <v>18.8012086605205</v>
+        <v>18.8012206823571</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -12043,19 +12043,19 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>9.315972351184</v>
+        <v>9.31598037146559</v>
       </c>
       <c r="D82" t="n">
-        <v>9.34110639063429</v>
+        <v>9.34110527986801</v>
       </c>
       <c r="E82" t="n">
-        <v>9.15253174324772</v>
+        <v>9.1525444764795</v>
       </c>
       <c r="F82" t="n">
-        <v>4.900175351809</v>
+        <v>4.90018330237283</v>
       </c>
       <c r="G82" t="n">
-        <v>5.27637119196446</v>
+        <v>5.27636442875168</v>
       </c>
     </row>
     <row r="83">
@@ -12066,19 +12066,19 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>8.96362977415031</v>
+        <v>8.9636314104233</v>
       </c>
       <c r="D83" t="n">
-        <v>9.7915307411918</v>
+        <v>9.7915445324669</v>
       </c>
       <c r="E83" t="n">
-        <v>10.504759602304</v>
+        <v>10.5047466777795</v>
       </c>
       <c r="F83" t="n">
-        <v>6.75010984673449</v>
+        <v>6.7500967409657</v>
       </c>
       <c r="G83" t="n">
-        <v>4.72115511531225</v>
+        <v>4.72114630435763</v>
       </c>
     </row>
     <row r="84">
@@ -12089,19 +12089,19 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>10.2311068505909</v>
+        <v>10.2311129323222</v>
       </c>
       <c r="D84" t="n">
-        <v>9.89023840103233</v>
+        <v>9.89024008814698</v>
       </c>
       <c r="E84" t="n">
-        <v>10.1920319043671</v>
+        <v>10.192034180047</v>
       </c>
       <c r="F84" t="n">
-        <v>4.0053179954166</v>
+        <v>4.00532070076513</v>
       </c>
       <c r="G84" t="n">
-        <v>5.37216078844084</v>
+        <v>5.37216275614056</v>
       </c>
     </row>
     <row r="85">
@@ -12112,15 +12112,15 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>8.18633500417287</v>
+        <v>8.18633308930031</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>1.98203304661546</v>
+        <v>1.98203298412481</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0923480983241345</v>
+        <v>0.0923461719019898</v>
       </c>
     </row>
     <row r="86">
@@ -12131,19 +12131,19 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>7.45438548438093</v>
+        <v>7.45438353340657</v>
       </c>
       <c r="D86" t="n">
-        <v>6.83656427275089</v>
+        <v>6.83656260075334</v>
       </c>
       <c r="E86" t="n">
-        <v>7.20697713604904</v>
+        <v>7.20696442742711</v>
       </c>
       <c r="F86" t="n">
-        <v>3.8659688912823</v>
+        <v>3.86596488873411</v>
       </c>
       <c r="G86" t="n">
-        <v>3.98892931667139</v>
+        <v>3.98892435031855</v>
       </c>
     </row>
     <row r="87">
@@ -12154,19 +12154,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>13.064637629</v>
+        <v>13.0646523931089</v>
       </c>
       <c r="D87" t="n">
-        <v>11.7449377187316</v>
+        <v>11.7449363534639</v>
       </c>
       <c r="E87" t="n">
-        <v>7.32254012394332</v>
+        <v>7.32255063615005</v>
       </c>
       <c r="F87" t="n">
-        <v>4.14289501868125</v>
+        <v>4.14289206181569</v>
       </c>
       <c r="G87" t="n">
-        <v>3.93713840680678</v>
+        <v>3.93714631853271</v>
       </c>
     </row>
     <row r="88">
@@ -12177,17 +12177,17 @@
         <v>179</v>
       </c>
       <c r="C88" t="n">
-        <v>9.72355791557873</v>
+        <v>9.72354691560234</v>
       </c>
       <c r="D88" t="n">
-        <v>8.986256675439</v>
+        <v>8.98626899283736</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
-        <v>4.04728424631075</v>
+        <v>4.04727658147586</v>
       </c>
       <c r="G88" t="n">
-        <v>4.36961035221113</v>
+        <v>4.36961861801544</v>
       </c>
     </row>
     <row r="89">
@@ -12198,19 +12198,19 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>8.97393763278803</v>
+        <v>8.9739255037393</v>
       </c>
       <c r="D89" t="n">
-        <v>14.5487699865053</v>
+        <v>14.5487706062056</v>
       </c>
       <c r="E89" t="n">
-        <v>13.9460631097558</v>
+        <v>13.9460601739954</v>
       </c>
       <c r="F89" t="n">
-        <v>6.10067186195109</v>
+        <v>6.10066645666986</v>
       </c>
       <c r="G89" t="n">
-        <v>6.40821156028835</v>
+        <v>6.40820265976177</v>
       </c>
     </row>
     <row r="90">
@@ -12221,19 +12221,19 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>7.85160410344029</v>
+        <v>7.85159070976478</v>
       </c>
       <c r="D90" t="n">
-        <v>6.54269765541442</v>
+        <v>6.54270562652523</v>
       </c>
       <c r="E90" t="n">
-        <v>6.44814078727065</v>
+        <v>6.44814336314601</v>
       </c>
       <c r="F90" t="n">
-        <v>2.24142453213585</v>
+        <v>2.24142891917309</v>
       </c>
       <c r="G90" t="n">
-        <v>2.9783525628269</v>
+        <v>2.97836088734162</v>
       </c>
     </row>
     <row r="91">
@@ -12244,19 +12244,19 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>11.6959819564528</v>
+        <v>11.6959819052555</v>
       </c>
       <c r="D91" t="n">
-        <v>11.1813781823189</v>
+        <v>11.1813743459796</v>
       </c>
       <c r="E91" t="n">
-        <v>11.2928895869826</v>
+        <v>11.2928946364714</v>
       </c>
       <c r="F91" t="n">
-        <v>4.77072031841498</v>
+        <v>4.77070309566356</v>
       </c>
       <c r="G91" t="n">
-        <v>5.04416780078117</v>
+        <v>5.0441613615538</v>
       </c>
     </row>
     <row r="92">
@@ -12267,19 +12267,19 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>7.75430234108246</v>
+        <v>7.75430452921526</v>
       </c>
       <c r="D92" t="n">
-        <v>6.43276984323464</v>
+        <v>6.43276756748644</v>
       </c>
       <c r="E92" t="n">
-        <v>7.1601098450652</v>
+        <v>7.16011145930358</v>
       </c>
       <c r="F92" t="n">
-        <v>4.57631450108819</v>
+        <v>4.57631300508669</v>
       </c>
       <c r="G92" t="n">
-        <v>3.85347975699504</v>
+        <v>3.85347706328145</v>
       </c>
     </row>
     <row r="93">
@@ -12290,19 +12290,19 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>8.35996187639535</v>
+        <v>8.3599726921645</v>
       </c>
       <c r="D93" t="n">
-        <v>7.74304970040943</v>
+        <v>7.7430558838447</v>
       </c>
       <c r="E93" t="n">
-        <v>7.25789734051053</v>
+        <v>7.2578926152393</v>
       </c>
       <c r="F93" t="n">
-        <v>5.72794263597689</v>
+        <v>5.72794671765994</v>
       </c>
       <c r="G93" t="n">
-        <v>5.8726687327228</v>
+        <v>5.87266776967117</v>
       </c>
     </row>
     <row r="94">
@@ -12313,19 +12313,19 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>17.965083309496</v>
+        <v>17.9650710113863</v>
       </c>
       <c r="D94" t="n">
-        <v>15.0370574468901</v>
+        <v>15.0370386381313</v>
       </c>
       <c r="E94" t="n">
-        <v>15.6392320085929</v>
+        <v>15.6392244050876</v>
       </c>
       <c r="F94" t="n">
-        <v>6.4620968417473</v>
+        <v>6.46208013200029</v>
       </c>
       <c r="G94" t="n">
-        <v>6.26957719786439</v>
+        <v>6.26960523034716</v>
       </c>
     </row>
     <row r="95">
@@ -12336,15 +12336,15 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>8.00750467921917</v>
+        <v>8.0074993525966</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>3.02827210748569</v>
+        <v>3.02827948664478</v>
       </c>
       <c r="G95" t="n">
-        <v>3.01604746633808</v>
+        <v>3.01603898326827</v>
       </c>
     </row>
     <row r="96">
@@ -12355,17 +12355,17 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>13.7310647197418</v>
+        <v>13.7310751754742</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>2.84430812121112</v>
+        <v>2.84431178955569</v>
       </c>
       <c r="F96" t="n">
-        <v>2.38721583303683</v>
+        <v>2.38723216400704</v>
       </c>
       <c r="G96" t="n">
-        <v>3.02049960490241</v>
+        <v>3.02047984163184</v>
       </c>
     </row>
     <row r="97">
@@ -12376,19 +12376,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>10.0824687064262</v>
+        <v>10.0824774871366</v>
       </c>
       <c r="D97" t="n">
-        <v>7.84401179182817</v>
+        <v>7.84401665103379</v>
       </c>
       <c r="E97" t="n">
-        <v>8.53762064745396</v>
+        <v>8.53760232077742</v>
       </c>
       <c r="F97" t="n">
-        <v>4.31470176600453</v>
+        <v>4.3147155160544</v>
       </c>
       <c r="G97" t="n">
-        <v>4.50441406052121</v>
+        <v>4.50439635440184</v>
       </c>
     </row>
     <row r="98">
@@ -12399,19 +12399,19 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>5.04890146179182</v>
+        <v>5.04890709807218</v>
       </c>
       <c r="D98" t="n">
-        <v>5.75259606354439</v>
+        <v>5.7525968908275</v>
       </c>
       <c r="E98" t="n">
-        <v>6.01448785727893</v>
+        <v>6.0134708027742</v>
       </c>
       <c r="F98" t="n">
-        <v>3.56943327559768</v>
+        <v>3.56942619527015</v>
       </c>
       <c r="G98" t="n">
-        <v>3.34675539307115</v>
+        <v>3.3467601832916</v>
       </c>
     </row>
     <row r="99">
@@ -12422,19 +12422,19 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>10.3460054842244</v>
+        <v>10.3460110665562</v>
       </c>
       <c r="D99" t="n">
-        <v>7.32025951746748</v>
+        <v>7.3202660846667</v>
       </c>
       <c r="E99" t="n">
-        <v>8.59141916433998</v>
+        <v>8.59142398088117</v>
       </c>
       <c r="F99" t="n">
-        <v>4.76552120666783</v>
+        <v>4.76551138955178</v>
       </c>
       <c r="G99" t="n">
-        <v>4.10686969015331</v>
+        <v>4.10686392212455</v>
       </c>
     </row>
     <row r="100">
@@ -12445,19 +12445,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>8.44494631849491</v>
+        <v>8.44494529964525</v>
       </c>
       <c r="D100" t="n">
-        <v>9.48123228926622</v>
+        <v>9.48122455542808</v>
       </c>
       <c r="E100" t="n">
-        <v>8.30629770446159</v>
+        <v>8.30629898410762</v>
       </c>
       <c r="F100" t="n">
-        <v>4.11939453077779</v>
+        <v>4.11939054885735</v>
       </c>
       <c r="G100" t="n">
-        <v>4.21942065849354</v>
+        <v>4.21941385789732</v>
       </c>
     </row>
     <row r="101">
@@ -12468,19 +12468,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>8.28042258756903</v>
+        <v>8.28041794592948</v>
       </c>
       <c r="D101" t="n">
-        <v>6.76530178230002</v>
+        <v>6.76530864482789</v>
       </c>
       <c r="E101" t="n">
-        <v>5.94226482783435</v>
+        <v>5.9422657283936</v>
       </c>
       <c r="F101" t="n">
-        <v>2.43073784313875</v>
+        <v>2.43073319635665</v>
       </c>
       <c r="G101" t="n">
-        <v>2.49200289598501</v>
+        <v>2.49199573569038</v>
       </c>
     </row>
     <row r="102">
@@ -12491,19 +12491,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>11.6389531836648</v>
+        <v>11.6389639217804</v>
       </c>
       <c r="D102" t="n">
-        <v>15.3191610397407</v>
+        <v>15.3191680915763</v>
       </c>
       <c r="E102" t="n">
-        <v>12.4710210393521</v>
+        <v>12.4710062615334</v>
       </c>
       <c r="F102" t="n">
-        <v>4.25865362923137</v>
+        <v>4.2586467265156</v>
       </c>
       <c r="G102" t="n">
-        <v>4.5137467095642</v>
+        <v>4.51374303021412</v>
       </c>
     </row>
     <row r="103">
@@ -12514,17 +12514,17 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>5.86847743389127</v>
+        <v>5.86848046115121</v>
       </c>
       <c r="D103" t="n">
-        <v>5.86656745039984</v>
+        <v>5.86657413605499</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="n">
-        <v>2.27371962518352</v>
+        <v>2.27371488846368</v>
       </c>
       <c r="G103" t="n">
-        <v>2.2788415760143</v>
+        <v>2.27882887385513</v>
       </c>
     </row>
     <row r="104">
@@ -12535,19 +12535,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>10.4724016994578</v>
+        <v>10.4724094406545</v>
       </c>
       <c r="D104" t="n">
-        <v>7.81854966588855</v>
+        <v>7.81854806641631</v>
       </c>
       <c r="E104" t="n">
-        <v>7.9503471928306</v>
+        <v>7.95035548847996</v>
       </c>
       <c r="F104" t="n">
-        <v>2.94937909063772</v>
+        <v>2.94937140626014</v>
       </c>
       <c r="G104" t="n">
-        <v>2.87950416713372</v>
+        <v>2.8795172444756</v>
       </c>
     </row>
     <row r="105">
@@ -12558,17 +12558,17 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>7.09440877001168</v>
+        <v>7.09440851244348</v>
       </c>
       <c r="D105" t="n">
-        <v>7.43739526201362</v>
+        <v>7.43739640254527</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="n">
-        <v>3.41947378741201</v>
+        <v>3.4194858085743</v>
       </c>
       <c r="G105" t="n">
-        <v>3.14261931756968</v>
+        <v>3.14262579938956</v>
       </c>
     </row>
     <row r="106">
@@ -12579,19 +12579,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>11.1230126924374</v>
+        <v>11.1230097075742</v>
       </c>
       <c r="D106" t="n">
-        <v>14.6885339664741</v>
+        <v>14.6885296725182</v>
       </c>
       <c r="E106" t="n">
-        <v>12.1025814058066</v>
+        <v>12.1025809414454</v>
       </c>
       <c r="F106" t="n">
-        <v>5.78205604836662</v>
+        <v>5.78203933275637</v>
       </c>
       <c r="G106" t="n">
-        <v>4.94184438622371</v>
+        <v>4.94184466895133</v>
       </c>
     </row>
     <row r="107">
@@ -12602,19 +12602,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>4.5918404366569</v>
+        <v>4.59184283174218</v>
       </c>
       <c r="D107" t="n">
-        <v>4.01979130772833</v>
+        <v>4.01979506393479</v>
       </c>
       <c r="E107" t="n">
-        <v>4.37787613728177</v>
+        <v>4.37787879942587</v>
       </c>
       <c r="F107" t="n">
-        <v>19.0517742224241</v>
+        <v>19.0517760341452</v>
       </c>
       <c r="G107" t="n">
-        <v>20.5895124328021</v>
+        <v>20.5895236246539</v>
       </c>
     </row>
     <row r="108">
@@ -12625,19 +12625,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>7.28296892371221</v>
+        <v>7.28297190040978</v>
       </c>
       <c r="D108" t="n">
-        <v>7.19045999886769</v>
+        <v>7.19045441173739</v>
       </c>
       <c r="E108" t="n">
-        <v>7.59199407633146</v>
+        <v>7.59199542393648</v>
       </c>
       <c r="F108" t="n">
-        <v>4.17614125899171</v>
+        <v>4.17614232837901</v>
       </c>
       <c r="G108" t="n">
-        <v>4.20645319176632</v>
+        <v>4.20644592200153</v>
       </c>
     </row>
     <row r="109">
@@ -12648,19 +12648,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>7.94661642659305</v>
+        <v>7.94662647904924</v>
       </c>
       <c r="D109" t="n">
-        <v>8.23472660111181</v>
+        <v>8.2347209525916</v>
       </c>
       <c r="E109" t="n">
-        <v>6.71418196126219</v>
+        <v>6.71418244776595</v>
       </c>
       <c r="F109" t="n">
-        <v>2.7716007035508</v>
+        <v>2.77160201378017</v>
       </c>
       <c r="G109" t="n">
-        <v>2.73903623532917</v>
+        <v>2.73904236201718</v>
       </c>
     </row>
     <row r="110">
@@ -12671,19 +12671,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>8.12550779311317</v>
+        <v>8.12550808085498</v>
       </c>
       <c r="D110" t="n">
-        <v>6.09212893187095</v>
+        <v>6.0921282730127</v>
       </c>
       <c r="E110" t="n">
-        <v>5.16454541576766</v>
+        <v>5.16454265251543</v>
       </c>
       <c r="F110" t="n">
-        <v>2.48883712572162</v>
+        <v>2.48883864487316</v>
       </c>
       <c r="G110" t="n">
-        <v>2.54747305743303</v>
+        <v>2.54747244689278</v>
       </c>
     </row>
     <row r="111">
@@ -12694,19 +12694,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>9.00773166144415</v>
+        <v>9.00774057125783</v>
       </c>
       <c r="D111" t="n">
-        <v>10.107800367983</v>
+        <v>10.10780226485</v>
       </c>
       <c r="E111" t="n">
-        <v>10.3442633038841</v>
+        <v>10.3442640826259</v>
       </c>
       <c r="F111" t="n">
-        <v>4.11337040862991</v>
+        <v>4.11336416245093</v>
       </c>
       <c r="G111" t="n">
-        <v>3.53190426840325</v>
+        <v>3.53189805855939</v>
       </c>
     </row>
     <row r="112">
@@ -12718,16 +12718,16 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>10.4099595101718</v>
+        <v>10.4099513129626</v>
       </c>
       <c r="E112" t="n">
-        <v>10.0458333774248</v>
+        <v>10.0458184438864</v>
       </c>
       <c r="F112" t="n">
-        <v>3.91719749648429</v>
+        <v>3.91719646768963</v>
       </c>
       <c r="G112" t="n">
-        <v>3.73264053942938</v>
+        <v>3.73263723251937</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -718,13 +718,13 @@
     <t>Name: uganda-agri-percent</t>
   </si>
   <si>
-    <t>Description: TThe proportion of total local government expenditure that is allocated to the agriculture sector.</t>
+    <t>Description: The proportion of total local government expenditure that is allocated to the agriculture sector.</t>
   </si>
   <si>
     <t>Units of measure: percent</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>11.873346186188</v>
+        <v>11.8733461862</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>8.8922098912054</v>
+        <v>8.8922098912</v>
       </c>
     </row>
     <row r="4">
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>5.95288411294567</v>
+        <v>5.9528841129</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2.95595266050216</v>
+        <v>2.9559526605</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>2.62914868831527</v>
+        <v>2.6291486883</v>
       </c>
     </row>
     <row r="7">
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>8.18850652296743</v>
+        <v>8.188506523</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>8.68340362124239</v>
+        <v>8.6834036212</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>7.25034397279708</v>
+        <v>7.2503439728</v>
       </c>
     </row>
     <row r="10">
@@ -1349,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0053273839574</v>
+        <v>4.005327384</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>4.00364032300353</v>
+        <v>4.003640323</v>
       </c>
     </row>
     <row r="12">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>10.792923819956</v>
+        <v>10.79292382</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>9.37597681371454</v>
+        <v>9.3759768137</v>
       </c>
     </row>
     <row r="14">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>3.58255873696166</v>
+        <v>3.582558737</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>3.71194415780881</v>
+        <v>3.7119441578</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>10.4333389727401</v>
+        <v>10.4333389727</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>7.79998726189651</v>
+        <v>7.7999872619</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>7.81211309726763</v>
+        <v>7.8121130973</v>
       </c>
     </row>
     <row r="19">
@@ -1502,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>3.2474864689764</v>
+        <v>3.247486469</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.92268723213472</v>
+        <v>3.9226872321</v>
       </c>
     </row>
     <row r="21">
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>9.51886141114216</v>
+        <v>9.5188614111</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>15.2069806029274</v>
+        <v>15.2069806029</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>8.47950167552673</v>
+        <v>8.4795016755</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>3.59583490557686</v>
+        <v>3.5958349056</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>3.46876530051629</v>
+        <v>3.4687653005</v>
       </c>
     </row>
     <row r="26">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>8.97354490924574</v>
+        <v>8.9735449092</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>10.2293977720985</v>
+        <v>10.2293977721</v>
       </c>
     </row>
     <row r="28">
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>4.53201201370289</v>
+        <v>4.5320120137</v>
       </c>
     </row>
     <row r="29">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>4.37406929504702</v>
+        <v>4.374069295</v>
       </c>
     </row>
     <row r="30">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>10.7700257051919</v>
+        <v>10.7700257052</v>
       </c>
     </row>
     <row r="31">
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>11.1416565551923</v>
+        <v>11.1416565552</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>9.84425315404779</v>
+        <v>9.844253154</v>
       </c>
     </row>
     <row r="33">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>4.78427703841723</v>
+        <v>4.7842770384</v>
       </c>
     </row>
     <row r="34">
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>4.77473538409866</v>
+        <v>4.7747353841</v>
       </c>
     </row>
     <row r="35">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>4.57779382853644</v>
+        <v>4.5777938285</v>
       </c>
     </row>
     <row r="36">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>4.65062295512026</v>
+        <v>4.6506229551</v>
       </c>
     </row>
     <row r="37">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>2.59816297044368</v>
+        <v>2.5981629704</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>2.87223644089315</v>
+        <v>2.8722364409</v>
       </c>
     </row>
     <row r="39">
@@ -1842,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>7.18595456592546</v>
+        <v>7.1859545659</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>7.34000560116542</v>
+        <v>7.3400056012</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5.02784347827696</v>
+        <v>5.0278434783</v>
       </c>
     </row>
     <row r="42">
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>2.4715471017486</v>
+        <v>2.4715471017</v>
       </c>
     </row>
     <row r="43">
@@ -1910,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>2.56182909855192</v>
+        <v>2.5618290986</v>
       </c>
     </row>
     <row r="44">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5.6118398487879</v>
+        <v>5.6118398488</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>6.81458668838061</v>
+        <v>6.8145866884</v>
       </c>
     </row>
     <row r="46">
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5.17774493872412</v>
+        <v>5.1777449387</v>
       </c>
     </row>
     <row r="47">
@@ -1978,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>2.25477988790639</v>
+        <v>2.2547798879</v>
       </c>
     </row>
     <row r="48">
@@ -1995,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2.36440931402087</v>
+        <v>2.364409314</v>
       </c>
     </row>
     <row r="49">
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7.12961162993987</v>
+        <v>7.1296116299</v>
       </c>
     </row>
     <row r="50">
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>9.91021232364095</v>
+        <v>9.9102123236</v>
       </c>
     </row>
     <row r="51">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>8.61529998422915</v>
+        <v>8.6152999842</v>
       </c>
     </row>
     <row r="52">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>3.56659797536876</v>
+        <v>3.5665979754</v>
       </c>
     </row>
     <row r="53">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>3.72226344224999</v>
+        <v>3.7222634422</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>9.76783270829874</v>
+        <v>9.7678327083</v>
       </c>
     </row>
     <row r="55">
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>13.1241993218996</v>
+        <v>13.1241993219</v>
       </c>
     </row>
     <row r="56">
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>15.4429583154792</v>
+        <v>15.4429583155</v>
       </c>
     </row>
     <row r="57">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>4.42839968860728</v>
+        <v>4.4283996886</v>
       </c>
     </row>
     <row r="58">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>4.57963583105236</v>
+        <v>4.5796358311</v>
       </c>
     </row>
     <row r="59">
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>9.58500931423606</v>
+        <v>9.5850093142</v>
       </c>
     </row>
     <row r="60">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>7.10969388897448</v>
+        <v>7.109693889</v>
       </c>
     </row>
     <row r="61">
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>6.7387549602214</v>
+        <v>6.7387549602</v>
       </c>
     </row>
     <row r="62">
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>3.49945737418417</v>
+        <v>3.4994573742</v>
       </c>
     </row>
     <row r="63">
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>4.29791027259516</v>
+        <v>4.2979102726</v>
       </c>
     </row>
     <row r="64">
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.0609592750186</v>
+        <v>11.060959275</v>
       </c>
     </row>
     <row r="65">
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>11.2466654937807</v>
+        <v>11.2466654938</v>
       </c>
     </row>
     <row r="66">
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>11.3484807761143</v>
+        <v>11.3484807761</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>4.73754281692674</v>
+        <v>4.7375428169</v>
       </c>
     </row>
     <row r="68">
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>5.15246256421819</v>
+        <v>5.1524625642</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>6.39626004733186</v>
+        <v>6.3962600473</v>
       </c>
     </row>
     <row r="70">
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>7.77869645990147</v>
+        <v>7.7786964599</v>
       </c>
     </row>
     <row r="71">
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>6.37546349279694</v>
+        <v>6.3754634928</v>
       </c>
     </row>
     <row r="72">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>2.63483926526544</v>
+        <v>2.6348392653</v>
       </c>
     </row>
     <row r="73">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>2.70018414349361</v>
+        <v>2.7001841435</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>7.47371017612731</v>
+        <v>7.4737101761</v>
       </c>
     </row>
     <row r="75">
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>7.03745400720634</v>
+        <v>7.0374540072</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>7.0821472982621</v>
+        <v>7.0821472983</v>
       </c>
     </row>
     <row r="77">
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>3.65625323430113</v>
+        <v>3.6562532343</v>
       </c>
     </row>
     <row r="78">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>3.79995341283962</v>
+        <v>3.7999534128</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>8.95026218991422</v>
+        <v>8.9502621899</v>
       </c>
     </row>
     <row r="80">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>6.51780048863259</v>
+        <v>6.5178004886</v>
       </c>
     </row>
     <row r="81">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>5.83506423856661</v>
+        <v>5.8350642386</v>
       </c>
     </row>
     <row r="82">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>2.95854682838174</v>
+        <v>2.9585468284</v>
       </c>
     </row>
     <row r="83">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>8.63828850427172</v>
+        <v>8.6382885043</v>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>8.58133725232871</v>
+        <v>8.5813372523</v>
       </c>
     </row>
     <row r="85">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>10.3734971800258</v>
+        <v>10.37349718</v>
       </c>
     </row>
     <row r="86">
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>3.47751570007124</v>
+        <v>3.4775157001</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3.19612906724975</v>
+        <v>3.1961290672</v>
       </c>
     </row>
     <row r="88">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>14.6294114743101</v>
+        <v>14.6294114743</v>
       </c>
     </row>
     <row r="89">
@@ -2692,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>18.1485692124763</v>
+        <v>18.1485692125</v>
       </c>
     </row>
     <row r="90">
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>15.5507605256013</v>
+        <v>15.5507605256</v>
       </c>
     </row>
     <row r="91">
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>5.78842248211571</v>
+        <v>5.7884224821</v>
       </c>
     </row>
     <row r="92">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>6.24290956414578</v>
+        <v>6.2429095641</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>9.24034044963039</v>
+        <v>9.2403404496</v>
       </c>
     </row>
     <row r="94">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>11.2693001912366</v>
+        <v>11.2693001912</v>
       </c>
     </row>
     <row r="95">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>7.35665465866223</v>
+        <v>7.3566546587</v>
       </c>
     </row>
     <row r="96">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>3.18626677989494</v>
+        <v>3.1862667799</v>
       </c>
     </row>
     <row r="97">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>3.6849310829329</v>
+        <v>3.6849310829</v>
       </c>
     </row>
     <row r="98">
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>9.31278617310039</v>
+        <v>9.3127861731</v>
       </c>
     </row>
     <row r="99">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>11.5949247489475</v>
+        <v>11.5949247489</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>10.5430706133986</v>
+        <v>10.5430706134</v>
       </c>
     </row>
     <row r="101">
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>4.60086997418569</v>
+        <v>4.6008699742</v>
       </c>
     </row>
     <row r="102">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>3.72715652986222</v>
+        <v>3.7271565299</v>
       </c>
     </row>
     <row r="103">
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>7.27546983768456</v>
+        <v>7.2754698377</v>
       </c>
     </row>
     <row r="104">
@@ -2947,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>7.0040198600275</v>
+        <v>7.00401986</v>
       </c>
     </row>
     <row r="105">
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>6.05135803174478</v>
+        <v>6.0513580317</v>
       </c>
     </row>
     <row r="106">
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>2.35266164224863</v>
+        <v>2.3526616422</v>
       </c>
     </row>
     <row r="107">
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>2.38354474104518</v>
+        <v>2.383544741</v>
       </c>
     </row>
     <row r="108">
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>7.9961090748868</v>
+        <v>7.9961090749</v>
       </c>
     </row>
     <row r="109">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>10.5982989181201</v>
+        <v>10.5982989181</v>
       </c>
     </row>
     <row r="110">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>6.66271124540708</v>
+        <v>6.6627112454</v>
       </c>
     </row>
     <row r="111">
@@ -3066,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>2.93685113336298</v>
+        <v>2.9368511334</v>
       </c>
     </row>
     <row r="112">
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>3.0196079619195</v>
+        <v>3.0196079619</v>
       </c>
     </row>
     <row r="113">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>7.31666298394634</v>
+        <v>7.3166629839</v>
       </c>
     </row>
     <row r="114">
@@ -3117,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>9.13977255459474</v>
+        <v>9.1397725546</v>
       </c>
     </row>
     <row r="115">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>7.77901838940862</v>
+        <v>7.7790183894</v>
       </c>
     </row>
     <row r="116">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>3.01630715449973</v>
+        <v>3.0163071545</v>
       </c>
     </row>
     <row r="117">
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>2.97669585380046</v>
+        <v>2.9766958538</v>
       </c>
     </row>
     <row r="118">
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>9.31052411046433</v>
+        <v>9.3105241105</v>
       </c>
     </row>
     <row r="119">
@@ -3202,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>6.19035326085668</v>
+        <v>6.1903532609</v>
       </c>
     </row>
     <row r="120">
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>5.08871358032323</v>
+        <v>5.0887135803</v>
       </c>
     </row>
     <row r="121">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>1.67139680243467</v>
+        <v>1.6713968024</v>
       </c>
     </row>
     <row r="122">
@@ -3253,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>1.67486269914711</v>
+        <v>1.6748626991</v>
       </c>
     </row>
     <row r="123">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>16.9205024302777</v>
+        <v>16.9205024303</v>
       </c>
     </row>
     <row r="124">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>14.6687930345246</v>
+        <v>14.6687930345</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>6.70362337262884</v>
+        <v>6.7036233726</v>
       </c>
     </row>
     <row r="126">
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>7.19725561427002</v>
+        <v>7.1972556143</v>
       </c>
     </row>
     <row r="127">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>11.1768355872793</v>
+        <v>11.1768355873</v>
       </c>
     </row>
     <row r="128">
@@ -3355,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>8.67781927919046</v>
+        <v>8.6778192792</v>
       </c>
     </row>
     <row r="129">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>7.92313284911466</v>
+        <v>7.9231328491</v>
       </c>
     </row>
     <row r="130">
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>3.23683219089537</v>
+        <v>3.2368321909</v>
       </c>
     </row>
     <row r="131">
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>3.28562718421122</v>
+        <v>3.2856271842</v>
       </c>
     </row>
     <row r="132">
@@ -3423,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>9.45078371198659</v>
+        <v>9.450783712</v>
       </c>
     </row>
     <row r="133">
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>7.68296853807697</v>
+        <v>7.6829685381</v>
       </c>
     </row>
     <row r="134">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>3.2099012110643</v>
+        <v>3.2099012111</v>
       </c>
     </row>
     <row r="135">
@@ -3474,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>3.31590847886065</v>
+        <v>3.3159084789</v>
       </c>
     </row>
     <row r="136">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>10.0781210284417</v>
+        <v>10.0781210284</v>
       </c>
     </row>
     <row r="137">
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>7.63154960488441</v>
+        <v>7.6315496049</v>
       </c>
     </row>
     <row r="138">
@@ -3525,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>7.94236938594953</v>
+        <v>7.9423693859</v>
       </c>
     </row>
     <row r="139">
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>3.00217161882408</v>
+        <v>3.0021716188</v>
       </c>
     </row>
     <row r="140">
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>2.73278897026151</v>
+        <v>2.7327889703</v>
       </c>
     </row>
     <row r="141">
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>6.41350027665284</v>
+        <v>6.4135002767</v>
       </c>
     </row>
     <row r="142">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4.96961414119414</v>
+        <v>4.9696141412</v>
       </c>
     </row>
     <row r="143">
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>5.40735068806962</v>
+        <v>5.4073506881</v>
       </c>
     </row>
     <row r="144">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>1.72626670688284</v>
+        <v>1.7262667069</v>
       </c>
     </row>
     <row r="145">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>2.11620993326559</v>
+        <v>2.1162099333</v>
       </c>
     </row>
     <row r="146">
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>8.67281738747084</v>
+        <v>8.6728173875</v>
       </c>
     </row>
     <row r="147">
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>8.08744179862879</v>
+        <v>8.0874417986</v>
       </c>
     </row>
     <row r="148">
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>6.29893611867812</v>
+        <v>6.2989361187</v>
       </c>
     </row>
     <row r="149">
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>2.0956520758029</v>
+        <v>2.0956520758</v>
       </c>
     </row>
     <row r="150">
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>2.46251994323174</v>
+        <v>2.4625199432</v>
       </c>
     </row>
     <row r="151">
@@ -3746,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>8.40172099744931</v>
+        <v>8.4017209974</v>
       </c>
     </row>
     <row r="152">
@@ -3763,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>9.52428896415064</v>
+        <v>9.5242889642</v>
       </c>
     </row>
     <row r="153">
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>9.15513224411121</v>
+        <v>9.1551322441</v>
       </c>
     </row>
     <row r="154">
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>4.32721044149058</v>
+        <v>4.3272104415</v>
       </c>
     </row>
     <row r="155">
@@ -3814,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>3.6832593278431</v>
+        <v>3.6832593278</v>
       </c>
     </row>
     <row r="156">
@@ -3831,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>6.09442342533629</v>
+        <v>6.0944234253</v>
       </c>
     </row>
     <row r="157">
@@ -3848,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>5.74475153299253</v>
+        <v>5.744751533</v>
       </c>
     </row>
     <row r="158">
@@ -3865,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>2.31553166753742</v>
+        <v>2.3155316675</v>
       </c>
     </row>
     <row r="159">
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>2.35420882062212</v>
+        <v>2.3542088206</v>
       </c>
     </row>
     <row r="160">
@@ -3899,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>10.2436907729644</v>
+        <v>10.243690773</v>
       </c>
     </row>
     <row r="161">
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>10.4062491731472</v>
+        <v>10.4062491731</v>
       </c>
     </row>
     <row r="162">
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>8.57157043888638</v>
+        <v>8.5715704389</v>
       </c>
     </row>
     <row r="163">
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>3.2608952248349</v>
+        <v>3.2608952248</v>
       </c>
     </row>
     <row r="164">
@@ -3967,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>3.39313601728278</v>
+        <v>3.3931360173</v>
       </c>
     </row>
     <row r="165">
@@ -3984,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>4.5151786301883</v>
+        <v>4.5151786302</v>
       </c>
     </row>
     <row r="166">
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>6.04162918293329</v>
+        <v>6.0416291829</v>
       </c>
     </row>
     <row r="167">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>1.4990796377085</v>
+        <v>1.4990796377</v>
       </c>
     </row>
     <row r="168">
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>1.85956130066607</v>
+        <v>1.8595613007</v>
       </c>
     </row>
     <row r="169">
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>9.77958102488327</v>
+        <v>9.7795810249</v>
       </c>
     </row>
     <row r="170">
@@ -4069,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>12.1275186195081</v>
+        <v>12.1275186195</v>
       </c>
     </row>
     <row r="171">
@@ -4086,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>9.19791333835357</v>
+        <v>9.1979133384</v>
       </c>
     </row>
     <row r="172">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>6.11216976141994</v>
+        <v>6.1121697614</v>
       </c>
     </row>
     <row r="173">
@@ -4120,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>6.31496248491028</v>
+        <v>6.3149624849</v>
       </c>
     </row>
     <row r="174">
@@ -4137,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>6.37137237480615</v>
+        <v>6.3713723748</v>
       </c>
     </row>
     <row r="175">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>7.45735014110871</v>
+        <v>7.4573501411</v>
       </c>
     </row>
     <row r="176">
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>5.88504211453789</v>
+        <v>5.8850421145</v>
       </c>
     </row>
     <row r="177">
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>6.09035581138933</v>
+        <v>6.0903558114</v>
       </c>
     </row>
     <row r="178">
@@ -4205,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>7.35501250338734</v>
+        <v>7.3550125034</v>
       </c>
     </row>
     <row r="179">
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>7.18561865310226</v>
+        <v>7.1856186531</v>
       </c>
     </row>
     <row r="180">
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>7.07903000644842</v>
+        <v>7.0790300064</v>
       </c>
     </row>
     <row r="181">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>2.45731928395648</v>
+        <v>2.457319284</v>
       </c>
     </row>
     <row r="182">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>2.63038823125444</v>
+        <v>2.6303882313</v>
       </c>
     </row>
     <row r="183">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>7.75691345874796</v>
+        <v>7.7569134587</v>
       </c>
     </row>
     <row r="184">
@@ -4307,7 +4307,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>8.19801897653312</v>
+        <v>8.1980189765</v>
       </c>
     </row>
     <row r="185">
@@ -4324,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>9.33879778974423</v>
+        <v>9.3387977897</v>
       </c>
     </row>
     <row r="186">
@@ -4341,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>5.61239442141102</v>
+        <v>5.6123944214</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>5.22681548855723</v>
+        <v>5.2268154886</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>19.4286001496619</v>
+        <v>19.4286001497</v>
       </c>
     </row>
     <row r="189">
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>14.7211621314031</v>
+        <v>14.7211621314</v>
       </c>
     </row>
     <row r="190">
@@ -4409,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>19.6346058510088</v>
+        <v>19.634605851</v>
       </c>
     </row>
     <row r="191">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>12.4496856368396</v>
+        <v>12.4496856368</v>
       </c>
     </row>
     <row r="192">
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>16.1122376939228</v>
+        <v>16.1122376939</v>
       </c>
     </row>
     <row r="193">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>8.75884589788215</v>
+        <v>8.7588458979</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>6.71777550283409</v>
+        <v>6.7177755028</v>
       </c>
     </row>
     <row r="195">
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>6.25018482163875</v>
+        <v>6.2501848216</v>
       </c>
     </row>
     <row r="196">
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>2.68005689571947</v>
+        <v>2.6800568957</v>
       </c>
     </row>
     <row r="197">
@@ -4528,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>2.56989007220349</v>
+        <v>2.5698900722</v>
       </c>
     </row>
     <row r="198">
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>7.37469370326619</v>
+        <v>7.3746937033</v>
       </c>
     </row>
     <row r="199">
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>5.82737382877491</v>
+        <v>5.8273738288</v>
       </c>
     </row>
     <row r="200">
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>5.30832747489482</v>
+        <v>5.3083274749</v>
       </c>
     </row>
     <row r="201">
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>1.64796057511196</v>
+        <v>1.6479605751</v>
       </c>
     </row>
     <row r="202">
@@ -4613,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>1.6284100441959</v>
+        <v>1.6284100442</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>7.63996936647226</v>
+        <v>7.6399693665</v>
       </c>
     </row>
     <row r="204">
@@ -4647,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>7.0947080952633</v>
+        <v>7.0947080953</v>
       </c>
     </row>
     <row r="205">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>6.32942177203594</v>
+        <v>6.329421772</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>2.66100694279303</v>
+        <v>2.6610069428</v>
       </c>
     </row>
     <row r="207">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>2.7786140666743</v>
+        <v>2.7786140667</v>
       </c>
     </row>
     <row r="208">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>13.0536543651264</v>
+        <v>13.0536543651</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>11.6357403753744</v>
+        <v>11.6357403754</v>
       </c>
     </row>
     <row r="210">
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>8.87560717548716</v>
+        <v>8.8756071755</v>
       </c>
     </row>
     <row r="211">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>3.51562837726599</v>
+        <v>3.5156283773</v>
       </c>
     </row>
     <row r="212">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>3.84235171735358</v>
+        <v>3.8423517174</v>
       </c>
     </row>
     <row r="213">
@@ -4800,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>9.32588234616902</v>
+        <v>9.3258823462</v>
       </c>
     </row>
     <row r="214">
@@ -4817,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>8.52128549953131</v>
+        <v>8.5212854995</v>
       </c>
     </row>
     <row r="215">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>7.61347217909721</v>
+        <v>7.6134721791</v>
       </c>
     </row>
     <row r="216">
@@ -4851,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>3.0573297568281</v>
+        <v>3.0573297568</v>
       </c>
     </row>
     <row r="217">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>3.10984351264305</v>
+        <v>3.1098435126</v>
       </c>
     </row>
     <row r="218">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>13.3034218560646</v>
+        <v>13.3034218561</v>
       </c>
     </row>
     <row r="219">
@@ -4902,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>11.7309862974758</v>
+        <v>11.7309862975</v>
       </c>
     </row>
     <row r="220">
@@ -4919,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>11.148649949826</v>
+        <v>11.1486499498</v>
       </c>
     </row>
     <row r="221">
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>4.45681873965503</v>
+        <v>4.4568187397</v>
       </c>
     </row>
     <row r="222">
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>4.65146231985886</v>
+        <v>4.6514623199</v>
       </c>
     </row>
     <row r="223">
@@ -4970,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>9.27370509509663</v>
+        <v>9.2737050951</v>
       </c>
     </row>
     <row r="224">
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>7.30864870378402</v>
+        <v>7.3086487038</v>
       </c>
     </row>
     <row r="225">
@@ -5004,7 +5004,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>6.21599121171803</v>
+        <v>6.2159912117</v>
       </c>
     </row>
     <row r="226">
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>4.38212092716305</v>
+        <v>4.3821209272</v>
       </c>
     </row>
     <row r="227">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>4.16093216061464</v>
+        <v>4.1609321606</v>
       </c>
     </row>
     <row r="228">
@@ -5055,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>8.26812089256284</v>
+        <v>8.2681208926</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>10.0725961775231</v>
+        <v>10.0725961775</v>
       </c>
     </row>
     <row r="230">
@@ -5089,7 +5089,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>7.73927291648799</v>
+        <v>7.7392729165</v>
       </c>
     </row>
     <row r="231">
@@ -5106,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>3.64959455195349</v>
+        <v>3.649594552</v>
       </c>
     </row>
     <row r="232">
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>3.89559353889075</v>
+        <v>3.8955935389</v>
       </c>
     </row>
     <row r="233">
@@ -5157,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>5.42969711508481</v>
+        <v>5.4296971151</v>
       </c>
     </row>
     <row r="235">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>5.91137937776343</v>
+        <v>5.9113793778</v>
       </c>
     </row>
     <row r="236">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>3.04405632387855</v>
+        <v>3.0440563239</v>
       </c>
     </row>
     <row r="237">
@@ -5208,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>3.10735960490781</v>
+        <v>3.1073596049</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>12.5566374075601</v>
+        <v>12.5566374076</v>
       </c>
     </row>
     <row r="239">
@@ -5242,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>13.4947693954083</v>
+        <v>13.4947693954</v>
       </c>
     </row>
     <row r="240">
@@ -5259,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>10.5923314638479</v>
+        <v>10.5923314638</v>
       </c>
     </row>
     <row r="241">
@@ -5276,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>3.93711559499467</v>
+        <v>3.937115595</v>
       </c>
     </row>
     <row r="242">
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>4.12901892160761</v>
+        <v>4.1290189216</v>
       </c>
     </row>
     <row r="243">
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>9.52774987382292</v>
+        <v>9.5277498738</v>
       </c>
     </row>
     <row r="244">
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>10.3282270123953</v>
+        <v>10.3282270124</v>
       </c>
     </row>
     <row r="245">
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>9.61103061177335</v>
+        <v>9.6110306118</v>
       </c>
     </row>
     <row r="246">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>5.25860021908937</v>
+        <v>5.2586002191</v>
       </c>
     </row>
     <row r="247">
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>5.3111099925232</v>
+        <v>5.3111099925</v>
       </c>
     </row>
     <row r="248">
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>8.81010160785486</v>
+        <v>8.8101016079</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>10.4078741684845</v>
+        <v>10.4078741685</v>
       </c>
     </row>
     <row r="250">
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>9.19989989728216</v>
+        <v>9.1998998973</v>
       </c>
     </row>
     <row r="251">
@@ -5446,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>3.31900722657455</v>
+        <v>3.3190072266</v>
       </c>
     </row>
     <row r="252">
@@ -5463,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>3.38882776486066</v>
+        <v>3.3888277649</v>
       </c>
     </row>
     <row r="253">
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>11.227146303835</v>
+        <v>11.2271463038</v>
       </c>
     </row>
     <row r="254">
@@ -5497,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>11.4294006220526</v>
+        <v>11.4294006221</v>
       </c>
     </row>
     <row r="255">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>10.8176769848994</v>
+        <v>10.8176769849</v>
       </c>
     </row>
     <row r="256">
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>4.03949403184506</v>
+        <v>4.0394940318</v>
       </c>
     </row>
     <row r="257">
@@ -5548,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>4.10628137065151</v>
+        <v>4.1062813707</v>
       </c>
     </row>
     <row r="258">
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>9.25266757116961</v>
+        <v>9.2526675712</v>
       </c>
     </row>
     <row r="259">
@@ -5582,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>8.28286120251697</v>
+        <v>8.2828612025</v>
       </c>
     </row>
     <row r="260">
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>8.15789649384483</v>
+        <v>8.1578964938</v>
       </c>
     </row>
     <row r="261">
@@ -5616,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>4.73366777915381</v>
+        <v>4.7336677792</v>
       </c>
     </row>
     <row r="262">
@@ -5633,7 +5633,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>4.93524316406821</v>
+        <v>4.9352431641</v>
       </c>
     </row>
     <row r="263">
@@ -5650,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>8.27876462683696</v>
+        <v>8.2787646268</v>
       </c>
     </row>
     <row r="264">
@@ -5667,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>6.60539693740558</v>
+        <v>6.6053969374</v>
       </c>
     </row>
     <row r="265">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>5.94835666558232</v>
+        <v>5.9483566656</v>
       </c>
     </row>
     <row r="266">
@@ -5701,7 +5701,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>2.73233156928988</v>
+        <v>2.7323315693</v>
       </c>
     </row>
     <row r="267">
@@ -5718,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>2.77750267060776</v>
+        <v>2.7775026706</v>
       </c>
     </row>
     <row r="268">
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>7.32032915643209</v>
+        <v>7.3203291564</v>
       </c>
     </row>
     <row r="269">
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>6.63711821269852</v>
+        <v>6.6371182127</v>
       </c>
     </row>
     <row r="270">
@@ -5769,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>6.08314057555372</v>
+        <v>6.0831405756</v>
       </c>
     </row>
     <row r="271">
@@ -5786,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>4.09015943496302</v>
+        <v>4.090159435</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>3.21757954406767</v>
+        <v>3.2175795441</v>
       </c>
     </row>
     <row r="273">
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>6.66010917810316</v>
+        <v>6.6601091781</v>
       </c>
     </row>
     <row r="274">
@@ -5837,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>7.95612371371985</v>
+        <v>7.9561237137</v>
       </c>
     </row>
     <row r="275">
@@ -5854,7 +5854,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>7.12099224668338</v>
+        <v>7.1209922467</v>
       </c>
     </row>
     <row r="276">
@@ -5871,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>2.88085001342672</v>
+        <v>2.8808500134</v>
       </c>
     </row>
     <row r="277">
@@ -5888,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>3.52183171382916</v>
+        <v>3.5218317138</v>
       </c>
     </row>
     <row r="278">
@@ -5905,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>8.30828267770087</v>
+        <v>8.3082826777</v>
       </c>
     </row>
     <row r="279">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>8.8563528730607</v>
+        <v>8.8563528731</v>
       </c>
     </row>
     <row r="280">
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>7.99779348718795</v>
+        <v>7.9977934872</v>
       </c>
     </row>
     <row r="281">
@@ -5956,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>2.56066814091612</v>
+        <v>2.5606681409</v>
       </c>
     </row>
     <row r="282">
@@ -5973,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>2.95327817617658</v>
+        <v>2.9532781762</v>
       </c>
     </row>
     <row r="283">
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>6.8080966709887</v>
+        <v>6.808096671</v>
       </c>
     </row>
     <row r="284">
@@ -6007,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>9.53808836651899</v>
+        <v>9.5380883665</v>
       </c>
     </row>
     <row r="285">
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>8.60174889935442</v>
+        <v>8.6017488994</v>
       </c>
     </row>
     <row r="286">
@@ -6041,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>5.31787994566607</v>
+        <v>5.3178799457</v>
       </c>
     </row>
     <row r="287">
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>5.31337210986613</v>
+        <v>5.3133721099</v>
       </c>
     </row>
     <row r="288">
@@ -6075,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>7.32942894504693</v>
+        <v>7.329428945</v>
       </c>
     </row>
     <row r="289">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>6.85740789305004</v>
+        <v>6.8574078931</v>
       </c>
     </row>
     <row r="290">
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>7.49791490874988</v>
+        <v>7.4979149087</v>
       </c>
     </row>
     <row r="291">
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>3.96529594040599</v>
+        <v>3.9652959404</v>
       </c>
     </row>
     <row r="292">
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>3.86914345069199</v>
+        <v>3.8691434507</v>
       </c>
     </row>
     <row r="293">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>15.6116262137633</v>
+        <v>15.6116262138</v>
       </c>
     </row>
     <row r="294">
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>12.283597425516</v>
+        <v>12.2835974255</v>
       </c>
     </row>
     <row r="295">
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>12.5234181486338</v>
+        <v>12.5234181486</v>
       </c>
     </row>
     <row r="296">
@@ -6211,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>6.67413198905411</v>
+        <v>6.6741319891</v>
       </c>
     </row>
     <row r="297">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>5.48810650141477</v>
+        <v>5.4881065014</v>
       </c>
     </row>
     <row r="298">
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>10.5644178771604</v>
+        <v>10.5644178772</v>
       </c>
     </row>
     <row r="299">
@@ -6262,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>12.4383404695416</v>
+        <v>12.4383404695</v>
       </c>
     </row>
     <row r="300">
@@ -6279,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>12.9885969671017</v>
+        <v>12.9885969671</v>
       </c>
     </row>
     <row r="301">
@@ -6296,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>4.78784445178429</v>
+        <v>4.7878444518</v>
       </c>
     </row>
     <row r="302">
@@ -6313,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>5.45931339544995</v>
+        <v>5.4593133954</v>
       </c>
     </row>
     <row r="303">
@@ -6330,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>8.99498862646724</v>
+        <v>8.9949886265</v>
       </c>
     </row>
     <row r="304">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>9.00774304669508</v>
+        <v>9.0077430467</v>
       </c>
     </row>
     <row r="305">
@@ -6364,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>9.98954572912787</v>
+        <v>9.9895457291</v>
       </c>
     </row>
     <row r="306">
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>6.06235908463673</v>
+        <v>6.0623590846</v>
       </c>
     </row>
     <row r="307">
@@ -6398,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>5.95771505588167</v>
+        <v>5.9577150559</v>
       </c>
     </row>
     <row r="308">
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>9.75301143315162</v>
+        <v>9.7530114332</v>
       </c>
     </row>
     <row r="309">
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>13.5311667223676</v>
+        <v>13.5311667224</v>
       </c>
     </row>
     <row r="310">
@@ -6449,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>10.8726612671791</v>
+        <v>10.8726612672</v>
       </c>
     </row>
     <row r="311">
@@ -6466,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>8.49893422101728</v>
+        <v>8.498934221</v>
       </c>
     </row>
     <row r="312">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>10.1533657043673</v>
+        <v>10.1533657044</v>
       </c>
     </row>
     <row r="313">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>13.4982933475617</v>
+        <v>13.4982933476</v>
       </c>
     </row>
     <row r="314">
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>8.01078124860587</v>
+        <v>8.0107812486</v>
       </c>
     </row>
     <row r="315">
@@ -6534,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>8.75391157506356</v>
+        <v>8.7539115751</v>
       </c>
     </row>
     <row r="316">
@@ -6551,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>4.25087448596202</v>
+        <v>4.250874486</v>
       </c>
     </row>
     <row r="317">
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>5.48184322057075</v>
+        <v>5.4818432206</v>
       </c>
     </row>
     <row r="318">
@@ -6585,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>4.73552988705618</v>
+        <v>4.7355298871</v>
       </c>
     </row>
     <row r="319">
@@ -6602,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>5.66365951387245</v>
+        <v>5.6636595139</v>
       </c>
     </row>
     <row r="320">
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>2.85477479393408</v>
+        <v>2.8547747939</v>
       </c>
     </row>
     <row r="321">
@@ -6636,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>2.76828869312947</v>
+        <v>2.7682886931</v>
       </c>
     </row>
     <row r="322">
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>8.19401025734194</v>
+        <v>8.1940102573</v>
       </c>
     </row>
     <row r="323">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>7.6768161679126</v>
+        <v>7.6768161679</v>
       </c>
     </row>
     <row r="324">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>7.06909979259971</v>
+        <v>7.0690997926</v>
       </c>
     </row>
     <row r="325">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>2.63671261221039</v>
+        <v>2.6367126122</v>
       </c>
     </row>
     <row r="326">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>7.7981411333871</v>
+        <v>7.7981411334</v>
       </c>
     </row>
     <row r="327">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>7.06817077353737</v>
+        <v>7.0681707735</v>
       </c>
     </row>
     <row r="328">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>5.18254798791063</v>
+        <v>5.1825479879</v>
       </c>
     </row>
     <row r="329">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>2.04455688445753</v>
+        <v>2.0445568845</v>
       </c>
     </row>
     <row r="330">
@@ -6789,7 +6789,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>2.06135610440921</v>
+        <v>2.0613561044</v>
       </c>
     </row>
     <row r="331">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>7.74652585910462</v>
+        <v>7.7465258591</v>
       </c>
     </row>
     <row r="332">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>6.89293958047392</v>
+        <v>6.8929395805</v>
       </c>
     </row>
     <row r="333">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>6.23891900946255</v>
+        <v>6.2389190095</v>
       </c>
     </row>
     <row r="334">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>3.2070149997256</v>
+        <v>3.2070149997</v>
       </c>
     </row>
     <row r="335">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>3.08580960389739</v>
+        <v>3.0858096039</v>
       </c>
     </row>
     <row r="336">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>11.5814927511154</v>
+        <v>11.5814927511</v>
       </c>
     </row>
     <row r="337">
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>9.734074212963</v>
+        <v>9.734074213</v>
       </c>
     </row>
     <row r="338">
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>9.03815995818088</v>
+        <v>9.0381599582</v>
       </c>
     </row>
     <row r="339">
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>3.77837970501102</v>
+        <v>3.778379705</v>
       </c>
     </row>
     <row r="340">
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>3.573499978708</v>
+        <v>3.5734999787</v>
       </c>
     </row>
     <row r="341">
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>10.4385673114443</v>
+        <v>10.4385673114</v>
       </c>
     </row>
     <row r="342">
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>11.7000588437225</v>
+        <v>11.7000588437</v>
       </c>
     </row>
     <row r="343">
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>10.5403348497741</v>
+        <v>10.5403348498</v>
       </c>
     </row>
     <row r="344">
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>4.0499758177365</v>
+        <v>4.0499758177</v>
       </c>
     </row>
     <row r="345">
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>3.84478455544366</v>
+        <v>3.8447845554</v>
       </c>
     </row>
     <row r="346">
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>11.6894206750458</v>
+        <v>11.689420675</v>
       </c>
     </row>
     <row r="347">
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>10.115708799826</v>
+        <v>10.1157087998</v>
       </c>
     </row>
     <row r="348">
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>9.11945666703889</v>
+        <v>9.119456667</v>
       </c>
     </row>
     <row r="349">
@@ -7112,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>5.0366322087952</v>
+        <v>5.0366322088</v>
       </c>
     </row>
     <row r="350">
@@ -7129,7 +7129,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>5.21717628737978</v>
+        <v>5.2171762874</v>
       </c>
     </row>
     <row r="351">
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>6.94149078132162</v>
+        <v>6.9414907813</v>
       </c>
     </row>
     <row r="352">
@@ -7163,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>6.27904842131616</v>
+        <v>6.2790484213</v>
       </c>
     </row>
     <row r="353">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>3.06734718399075</v>
+        <v>3.067347184</v>
       </c>
     </row>
     <row r="354">
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>2.88662955707565</v>
+        <v>2.8866295571</v>
       </c>
     </row>
     <row r="355">
@@ -7214,7 +7214,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>9.62180458644249</v>
+        <v>9.6218045864</v>
       </c>
     </row>
     <row r="356">
@@ -7231,7 +7231,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>3.00609368739937</v>
+        <v>3.0060936874</v>
       </c>
     </row>
     <row r="357">
@@ -7248,7 +7248,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>4.30591618944001</v>
+        <v>4.3059161894</v>
       </c>
     </row>
     <row r="358">
@@ -7265,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>3.47824017323365</v>
+        <v>3.4782401732</v>
       </c>
     </row>
     <row r="359">
@@ -7282,7 +7282,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>10.3165899701313</v>
+        <v>10.3165899701</v>
       </c>
     </row>
     <row r="360">
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>10.5917906566569</v>
+        <v>10.5917906567</v>
       </c>
     </row>
     <row r="361">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>6.67223178165859</v>
+        <v>6.6722317817</v>
       </c>
     </row>
     <row r="362">
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>2.7727299530385</v>
+        <v>2.772729953</v>
       </c>
     </row>
     <row r="363">
@@ -7350,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>3.10141905591397</v>
+        <v>3.1014190559</v>
       </c>
     </row>
     <row r="364">
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>7.44703778784906</v>
+        <v>7.4470377878</v>
       </c>
     </row>
     <row r="365">
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>6.24068956955926</v>
+        <v>6.2406895696</v>
       </c>
     </row>
     <row r="366">
@@ -7401,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>2.85581087044776</v>
+        <v>2.8558108704</v>
       </c>
     </row>
     <row r="367">
@@ -7418,7 +7418,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>2.58474008745224</v>
+        <v>2.5847400875</v>
       </c>
     </row>
     <row r="368">
@@ -7435,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>5.81449736511506</v>
+        <v>5.8144973651</v>
       </c>
     </row>
     <row r="369">
@@ -7452,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>5.97500408333687</v>
+        <v>5.9750040833</v>
       </c>
     </row>
     <row r="370">
@@ -7469,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>1.92128859106578</v>
+        <v>1.9212885911</v>
       </c>
     </row>
     <row r="371">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>1.86163889241958</v>
+        <v>1.8616388924</v>
       </c>
     </row>
     <row r="372">
@@ -7503,7 +7503,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>8.56384622554045</v>
+        <v>8.5638462255</v>
       </c>
     </row>
     <row r="373">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>10.183604497238</v>
+        <v>10.1836044972</v>
       </c>
     </row>
     <row r="374">
@@ -7537,7 +7537,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>8.71466734624833</v>
+        <v>8.7146673462</v>
       </c>
     </row>
     <row r="375">
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>3.06610749030634</v>
+        <v>3.0661074903</v>
       </c>
     </row>
     <row r="376">
@@ -7571,7 +7571,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>3.61693352366388</v>
+        <v>3.6169335237</v>
       </c>
     </row>
     <row r="377">
@@ -7588,7 +7588,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>10.6037187463333</v>
+        <v>10.6037187463</v>
       </c>
     </row>
     <row r="378">
@@ -7605,7 +7605,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>7.97485101847027</v>
+        <v>7.9748510185</v>
       </c>
     </row>
     <row r="379">
@@ -7622,7 +7622,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>6.89034835168044</v>
+        <v>6.8903483517</v>
       </c>
     </row>
     <row r="380">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>4.90230625063937</v>
+        <v>4.9023062506</v>
       </c>
     </row>
     <row r="381">
@@ -7656,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>2.31158299355749</v>
+        <v>2.3115829936</v>
       </c>
     </row>
     <row r="382">
@@ -7673,7 +7673,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>7.17513531303983</v>
+        <v>7.175135313</v>
       </c>
     </row>
     <row r="383">
@@ -7690,7 +7690,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>6.26604057478032</v>
+        <v>6.2660405748</v>
       </c>
     </row>
     <row r="384">
@@ -7707,7 +7707,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>18.8012206823571</v>
+        <v>18.8012206824</v>
       </c>
     </row>
     <row r="385">
@@ -7724,7 +7724,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>9.31598037146559</v>
+        <v>9.3159803715</v>
       </c>
     </row>
     <row r="386">
@@ -7741,7 +7741,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>9.34110527986801</v>
+        <v>9.3411052799</v>
       </c>
     </row>
     <row r="387">
@@ -7758,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>9.1525444764795</v>
+        <v>9.1525444765</v>
       </c>
     </row>
     <row r="388">
@@ -7775,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>4.90018330237283</v>
+        <v>4.9001833024</v>
       </c>
     </row>
     <row r="389">
@@ -7792,7 +7792,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>5.27636442875168</v>
+        <v>5.2763644288</v>
       </c>
     </row>
     <row r="390">
@@ -7809,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>8.9636314104233</v>
+        <v>8.9636314104</v>
       </c>
     </row>
     <row r="391">
@@ -7826,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>9.7915445324669</v>
+        <v>9.7915445325</v>
       </c>
     </row>
     <row r="392">
@@ -7843,7 +7843,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>10.5047466777795</v>
+        <v>10.5047466778</v>
       </c>
     </row>
     <row r="393">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>6.7500967409657</v>
+        <v>6.750096741</v>
       </c>
     </row>
     <row r="394">
@@ -7877,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>4.72114630435763</v>
+        <v>4.7211463044</v>
       </c>
     </row>
     <row r="395">
@@ -7894,7 +7894,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>10.2311129323222</v>
+        <v>10.2311129323</v>
       </c>
     </row>
     <row r="396">
@@ -7911,7 +7911,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>9.89024008814698</v>
+        <v>9.8902400881</v>
       </c>
     </row>
     <row r="397">
@@ -7928,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>10.192034180047</v>
+        <v>10.19203418</v>
       </c>
     </row>
     <row r="398">
@@ -7945,7 +7945,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>4.00532070076513</v>
+        <v>4.0053207008</v>
       </c>
     </row>
     <row r="399">
@@ -7962,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>5.37216275614056</v>
+        <v>5.3721627561</v>
       </c>
     </row>
     <row r="400">
@@ -7979,7 +7979,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>8.18633308930031</v>
+        <v>8.1863330893</v>
       </c>
     </row>
     <row r="401">
@@ -7996,7 +7996,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>1.98203298412481</v>
+        <v>1.9820329841</v>
       </c>
     </row>
     <row r="402">
@@ -8013,7 +8013,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>0.0923461719019898</v>
+        <v>0.0923461719</v>
       </c>
     </row>
     <row r="403">
@@ -8030,7 +8030,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>7.45438353340657</v>
+        <v>7.4543835334</v>
       </c>
     </row>
     <row r="404">
@@ -8047,7 +8047,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>6.83656260075334</v>
+        <v>6.8365626008</v>
       </c>
     </row>
     <row r="405">
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>7.20696442742711</v>
+        <v>7.2069644274</v>
       </c>
     </row>
     <row r="406">
@@ -8081,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>3.86596488873411</v>
+        <v>3.8659648887</v>
       </c>
     </row>
     <row r="407">
@@ -8098,7 +8098,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>3.98892435031855</v>
+        <v>3.9889243503</v>
       </c>
     </row>
     <row r="408">
@@ -8115,7 +8115,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>13.0646523931089</v>
+        <v>13.0646523931</v>
       </c>
     </row>
     <row r="409">
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>11.7449363534639</v>
+        <v>11.7449363535</v>
       </c>
     </row>
     <row r="410">
@@ -8149,7 +8149,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>7.32255063615005</v>
+        <v>7.3225506362</v>
       </c>
     </row>
     <row r="411">
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>4.14289206181569</v>
+        <v>4.1428920618</v>
       </c>
     </row>
     <row r="412">
@@ -8183,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>3.93714631853271</v>
+        <v>3.9371463185</v>
       </c>
     </row>
     <row r="413">
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>9.72354691560234</v>
+        <v>9.7235469156</v>
       </c>
     </row>
     <row r="414">
@@ -8217,7 +8217,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>8.98626899283736</v>
+        <v>8.9862689928</v>
       </c>
     </row>
     <row r="415">
@@ -8234,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>4.04727658147586</v>
+        <v>4.0472765815</v>
       </c>
     </row>
     <row r="416">
@@ -8251,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>4.36961861801544</v>
+        <v>4.369618618</v>
       </c>
     </row>
     <row r="417">
@@ -8268,7 +8268,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>8.9739255037393</v>
+        <v>8.9739255037</v>
       </c>
     </row>
     <row r="418">
@@ -8285,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>14.5487706062056</v>
+        <v>14.5487706062</v>
       </c>
     </row>
     <row r="419">
@@ -8302,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>13.9460601739954</v>
+        <v>13.946060174</v>
       </c>
     </row>
     <row r="420">
@@ -8319,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>6.10066645666986</v>
+        <v>6.1006664567</v>
       </c>
     </row>
     <row r="421">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>6.40820265976177</v>
+        <v>6.4082026598</v>
       </c>
     </row>
     <row r="422">
@@ -8353,7 +8353,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>7.85159070976478</v>
+        <v>7.8515907098</v>
       </c>
     </row>
     <row r="423">
@@ -8370,7 +8370,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>6.54270562652523</v>
+        <v>6.5427056265</v>
       </c>
     </row>
     <row r="424">
@@ -8387,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>6.44814336314601</v>
+        <v>6.4481433631</v>
       </c>
     </row>
     <row r="425">
@@ -8404,7 +8404,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>2.24142891917309</v>
+        <v>2.2414289192</v>
       </c>
     </row>
     <row r="426">
@@ -8421,7 +8421,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>2.97836088734162</v>
+        <v>2.9783608873</v>
       </c>
     </row>
     <row r="427">
@@ -8438,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>11.6959819052555</v>
+        <v>11.6959819053</v>
       </c>
     </row>
     <row r="428">
@@ -8455,7 +8455,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>11.1813743459796</v>
+        <v>11.181374346</v>
       </c>
     </row>
     <row r="429">
@@ -8472,7 +8472,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>11.2928946364714</v>
+        <v>11.2928946365</v>
       </c>
     </row>
     <row r="430">
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>4.77070309566356</v>
+        <v>4.7707030957</v>
       </c>
     </row>
     <row r="431">
@@ -8506,7 +8506,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>5.0441613615538</v>
+        <v>5.0441613616</v>
       </c>
     </row>
     <row r="432">
@@ -8523,7 +8523,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>7.75430452921526</v>
+        <v>7.7543045292</v>
       </c>
     </row>
     <row r="433">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>6.43276756748644</v>
+        <v>6.4327675675</v>
       </c>
     </row>
     <row r="434">
@@ -8557,7 +8557,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>7.16011145930358</v>
+        <v>7.1601114593</v>
       </c>
     </row>
     <row r="435">
@@ -8574,7 +8574,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>4.57631300508669</v>
+        <v>4.5763130051</v>
       </c>
     </row>
     <row r="436">
@@ -8591,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>3.85347706328145</v>
+        <v>3.8534770633</v>
       </c>
     </row>
     <row r="437">
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>8.3599726921645</v>
+        <v>8.3599726922</v>
       </c>
     </row>
     <row r="438">
@@ -8625,7 +8625,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>7.7430558838447</v>
+        <v>7.7430558838</v>
       </c>
     </row>
     <row r="439">
@@ -8642,7 +8642,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>7.2578926152393</v>
+        <v>7.2578926152</v>
       </c>
     </row>
     <row r="440">
@@ -8659,7 +8659,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>5.72794671765994</v>
+        <v>5.7279467177</v>
       </c>
     </row>
     <row r="441">
@@ -8676,7 +8676,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>5.87266776967117</v>
+        <v>5.8726677697</v>
       </c>
     </row>
     <row r="442">
@@ -8693,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>17.9650710113863</v>
+        <v>17.9650710114</v>
       </c>
     </row>
     <row r="443">
@@ -8710,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>15.0370386381313</v>
+        <v>15.0370386381</v>
       </c>
     </row>
     <row r="444">
@@ -8727,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>15.6392244050876</v>
+        <v>15.6392244051</v>
       </c>
     </row>
     <row r="445">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>6.46208013200029</v>
+        <v>6.462080132</v>
       </c>
     </row>
     <row r="446">
@@ -8761,7 +8761,7 @@
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>6.26960523034716</v>
+        <v>6.2696052303</v>
       </c>
     </row>
     <row r="447">
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>8.0074993525966</v>
+        <v>8.0074993526</v>
       </c>
     </row>
     <row r="448">
@@ -8795,7 +8795,7 @@
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>3.02827948664478</v>
+        <v>3.0282794866</v>
       </c>
     </row>
     <row r="449">
@@ -8812,7 +8812,7 @@
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>3.01603898326827</v>
+        <v>3.0160389833</v>
       </c>
     </row>
     <row r="450">
@@ -8829,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>13.7310751754742</v>
+        <v>13.7310751755</v>
       </c>
     </row>
     <row r="451">
@@ -8846,7 +8846,7 @@
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>2.84431178955569</v>
+        <v>2.8443117896</v>
       </c>
     </row>
     <row r="452">
@@ -8863,7 +8863,7 @@
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>2.38723216400704</v>
+        <v>2.387232164</v>
       </c>
     </row>
     <row r="453">
@@ -8880,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>3.02047984163184</v>
+        <v>3.0204798416</v>
       </c>
     </row>
     <row r="454">
@@ -8897,7 +8897,7 @@
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>10.0824774871366</v>
+        <v>10.0824774871</v>
       </c>
     </row>
     <row r="455">
@@ -8914,7 +8914,7 @@
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>7.84401665103379</v>
+        <v>7.844016651</v>
       </c>
     </row>
     <row r="456">
@@ -8931,7 +8931,7 @@
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>8.53760232077742</v>
+        <v>8.5376023208</v>
       </c>
     </row>
     <row r="457">
@@ -8948,7 +8948,7 @@
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>4.3147155160544</v>
+        <v>4.3147155161</v>
       </c>
     </row>
     <row r="458">
@@ -8965,7 +8965,7 @@
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>4.50439635440184</v>
+        <v>4.5043963544</v>
       </c>
     </row>
     <row r="459">
@@ -8982,7 +8982,7 @@
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>5.04890709807218</v>
+        <v>5.0489070981</v>
       </c>
     </row>
     <row r="460">
@@ -8999,7 +8999,7 @@
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>5.7525968908275</v>
+        <v>5.7525968908</v>
       </c>
     </row>
     <row r="461">
@@ -9016,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>6.0134708027742</v>
+        <v>6.0134708028</v>
       </c>
     </row>
     <row r="462">
@@ -9033,7 +9033,7 @@
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>3.56942619527015</v>
+        <v>3.5694261953</v>
       </c>
     </row>
     <row r="463">
@@ -9050,7 +9050,7 @@
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>3.3467601832916</v>
+        <v>3.3467601833</v>
       </c>
     </row>
     <row r="464">
@@ -9067,7 +9067,7 @@
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>10.3460110665562</v>
+        <v>10.3460110666</v>
       </c>
     </row>
     <row r="465">
@@ -9084,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>7.3202660846667</v>
+        <v>7.3202660847</v>
       </c>
     </row>
     <row r="466">
@@ -9101,7 +9101,7 @@
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>8.59142398088117</v>
+        <v>8.5914239809</v>
       </c>
     </row>
     <row r="467">
@@ -9118,7 +9118,7 @@
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>4.76551138955178</v>
+        <v>4.7655113896</v>
       </c>
     </row>
     <row r="468">
@@ -9135,7 +9135,7 @@
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>4.10686392212455</v>
+        <v>4.1068639221</v>
       </c>
     </row>
     <row r="469">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>8.44494529964525</v>
+        <v>8.4449452996</v>
       </c>
     </row>
     <row r="470">
@@ -9169,7 +9169,7 @@
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>9.48122455542808</v>
+        <v>9.4812245554</v>
       </c>
     </row>
     <row r="471">
@@ -9186,7 +9186,7 @@
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>8.30629898410762</v>
+        <v>8.3062989841</v>
       </c>
     </row>
     <row r="472">
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>4.11939054885735</v>
+        <v>4.1193905489</v>
       </c>
     </row>
     <row r="473">
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>4.21941385789732</v>
+        <v>4.2194138579</v>
       </c>
     </row>
     <row r="474">
@@ -9237,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>8.28041794592948</v>
+        <v>8.2804179459</v>
       </c>
     </row>
     <row r="475">
@@ -9254,7 +9254,7 @@
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>6.76530864482789</v>
+        <v>6.7653086448</v>
       </c>
     </row>
     <row r="476">
@@ -9271,7 +9271,7 @@
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>5.9422657283936</v>
+        <v>5.9422657284</v>
       </c>
     </row>
     <row r="477">
@@ -9288,7 +9288,7 @@
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>2.43073319635665</v>
+        <v>2.4307331964</v>
       </c>
     </row>
     <row r="478">
@@ -9305,7 +9305,7 @@
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>2.49199573569038</v>
+        <v>2.4919957357</v>
       </c>
     </row>
     <row r="479">
@@ -9322,7 +9322,7 @@
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>11.6389639217804</v>
+        <v>11.6389639218</v>
       </c>
     </row>
     <row r="480">
@@ -9339,7 +9339,7 @@
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>15.3191680915763</v>
+        <v>15.3191680916</v>
       </c>
     </row>
     <row r="481">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>12.4710062615334</v>
+        <v>12.4710062615</v>
       </c>
     </row>
     <row r="482">
@@ -9373,7 +9373,7 @@
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>4.2586467265156</v>
+        <v>4.2586467265</v>
       </c>
     </row>
     <row r="483">
@@ -9390,7 +9390,7 @@
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>4.51374303021412</v>
+        <v>4.5137430302</v>
       </c>
     </row>
     <row r="484">
@@ -9407,7 +9407,7 @@
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>5.86848046115121</v>
+        <v>5.8684804612</v>
       </c>
     </row>
     <row r="485">
@@ -9424,7 +9424,7 @@
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>5.86657413605499</v>
+        <v>5.8665741361</v>
       </c>
     </row>
     <row r="486">
@@ -9441,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>2.27371488846368</v>
+        <v>2.2737148885</v>
       </c>
     </row>
     <row r="487">
@@ -9458,7 +9458,7 @@
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>2.27882887385513</v>
+        <v>2.2788288739</v>
       </c>
     </row>
     <row r="488">
@@ -9475,7 +9475,7 @@
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>10.4724094406545</v>
+        <v>10.4724094407</v>
       </c>
     </row>
     <row r="489">
@@ -9492,7 +9492,7 @@
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>7.81854806641631</v>
+        <v>7.8185480664</v>
       </c>
     </row>
     <row r="490">
@@ -9509,7 +9509,7 @@
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>7.95035548847996</v>
+        <v>7.9503554885</v>
       </c>
     </row>
     <row r="491">
@@ -9526,7 +9526,7 @@
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>2.94937140626014</v>
+        <v>2.9493714063</v>
       </c>
     </row>
     <row r="492">
@@ -9543,7 +9543,7 @@
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>2.8795172444756</v>
+        <v>2.8795172445</v>
       </c>
     </row>
     <row r="493">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>7.09440851244348</v>
+        <v>7.0944085124</v>
       </c>
     </row>
     <row r="494">
@@ -9577,7 +9577,7 @@
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>7.43739640254527</v>
+        <v>7.4373964025</v>
       </c>
     </row>
     <row r="495">
@@ -9594,7 +9594,7 @@
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>3.4194858085743</v>
+        <v>3.4194858086</v>
       </c>
     </row>
     <row r="496">
@@ -9611,7 +9611,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>3.14262579938956</v>
+        <v>3.1426257994</v>
       </c>
     </row>
     <row r="497">
@@ -9628,7 +9628,7 @@
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>11.1230097075742</v>
+        <v>11.1230097076</v>
       </c>
     </row>
     <row r="498">
@@ -9645,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>14.6885296725182</v>
+        <v>14.6885296725</v>
       </c>
     </row>
     <row r="499">
@@ -9662,7 +9662,7 @@
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>12.1025809414454</v>
+        <v>12.1025809414</v>
       </c>
     </row>
     <row r="500">
@@ -9679,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>5.78203933275637</v>
+        <v>5.7820393328</v>
       </c>
     </row>
     <row r="501">
@@ -9696,7 +9696,7 @@
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>4.94184466895133</v>
+        <v>4.941844669</v>
       </c>
     </row>
     <row r="502">
@@ -9713,7 +9713,7 @@
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>4.59184283174218</v>
+        <v>4.5918428317</v>
       </c>
     </row>
     <row r="503">
@@ -9730,7 +9730,7 @@
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>4.01979506393479</v>
+        <v>4.0197950639</v>
       </c>
     </row>
     <row r="504">
@@ -9747,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>4.37787879942587</v>
+        <v>4.3778787994</v>
       </c>
     </row>
     <row r="505">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>19.0517760341452</v>
+        <v>19.0517760341</v>
       </c>
     </row>
     <row r="506">
@@ -9781,7 +9781,7 @@
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>20.5895236246539</v>
+        <v>20.5895236247</v>
       </c>
     </row>
     <row r="507">
@@ -9798,7 +9798,7 @@
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>7.28297190040978</v>
+        <v>7.2829719004</v>
       </c>
     </row>
     <row r="508">
@@ -9815,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>7.19045441173739</v>
+        <v>7.1904544117</v>
       </c>
     </row>
     <row r="509">
@@ -9832,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>7.59199542393648</v>
+        <v>7.5919954239</v>
       </c>
     </row>
     <row r="510">
@@ -9849,7 +9849,7 @@
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>4.17614232837901</v>
+        <v>4.1761423284</v>
       </c>
     </row>
     <row r="511">
@@ -9866,7 +9866,7 @@
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>4.20644592200153</v>
+        <v>4.206445922</v>
       </c>
     </row>
     <row r="512">
@@ -9883,7 +9883,7 @@
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>7.94662647904924</v>
+        <v>7.946626479</v>
       </c>
     </row>
     <row r="513">
@@ -9900,7 +9900,7 @@
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>8.2347209525916</v>
+        <v>8.2347209526</v>
       </c>
     </row>
     <row r="514">
@@ -9917,7 +9917,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>6.71418244776595</v>
+        <v>6.7141824478</v>
       </c>
     </row>
     <row r="515">
@@ -9934,7 +9934,7 @@
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>2.77160201378017</v>
+        <v>2.7716020138</v>
       </c>
     </row>
     <row r="516">
@@ -9951,7 +9951,7 @@
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>2.73904236201718</v>
+        <v>2.739042362</v>
       </c>
     </row>
     <row r="517">
@@ -9968,7 +9968,7 @@
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>8.12550808085498</v>
+        <v>8.1255080809</v>
       </c>
     </row>
     <row r="518">
@@ -9985,7 +9985,7 @@
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>6.0921282730127</v>
+        <v>6.092128273</v>
       </c>
     </row>
     <row r="519">
@@ -10002,7 +10002,7 @@
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>5.16454265251543</v>
+        <v>5.1645426525</v>
       </c>
     </row>
     <row r="520">
@@ -10019,7 +10019,7 @@
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>2.48883864487316</v>
+        <v>2.4888386449</v>
       </c>
     </row>
     <row r="521">
@@ -10036,7 +10036,7 @@
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>2.54747244689278</v>
+        <v>2.5474724469</v>
       </c>
     </row>
     <row r="522">
@@ -10053,7 +10053,7 @@
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>9.00774057125783</v>
+        <v>9.0077405713</v>
       </c>
     </row>
     <row r="523">
@@ -10070,7 +10070,7 @@
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>10.10780226485</v>
+        <v>10.1078022649</v>
       </c>
     </row>
     <row r="524">
@@ -10087,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>10.3442640826259</v>
+        <v>10.3442640826</v>
       </c>
     </row>
     <row r="525">
@@ -10104,7 +10104,7 @@
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>4.11336416245093</v>
+        <v>4.1133641625</v>
       </c>
     </row>
     <row r="526">
@@ -10121,7 +10121,7 @@
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>3.53189805855939</v>
+        <v>3.5318980586</v>
       </c>
     </row>
     <row r="527">
@@ -10138,7 +10138,7 @@
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>10.4099513129626</v>
+        <v>10.409951313</v>
       </c>
     </row>
     <row r="528">
@@ -10155,7 +10155,7 @@
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>10.0458184438864</v>
+        <v>10.0458184439</v>
       </c>
     </row>
     <row r="529">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>3.91719646768963</v>
+        <v>3.9171964677</v>
       </c>
     </row>
     <row r="530">
@@ -10189,7 +10189,7 @@
         <v>7</v>
       </c>
       <c r="E530" t="n">
-        <v>3.73263723251937</v>
+        <v>3.7326372325</v>
       </c>
     </row>
   </sheetData>
@@ -10237,19 +10237,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.873346186188</v>
+        <v>11.8733461862</v>
       </c>
       <c r="D2" t="n">
-        <v>8.8922098912054</v>
+        <v>8.8922098912</v>
       </c>
       <c r="E2" t="n">
-        <v>5.95288411294567</v>
+        <v>5.9528841129</v>
       </c>
       <c r="F2" t="n">
-        <v>2.95595266050216</v>
+        <v>2.9559526605</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62914868831527</v>
+        <v>2.6291486883</v>
       </c>
     </row>
     <row r="3">
@@ -10260,19 +10260,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>8.18850652296743</v>
+        <v>8.188506523</v>
       </c>
       <c r="D3" t="n">
-        <v>8.68340362124239</v>
+        <v>8.6834036212</v>
       </c>
       <c r="E3" t="n">
-        <v>7.25034397279708</v>
+        <v>7.2503439728</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0053273839574</v>
+        <v>4.005327384</v>
       </c>
       <c r="G3" t="n">
-        <v>4.00364032300353</v>
+        <v>4.003640323</v>
       </c>
     </row>
     <row r="4">
@@ -10284,16 +10284,16 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>10.792923819956</v>
+        <v>10.79292382</v>
       </c>
       <c r="E4" t="n">
-        <v>9.37597681371454</v>
+        <v>9.3759768137</v>
       </c>
       <c r="F4" t="n">
-        <v>3.58255873696166</v>
+        <v>3.582558737</v>
       </c>
       <c r="G4" t="n">
-        <v>3.71194415780881</v>
+        <v>3.7119441578</v>
       </c>
     </row>
     <row r="5">
@@ -10304,19 +10304,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4333389727401</v>
+        <v>10.4333389727</v>
       </c>
       <c r="D5" t="n">
-        <v>7.79998726189651</v>
+        <v>7.7999872619</v>
       </c>
       <c r="E5" t="n">
-        <v>7.81211309726763</v>
+        <v>7.8121130973</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2474864689764</v>
+        <v>3.247486469</v>
       </c>
       <c r="G5" t="n">
-        <v>3.92268723213472</v>
+        <v>3.9226872321</v>
       </c>
     </row>
     <row r="6">
@@ -10327,19 +10327,19 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>9.51886141114216</v>
+        <v>9.5188614111</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2069806029274</v>
+        <v>15.2069806029</v>
       </c>
       <c r="E6" t="n">
-        <v>8.47950167552673</v>
+        <v>8.4795016755</v>
       </c>
       <c r="F6" t="n">
-        <v>3.59583490557686</v>
+        <v>3.5958349056</v>
       </c>
       <c r="G6" t="n">
-        <v>3.46876530051629</v>
+        <v>3.4687653005</v>
       </c>
     </row>
     <row r="7">
@@ -10351,16 +10351,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>8.97354490924574</v>
+        <v>8.9735449092</v>
       </c>
       <c r="E7" t="n">
-        <v>10.2293977720985</v>
+        <v>10.2293977721</v>
       </c>
       <c r="F7" t="n">
-        <v>4.53201201370289</v>
+        <v>4.5320120137</v>
       </c>
       <c r="G7" t="n">
-        <v>4.37406929504702</v>
+        <v>4.374069295</v>
       </c>
     </row>
     <row r="8">
@@ -10371,19 +10371,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>10.7700257051919</v>
+        <v>10.7700257052</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1416565551923</v>
+        <v>11.1416565552</v>
       </c>
       <c r="E8" t="n">
-        <v>9.84425315404779</v>
+        <v>9.844253154</v>
       </c>
       <c r="F8" t="n">
-        <v>4.78427703841723</v>
+        <v>4.7842770384</v>
       </c>
       <c r="G8" t="n">
-        <v>4.77473538409866</v>
+        <v>4.7747353841</v>
       </c>
     </row>
     <row r="9">
@@ -10395,16 +10395,16 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>4.57779382853644</v>
+        <v>4.5777938285</v>
       </c>
       <c r="E9" t="n">
-        <v>4.65062295512026</v>
+        <v>4.6506229551</v>
       </c>
       <c r="F9" t="n">
-        <v>2.59816297044368</v>
+        <v>2.5981629704</v>
       </c>
       <c r="G9" t="n">
-        <v>2.87223644089315</v>
+        <v>2.8722364409</v>
       </c>
     </row>
     <row r="10">
@@ -10415,19 +10415,19 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>7.18595456592546</v>
+        <v>7.1859545659</v>
       </c>
       <c r="D10" t="n">
-        <v>7.34000560116542</v>
+        <v>7.3400056012</v>
       </c>
       <c r="E10" t="n">
-        <v>5.02784347827696</v>
+        <v>5.0278434783</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4715471017486</v>
+        <v>2.4715471017</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56182909855192</v>
+        <v>2.5618290986</v>
       </c>
     </row>
     <row r="11">
@@ -10438,19 +10438,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>5.6118398487879</v>
+        <v>5.6118398488</v>
       </c>
       <c r="D11" t="n">
-        <v>6.81458668838061</v>
+        <v>6.8145866884</v>
       </c>
       <c r="E11" t="n">
-        <v>5.17774493872412</v>
+        <v>5.1777449387</v>
       </c>
       <c r="F11" t="n">
-        <v>2.25477988790639</v>
+        <v>2.2547798879</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36440931402087</v>
+        <v>2.364409314</v>
       </c>
     </row>
     <row r="12">
@@ -10461,19 +10461,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7.12961162993987</v>
+        <v>7.1296116299</v>
       </c>
       <c r="D12" t="n">
-        <v>9.91021232364095</v>
+        <v>9.9102123236</v>
       </c>
       <c r="E12" t="n">
-        <v>8.61529998422915</v>
+        <v>8.6152999842</v>
       </c>
       <c r="F12" t="n">
-        <v>3.56659797536876</v>
+        <v>3.5665979754</v>
       </c>
       <c r="G12" t="n">
-        <v>3.72226344224999</v>
+        <v>3.7222634422</v>
       </c>
     </row>
     <row r="13">
@@ -10484,19 +10484,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>9.76783270829874</v>
+        <v>9.7678327083</v>
       </c>
       <c r="D13" t="n">
-        <v>13.1241993218996</v>
+        <v>13.1241993219</v>
       </c>
       <c r="E13" t="n">
-        <v>15.4429583154792</v>
+        <v>15.4429583155</v>
       </c>
       <c r="F13" t="n">
-        <v>4.42839968860728</v>
+        <v>4.4283996886</v>
       </c>
       <c r="G13" t="n">
-        <v>4.57963583105236</v>
+        <v>4.5796358311</v>
       </c>
     </row>
     <row r="14">
@@ -10507,19 +10507,19 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>9.58500931423606</v>
+        <v>9.5850093142</v>
       </c>
       <c r="D14" t="n">
-        <v>7.10969388897448</v>
+        <v>7.109693889</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7387549602214</v>
+        <v>6.7387549602</v>
       </c>
       <c r="F14" t="n">
-        <v>3.49945737418417</v>
+        <v>3.4994573742</v>
       </c>
       <c r="G14" t="n">
-        <v>4.29791027259516</v>
+        <v>4.2979102726</v>
       </c>
     </row>
     <row r="15">
@@ -10530,19 +10530,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0609592750186</v>
+        <v>11.060959275</v>
       </c>
       <c r="D15" t="n">
-        <v>11.2466654937807</v>
+        <v>11.2466654938</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3484807761143</v>
+        <v>11.3484807761</v>
       </c>
       <c r="F15" t="n">
-        <v>4.73754281692674</v>
+        <v>4.7375428169</v>
       </c>
       <c r="G15" t="n">
-        <v>5.15246256421819</v>
+        <v>5.1524625642</v>
       </c>
     </row>
     <row r="16">
@@ -10553,19 +10553,19 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>6.39626004733186</v>
+        <v>6.3962600473</v>
       </c>
       <c r="D16" t="n">
-        <v>7.77869645990147</v>
+        <v>7.7786964599</v>
       </c>
       <c r="E16" t="n">
-        <v>6.37546349279694</v>
+        <v>6.3754634928</v>
       </c>
       <c r="F16" t="n">
-        <v>2.63483926526544</v>
+        <v>2.6348392653</v>
       </c>
       <c r="G16" t="n">
-        <v>2.70018414349361</v>
+        <v>2.7001841435</v>
       </c>
     </row>
     <row r="17">
@@ -10576,19 +10576,19 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>7.47371017612731</v>
+        <v>7.4737101761</v>
       </c>
       <c r="D17" t="n">
-        <v>7.03745400720634</v>
+        <v>7.0374540072</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0821472982621</v>
+        <v>7.0821472983</v>
       </c>
       <c r="F17" t="n">
-        <v>3.65625323430113</v>
+        <v>3.6562532343</v>
       </c>
       <c r="G17" t="n">
-        <v>3.79995341283962</v>
+        <v>3.7999534128</v>
       </c>
     </row>
     <row r="18">
@@ -10599,16 +10599,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>8.95026218991422</v>
+        <v>8.9502621899</v>
       </c>
       <c r="D18" t="n">
-        <v>6.51780048863259</v>
+        <v>6.5178004886</v>
       </c>
       <c r="E18" t="n">
-        <v>5.83506423856661</v>
+        <v>5.8350642386</v>
       </c>
       <c r="F18" t="n">
-        <v>2.95854682838174</v>
+        <v>2.9585468284</v>
       </c>
       <c r="G18"/>
     </row>
@@ -10620,19 +10620,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>8.63828850427172</v>
+        <v>8.6382885043</v>
       </c>
       <c r="D19" t="n">
-        <v>8.58133725232871</v>
+        <v>8.5813372523</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3734971800258</v>
+        <v>10.37349718</v>
       </c>
       <c r="F19" t="n">
-        <v>3.47751570007124</v>
+        <v>3.4775157001</v>
       </c>
       <c r="G19" t="n">
-        <v>3.19612906724975</v>
+        <v>3.1961290672</v>
       </c>
     </row>
     <row r="20">
@@ -10643,19 +10643,19 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>14.6294114743101</v>
+        <v>14.6294114743</v>
       </c>
       <c r="D20" t="n">
-        <v>18.1485692124763</v>
+        <v>18.1485692125</v>
       </c>
       <c r="E20" t="n">
-        <v>15.5507605256013</v>
+        <v>15.5507605256</v>
       </c>
       <c r="F20" t="n">
-        <v>5.78842248211571</v>
+        <v>5.7884224821</v>
       </c>
       <c r="G20" t="n">
-        <v>6.24290956414578</v>
+        <v>6.2429095641</v>
       </c>
     </row>
     <row r="21">
@@ -10666,19 +10666,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>9.24034044963039</v>
+        <v>9.2403404496</v>
       </c>
       <c r="D21" t="n">
-        <v>11.2693001912366</v>
+        <v>11.2693001912</v>
       </c>
       <c r="E21" t="n">
-        <v>7.35665465866223</v>
+        <v>7.3566546587</v>
       </c>
       <c r="F21" t="n">
-        <v>3.18626677989494</v>
+        <v>3.1862667799</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6849310829329</v>
+        <v>3.6849310829</v>
       </c>
     </row>
     <row r="22">
@@ -10689,19 +10689,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>9.31278617310039</v>
+        <v>9.3127861731</v>
       </c>
       <c r="D22" t="n">
-        <v>11.5949247489475</v>
+        <v>11.5949247489</v>
       </c>
       <c r="E22" t="n">
-        <v>10.5430706133986</v>
+        <v>10.5430706134</v>
       </c>
       <c r="F22" t="n">
-        <v>4.60086997418569</v>
+        <v>4.6008699742</v>
       </c>
       <c r="G22" t="n">
-        <v>3.72715652986222</v>
+        <v>3.7271565299</v>
       </c>
     </row>
     <row r="23">
@@ -10712,19 +10712,19 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>7.27546983768456</v>
+        <v>7.2754698377</v>
       </c>
       <c r="D23" t="n">
-        <v>7.0040198600275</v>
+        <v>7.00401986</v>
       </c>
       <c r="E23" t="n">
-        <v>6.05135803174478</v>
+        <v>6.0513580317</v>
       </c>
       <c r="F23" t="n">
-        <v>2.35266164224863</v>
+        <v>2.3526616422</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38354474104518</v>
+        <v>2.383544741</v>
       </c>
     </row>
     <row r="24">
@@ -10735,19 +10735,19 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>7.9961090748868</v>
+        <v>7.9961090749</v>
       </c>
       <c r="D24" t="n">
-        <v>10.5982989181201</v>
+        <v>10.5982989181</v>
       </c>
       <c r="E24" t="n">
-        <v>6.66271124540708</v>
+        <v>6.6627112454</v>
       </c>
       <c r="F24" t="n">
-        <v>2.93685113336298</v>
+        <v>2.9368511334</v>
       </c>
       <c r="G24" t="n">
-        <v>3.0196079619195</v>
+        <v>3.0196079619</v>
       </c>
     </row>
     <row r="25">
@@ -10758,19 +10758,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>7.31666298394634</v>
+        <v>7.3166629839</v>
       </c>
       <c r="D25" t="n">
-        <v>9.13977255459474</v>
+        <v>9.1397725546</v>
       </c>
       <c r="E25" t="n">
-        <v>7.77901838940862</v>
+        <v>7.7790183894</v>
       </c>
       <c r="F25" t="n">
-        <v>3.01630715449973</v>
+        <v>3.0163071545</v>
       </c>
       <c r="G25" t="n">
-        <v>2.97669585380046</v>
+        <v>2.9766958538</v>
       </c>
     </row>
     <row r="26">
@@ -10781,19 +10781,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>9.31052411046433</v>
+        <v>9.3105241105</v>
       </c>
       <c r="D26" t="n">
-        <v>6.19035326085668</v>
+        <v>6.1903532609</v>
       </c>
       <c r="E26" t="n">
-        <v>5.08871358032323</v>
+        <v>5.0887135803</v>
       </c>
       <c r="F26" t="n">
-        <v>1.67139680243467</v>
+        <v>1.6713968024</v>
       </c>
       <c r="G26" t="n">
-        <v>1.67486269914711</v>
+        <v>1.6748626991</v>
       </c>
     </row>
     <row r="27">
@@ -10805,16 +10805,16 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>16.9205024302777</v>
+        <v>16.9205024303</v>
       </c>
       <c r="E27" t="n">
-        <v>14.6687930345246</v>
+        <v>14.6687930345</v>
       </c>
       <c r="F27" t="n">
-        <v>6.70362337262884</v>
+        <v>6.7036233726</v>
       </c>
       <c r="G27" t="n">
-        <v>7.19725561427002</v>
+        <v>7.1972556143</v>
       </c>
     </row>
     <row r="28">
@@ -10825,19 +10825,19 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>11.1768355872793</v>
+        <v>11.1768355873</v>
       </c>
       <c r="D28" t="n">
-        <v>8.67781927919046</v>
+        <v>8.6778192792</v>
       </c>
       <c r="E28" t="n">
-        <v>7.92313284911466</v>
+        <v>7.9231328491</v>
       </c>
       <c r="F28" t="n">
-        <v>3.23683219089537</v>
+        <v>3.2368321909</v>
       </c>
       <c r="G28" t="n">
-        <v>3.28562718421122</v>
+        <v>3.2856271842</v>
       </c>
     </row>
     <row r="29">
@@ -10849,16 +10849,16 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>9.45078371198659</v>
+        <v>9.450783712</v>
       </c>
       <c r="E29" t="n">
-        <v>7.68296853807697</v>
+        <v>7.6829685381</v>
       </c>
       <c r="F29" t="n">
-        <v>3.2099012110643</v>
+        <v>3.2099012111</v>
       </c>
       <c r="G29" t="n">
-        <v>3.31590847886065</v>
+        <v>3.3159084789</v>
       </c>
     </row>
     <row r="30">
@@ -10869,19 +10869,19 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>10.0781210284417</v>
+        <v>10.0781210284</v>
       </c>
       <c r="D30" t="n">
-        <v>7.63154960488441</v>
+        <v>7.6315496049</v>
       </c>
       <c r="E30" t="n">
-        <v>7.94236938594953</v>
+        <v>7.9423693859</v>
       </c>
       <c r="F30" t="n">
-        <v>3.00217161882408</v>
+        <v>3.0021716188</v>
       </c>
       <c r="G30" t="n">
-        <v>2.73278897026151</v>
+        <v>2.7327889703</v>
       </c>
     </row>
     <row r="31">
@@ -10892,19 +10892,19 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>6.41350027665284</v>
+        <v>6.4135002767</v>
       </c>
       <c r="D31" t="n">
-        <v>4.96961414119414</v>
+        <v>4.9696141412</v>
       </c>
       <c r="E31" t="n">
-        <v>5.40735068806962</v>
+        <v>5.4073506881</v>
       </c>
       <c r="F31" t="n">
-        <v>1.72626670688284</v>
+        <v>1.7262667069</v>
       </c>
       <c r="G31" t="n">
-        <v>2.11620993326559</v>
+        <v>2.1162099333</v>
       </c>
     </row>
     <row r="32">
@@ -10915,19 +10915,19 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>8.67281738747084</v>
+        <v>8.6728173875</v>
       </c>
       <c r="D32" t="n">
-        <v>8.08744179862879</v>
+        <v>8.0874417986</v>
       </c>
       <c r="E32" t="n">
-        <v>6.29893611867812</v>
+        <v>6.2989361187</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0956520758029</v>
+        <v>2.0956520758</v>
       </c>
       <c r="G32" t="n">
-        <v>2.46251994323174</v>
+        <v>2.4625199432</v>
       </c>
     </row>
     <row r="33">
@@ -10938,19 +10938,19 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>8.40172099744931</v>
+        <v>8.4017209974</v>
       </c>
       <c r="D33" t="n">
-        <v>9.52428896415064</v>
+        <v>9.5242889642</v>
       </c>
       <c r="E33" t="n">
-        <v>9.15513224411121</v>
+        <v>9.1551322441</v>
       </c>
       <c r="F33" t="n">
-        <v>4.32721044149058</v>
+        <v>4.3272104415</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6832593278431</v>
+        <v>3.6832593278</v>
       </c>
     </row>
     <row r="34">
@@ -10961,17 +10961,17 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>6.09442342533629</v>
+        <v>6.0944234253</v>
       </c>
       <c r="D34" t="n">
-        <v>5.74475153299253</v>
+        <v>5.744751533</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>2.31553166753742</v>
+        <v>2.3155316675</v>
       </c>
       <c r="G34" t="n">
-        <v>2.35420882062212</v>
+        <v>2.3542088206</v>
       </c>
     </row>
     <row r="35">
@@ -10982,19 +10982,19 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>10.2436907729644</v>
+        <v>10.243690773</v>
       </c>
       <c r="D35" t="n">
-        <v>10.4062491731472</v>
+        <v>10.4062491731</v>
       </c>
       <c r="E35" t="n">
-        <v>8.57157043888638</v>
+        <v>8.5715704389</v>
       </c>
       <c r="F35" t="n">
-        <v>3.2608952248349</v>
+        <v>3.2608952248</v>
       </c>
       <c r="G35" t="n">
-        <v>3.39313601728278</v>
+        <v>3.3931360173</v>
       </c>
     </row>
     <row r="36">
@@ -11005,17 +11005,17 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>4.5151786301883</v>
+        <v>4.5151786302</v>
       </c>
       <c r="D36" t="n">
-        <v>6.04162918293329</v>
+        <v>6.0416291829</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>1.4990796377085</v>
+        <v>1.4990796377</v>
       </c>
       <c r="G36" t="n">
-        <v>1.85956130066607</v>
+        <v>1.8595613007</v>
       </c>
     </row>
     <row r="37">
@@ -11026,19 +11026,19 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>9.77958102488327</v>
+        <v>9.7795810249</v>
       </c>
       <c r="D37" t="n">
-        <v>12.1275186195081</v>
+        <v>12.1275186195</v>
       </c>
       <c r="E37" t="n">
-        <v>9.19791333835357</v>
+        <v>9.1979133384</v>
       </c>
       <c r="F37" t="n">
-        <v>6.11216976141994</v>
+        <v>6.1121697614</v>
       </c>
       <c r="G37" t="n">
-        <v>6.31496248491028</v>
+        <v>6.3149624849</v>
       </c>
     </row>
     <row r="38">
@@ -11050,16 +11050,16 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="n">
-        <v>6.37137237480615</v>
+        <v>6.3713723748</v>
       </c>
       <c r="E38" t="n">
-        <v>7.45735014110871</v>
+        <v>7.4573501411</v>
       </c>
       <c r="F38" t="n">
-        <v>5.88504211453789</v>
+        <v>5.8850421145</v>
       </c>
       <c r="G38" t="n">
-        <v>6.09035581138933</v>
+        <v>6.0903558114</v>
       </c>
     </row>
     <row r="39">
@@ -11070,19 +11070,19 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>7.35501250338734</v>
+        <v>7.3550125034</v>
       </c>
       <c r="D39" t="n">
-        <v>7.18561865310226</v>
+        <v>7.1856186531</v>
       </c>
       <c r="E39" t="n">
-        <v>7.07903000644842</v>
+        <v>7.0790300064</v>
       </c>
       <c r="F39" t="n">
-        <v>2.45731928395648</v>
+        <v>2.457319284</v>
       </c>
       <c r="G39" t="n">
-        <v>2.63038823125444</v>
+        <v>2.6303882313</v>
       </c>
     </row>
     <row r="40">
@@ -11093,19 +11093,19 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>7.75691345874796</v>
+        <v>7.7569134587</v>
       </c>
       <c r="D40" t="n">
-        <v>8.19801897653312</v>
+        <v>8.1980189765</v>
       </c>
       <c r="E40" t="n">
-        <v>9.33879778974423</v>
+        <v>9.3387977897</v>
       </c>
       <c r="F40" t="n">
-        <v>5.61239442141102</v>
+        <v>5.6123944214</v>
       </c>
       <c r="G40" t="n">
-        <v>5.22681548855723</v>
+        <v>5.2268154886</v>
       </c>
     </row>
     <row r="41">
@@ -11116,19 +11116,19 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>19.4286001496619</v>
+        <v>19.4286001497</v>
       </c>
       <c r="D41" t="n">
-        <v>14.7211621314031</v>
+        <v>14.7211621314</v>
       </c>
       <c r="E41" t="n">
-        <v>19.6346058510088</v>
+        <v>19.634605851</v>
       </c>
       <c r="F41" t="n">
-        <v>12.4496856368396</v>
+        <v>12.4496856368</v>
       </c>
       <c r="G41" t="n">
-        <v>16.1122376939228</v>
+        <v>16.1122376939</v>
       </c>
     </row>
     <row r="42">
@@ -11139,19 +11139,19 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>8.75884589788215</v>
+        <v>8.7588458979</v>
       </c>
       <c r="D42" t="n">
-        <v>6.71777550283409</v>
+        <v>6.7177755028</v>
       </c>
       <c r="E42" t="n">
-        <v>6.25018482163875</v>
+        <v>6.2501848216</v>
       </c>
       <c r="F42" t="n">
-        <v>2.68005689571947</v>
+        <v>2.6800568957</v>
       </c>
       <c r="G42" t="n">
-        <v>2.56989007220349</v>
+        <v>2.5698900722</v>
       </c>
     </row>
     <row r="43">
@@ -11162,19 +11162,19 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>7.37469370326619</v>
+        <v>7.3746937033</v>
       </c>
       <c r="D43" t="n">
-        <v>5.82737382877491</v>
+        <v>5.8273738288</v>
       </c>
       <c r="E43" t="n">
-        <v>5.30832747489482</v>
+        <v>5.3083274749</v>
       </c>
       <c r="F43" t="n">
-        <v>1.64796057511196</v>
+        <v>1.6479605751</v>
       </c>
       <c r="G43" t="n">
-        <v>1.6284100441959</v>
+        <v>1.6284100442</v>
       </c>
     </row>
     <row r="44">
@@ -11185,19 +11185,19 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>7.63996936647226</v>
+        <v>7.6399693665</v>
       </c>
       <c r="D44" t="n">
-        <v>7.0947080952633</v>
+        <v>7.0947080953</v>
       </c>
       <c r="E44" t="n">
-        <v>6.32942177203594</v>
+        <v>6.329421772</v>
       </c>
       <c r="F44" t="n">
-        <v>2.66100694279303</v>
+        <v>2.6610069428</v>
       </c>
       <c r="G44" t="n">
-        <v>2.7786140666743</v>
+        <v>2.7786140667</v>
       </c>
     </row>
     <row r="45">
@@ -11208,19 +11208,19 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>13.0536543651264</v>
+        <v>13.0536543651</v>
       </c>
       <c r="D45" t="n">
-        <v>11.6357403753744</v>
+        <v>11.6357403754</v>
       </c>
       <c r="E45" t="n">
-        <v>8.87560717548716</v>
+        <v>8.8756071755</v>
       </c>
       <c r="F45" t="n">
-        <v>3.51562837726599</v>
+        <v>3.5156283773</v>
       </c>
       <c r="G45" t="n">
-        <v>3.84235171735358</v>
+        <v>3.8423517174</v>
       </c>
     </row>
     <row r="46">
@@ -11231,19 +11231,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>9.32588234616902</v>
+        <v>9.3258823462</v>
       </c>
       <c r="D46" t="n">
-        <v>8.52128549953131</v>
+        <v>8.5212854995</v>
       </c>
       <c r="E46" t="n">
-        <v>7.61347217909721</v>
+        <v>7.6134721791</v>
       </c>
       <c r="F46" t="n">
-        <v>3.0573297568281</v>
+        <v>3.0573297568</v>
       </c>
       <c r="G46" t="n">
-        <v>3.10984351264305</v>
+        <v>3.1098435126</v>
       </c>
     </row>
     <row r="47">
@@ -11254,19 +11254,19 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>13.3034218560646</v>
+        <v>13.3034218561</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7309862974758</v>
+        <v>11.7309862975</v>
       </c>
       <c r="E47" t="n">
-        <v>11.148649949826</v>
+        <v>11.1486499498</v>
       </c>
       <c r="F47" t="n">
-        <v>4.45681873965503</v>
+        <v>4.4568187397</v>
       </c>
       <c r="G47" t="n">
-        <v>4.65146231985886</v>
+        <v>4.6514623199</v>
       </c>
     </row>
     <row r="48">
@@ -11277,19 +11277,19 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>9.27370509509663</v>
+        <v>9.2737050951</v>
       </c>
       <c r="D48" t="n">
-        <v>7.30864870378402</v>
+        <v>7.3086487038</v>
       </c>
       <c r="E48" t="n">
-        <v>6.21599121171803</v>
+        <v>6.2159912117</v>
       </c>
       <c r="F48" t="n">
-        <v>4.38212092716305</v>
+        <v>4.3821209272</v>
       </c>
       <c r="G48" t="n">
-        <v>4.16093216061464</v>
+        <v>4.1609321606</v>
       </c>
     </row>
     <row r="49">
@@ -11300,19 +11300,19 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>8.26812089256284</v>
+        <v>8.2681208926</v>
       </c>
       <c r="D49" t="n">
-        <v>10.0725961775231</v>
+        <v>10.0725961775</v>
       </c>
       <c r="E49" t="n">
-        <v>7.73927291648799</v>
+        <v>7.7392729165</v>
       </c>
       <c r="F49" t="n">
-        <v>3.64959455195349</v>
+        <v>3.649594552</v>
       </c>
       <c r="G49" t="n">
-        <v>3.89559353889075</v>
+        <v>3.8955935389</v>
       </c>
     </row>
     <row r="50">
@@ -11326,16 +11326,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>5.42969711508481</v>
+        <v>5.4296971151</v>
       </c>
       <c r="E50" t="n">
-        <v>5.91137937776343</v>
+        <v>5.9113793778</v>
       </c>
       <c r="F50" t="n">
-        <v>3.04405632387855</v>
+        <v>3.0440563239</v>
       </c>
       <c r="G50" t="n">
-        <v>3.10735960490781</v>
+        <v>3.1073596049</v>
       </c>
     </row>
     <row r="51">
@@ -11346,19 +11346,19 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>12.5566374075601</v>
+        <v>12.5566374076</v>
       </c>
       <c r="D51" t="n">
-        <v>13.4947693954083</v>
+        <v>13.4947693954</v>
       </c>
       <c r="E51" t="n">
-        <v>10.5923314638479</v>
+        <v>10.5923314638</v>
       </c>
       <c r="F51" t="n">
-        <v>3.93711559499467</v>
+        <v>3.937115595</v>
       </c>
       <c r="G51" t="n">
-        <v>4.12901892160761</v>
+        <v>4.1290189216</v>
       </c>
     </row>
     <row r="52">
@@ -11369,19 +11369,19 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>9.52774987382292</v>
+        <v>9.5277498738</v>
       </c>
       <c r="D52" t="n">
-        <v>10.3282270123953</v>
+        <v>10.3282270124</v>
       </c>
       <c r="E52" t="n">
-        <v>9.61103061177335</v>
+        <v>9.6110306118</v>
       </c>
       <c r="F52" t="n">
-        <v>5.25860021908937</v>
+        <v>5.2586002191</v>
       </c>
       <c r="G52" t="n">
-        <v>5.3111099925232</v>
+        <v>5.3111099925</v>
       </c>
     </row>
     <row r="53">
@@ -11392,19 +11392,19 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>8.81010160785486</v>
+        <v>8.8101016079</v>
       </c>
       <c r="D53" t="n">
-        <v>10.4078741684845</v>
+        <v>10.4078741685</v>
       </c>
       <c r="E53" t="n">
-        <v>9.19989989728216</v>
+        <v>9.1998998973</v>
       </c>
       <c r="F53" t="n">
-        <v>3.31900722657455</v>
+        <v>3.3190072266</v>
       </c>
       <c r="G53" t="n">
-        <v>3.38882776486066</v>
+        <v>3.3888277649</v>
       </c>
     </row>
     <row r="54">
@@ -11415,19 +11415,19 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>11.227146303835</v>
+        <v>11.2271463038</v>
       </c>
       <c r="D54" t="n">
-        <v>11.4294006220526</v>
+        <v>11.4294006221</v>
       </c>
       <c r="E54" t="n">
-        <v>10.8176769848994</v>
+        <v>10.8176769849</v>
       </c>
       <c r="F54" t="n">
-        <v>4.03949403184506</v>
+        <v>4.0394940318</v>
       </c>
       <c r="G54" t="n">
-        <v>4.10628137065151</v>
+        <v>4.1062813707</v>
       </c>
     </row>
     <row r="55">
@@ -11438,19 +11438,19 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>9.25266757116961</v>
+        <v>9.2526675712</v>
       </c>
       <c r="D55" t="n">
-        <v>8.28286120251697</v>
+        <v>8.2828612025</v>
       </c>
       <c r="E55" t="n">
-        <v>8.15789649384483</v>
+        <v>8.1578964938</v>
       </c>
       <c r="F55" t="n">
-        <v>4.73366777915381</v>
+        <v>4.7336677792</v>
       </c>
       <c r="G55" t="n">
-        <v>4.93524316406821</v>
+        <v>4.9352431641</v>
       </c>
     </row>
     <row r="56">
@@ -11461,19 +11461,19 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>8.27876462683696</v>
+        <v>8.2787646268</v>
       </c>
       <c r="D56" t="n">
-        <v>6.60539693740558</v>
+        <v>6.6053969374</v>
       </c>
       <c r="E56" t="n">
-        <v>5.94835666558232</v>
+        <v>5.9483566656</v>
       </c>
       <c r="F56" t="n">
-        <v>2.73233156928988</v>
+        <v>2.7323315693</v>
       </c>
       <c r="G56" t="n">
-        <v>2.77750267060776</v>
+        <v>2.7775026706</v>
       </c>
     </row>
     <row r="57">
@@ -11484,19 +11484,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>7.32032915643209</v>
+        <v>7.3203291564</v>
       </c>
       <c r="D57" t="n">
-        <v>6.63711821269852</v>
+        <v>6.6371182127</v>
       </c>
       <c r="E57" t="n">
-        <v>6.08314057555372</v>
+        <v>6.0831405756</v>
       </c>
       <c r="F57" t="n">
-        <v>4.09015943496302</v>
+        <v>4.090159435</v>
       </c>
       <c r="G57" t="n">
-        <v>3.21757954406767</v>
+        <v>3.2175795441</v>
       </c>
     </row>
     <row r="58">
@@ -11507,19 +11507,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>6.66010917810316</v>
+        <v>6.6601091781</v>
       </c>
       <c r="D58" t="n">
-        <v>7.95612371371985</v>
+        <v>7.9561237137</v>
       </c>
       <c r="E58" t="n">
-        <v>7.12099224668338</v>
+        <v>7.1209922467</v>
       </c>
       <c r="F58" t="n">
-        <v>2.88085001342672</v>
+        <v>2.8808500134</v>
       </c>
       <c r="G58" t="n">
-        <v>3.52183171382916</v>
+        <v>3.5218317138</v>
       </c>
     </row>
     <row r="59">
@@ -11530,19 +11530,19 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>8.30828267770087</v>
+        <v>8.3082826777</v>
       </c>
       <c r="D59" t="n">
-        <v>8.8563528730607</v>
+        <v>8.8563528731</v>
       </c>
       <c r="E59" t="n">
-        <v>7.99779348718795</v>
+        <v>7.9977934872</v>
       </c>
       <c r="F59" t="n">
-        <v>2.56066814091612</v>
+        <v>2.5606681409</v>
       </c>
       <c r="G59" t="n">
-        <v>2.95327817617658</v>
+        <v>2.9532781762</v>
       </c>
     </row>
     <row r="60">
@@ -11553,19 +11553,19 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>6.8080966709887</v>
+        <v>6.808096671</v>
       </c>
       <c r="D60" t="n">
-        <v>9.53808836651899</v>
+        <v>9.5380883665</v>
       </c>
       <c r="E60" t="n">
-        <v>8.60174889935442</v>
+        <v>8.6017488994</v>
       </c>
       <c r="F60" t="n">
-        <v>5.31787994566607</v>
+        <v>5.3178799457</v>
       </c>
       <c r="G60" t="n">
-        <v>5.31337210986613</v>
+        <v>5.3133721099</v>
       </c>
     </row>
     <row r="61">
@@ -11576,19 +11576,19 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>7.32942894504693</v>
+        <v>7.329428945</v>
       </c>
       <c r="D61" t="n">
-        <v>6.85740789305004</v>
+        <v>6.8574078931</v>
       </c>
       <c r="E61" t="n">
-        <v>7.49791490874988</v>
+        <v>7.4979149087</v>
       </c>
       <c r="F61" t="n">
-        <v>3.96529594040599</v>
+        <v>3.9652959404</v>
       </c>
       <c r="G61" t="n">
-        <v>3.86914345069199</v>
+        <v>3.8691434507</v>
       </c>
     </row>
     <row r="62">
@@ -11599,19 +11599,19 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>15.6116262137633</v>
+        <v>15.6116262138</v>
       </c>
       <c r="D62" t="n">
-        <v>12.283597425516</v>
+        <v>12.2835974255</v>
       </c>
       <c r="E62" t="n">
-        <v>12.5234181486338</v>
+        <v>12.5234181486</v>
       </c>
       <c r="F62" t="n">
-        <v>6.67413198905411</v>
+        <v>6.6741319891</v>
       </c>
       <c r="G62" t="n">
-        <v>5.48810650141477</v>
+        <v>5.4881065014</v>
       </c>
     </row>
     <row r="63">
@@ -11622,19 +11622,19 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>10.5644178771604</v>
+        <v>10.5644178772</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4383404695416</v>
+        <v>12.4383404695</v>
       </c>
       <c r="E63" t="n">
-        <v>12.9885969671017</v>
+        <v>12.9885969671</v>
       </c>
       <c r="F63" t="n">
-        <v>4.78784445178429</v>
+        <v>4.7878444518</v>
       </c>
       <c r="G63" t="n">
-        <v>5.45931339544995</v>
+        <v>5.4593133954</v>
       </c>
     </row>
     <row r="64">
@@ -11645,19 +11645,19 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>8.99498862646724</v>
+        <v>8.9949886265</v>
       </c>
       <c r="D64" t="n">
-        <v>9.00774304669508</v>
+        <v>9.0077430467</v>
       </c>
       <c r="E64" t="n">
-        <v>9.98954572912787</v>
+        <v>9.9895457291</v>
       </c>
       <c r="F64" t="n">
-        <v>6.06235908463673</v>
+        <v>6.0623590846</v>
       </c>
       <c r="G64" t="n">
-        <v>5.95771505588167</v>
+        <v>5.9577150559</v>
       </c>
     </row>
     <row r="65">
@@ -11668,19 +11668,19 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>9.75301143315162</v>
+        <v>9.7530114332</v>
       </c>
       <c r="D65" t="n">
-        <v>13.5311667223676</v>
+        <v>13.5311667224</v>
       </c>
       <c r="E65" t="n">
-        <v>10.8726612671791</v>
+        <v>10.8726612672</v>
       </c>
       <c r="F65" t="n">
-        <v>8.49893422101728</v>
+        <v>8.498934221</v>
       </c>
       <c r="G65" t="n">
-        <v>10.1533657043673</v>
+        <v>10.1533657044</v>
       </c>
     </row>
     <row r="66">
@@ -11691,19 +11691,19 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>13.4982933475617</v>
+        <v>13.4982933476</v>
       </c>
       <c r="D66" t="n">
-        <v>8.01078124860587</v>
+        <v>8.0107812486</v>
       </c>
       <c r="E66" t="n">
-        <v>8.75391157506356</v>
+        <v>8.7539115751</v>
       </c>
       <c r="F66" t="n">
-        <v>4.25087448596202</v>
+        <v>4.250874486</v>
       </c>
       <c r="G66" t="n">
-        <v>5.48184322057075</v>
+        <v>5.4818432206</v>
       </c>
     </row>
     <row r="67">
@@ -11714,17 +11714,17 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>4.73552988705618</v>
+        <v>4.7355298871</v>
       </c>
       <c r="D67" t="n">
-        <v>5.66365951387245</v>
+        <v>5.6636595139</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>2.85477479393408</v>
+        <v>2.8547747939</v>
       </c>
       <c r="G67" t="n">
-        <v>2.76828869312947</v>
+        <v>2.7682886931</v>
       </c>
     </row>
     <row r="68">
@@ -11735,16 +11735,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>8.19401025734194</v>
+        <v>8.1940102573</v>
       </c>
       <c r="D68" t="n">
-        <v>7.6768161679126</v>
+        <v>7.6768161679</v>
       </c>
       <c r="E68" t="n">
-        <v>7.06909979259971</v>
+        <v>7.0690997926</v>
       </c>
       <c r="F68" t="n">
-        <v>2.63671261221039</v>
+        <v>2.6367126122</v>
       </c>
       <c r="G68"/>
     </row>
@@ -11756,19 +11756,19 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>7.7981411333871</v>
+        <v>7.7981411334</v>
       </c>
       <c r="D69" t="n">
-        <v>7.06817077353737</v>
+        <v>7.0681707735</v>
       </c>
       <c r="E69" t="n">
-        <v>5.18254798791063</v>
+        <v>5.1825479879</v>
       </c>
       <c r="F69" t="n">
-        <v>2.04455688445753</v>
+        <v>2.0445568845</v>
       </c>
       <c r="G69" t="n">
-        <v>2.06135610440921</v>
+        <v>2.0613561044</v>
       </c>
     </row>
     <row r="70">
@@ -11779,19 +11779,19 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>7.74652585910462</v>
+        <v>7.7465258591</v>
       </c>
       <c r="D70" t="n">
-        <v>6.89293958047392</v>
+        <v>6.8929395805</v>
       </c>
       <c r="E70" t="n">
-        <v>6.23891900946255</v>
+        <v>6.2389190095</v>
       </c>
       <c r="F70" t="n">
-        <v>3.2070149997256</v>
+        <v>3.2070149997</v>
       </c>
       <c r="G70" t="n">
-        <v>3.08580960389739</v>
+        <v>3.0858096039</v>
       </c>
     </row>
     <row r="71">
@@ -11802,19 +11802,19 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>11.5814927511154</v>
+        <v>11.5814927511</v>
       </c>
       <c r="D71" t="n">
-        <v>9.734074212963</v>
+        <v>9.734074213</v>
       </c>
       <c r="E71" t="n">
-        <v>9.03815995818088</v>
+        <v>9.0381599582</v>
       </c>
       <c r="F71" t="n">
-        <v>3.77837970501102</v>
+        <v>3.778379705</v>
       </c>
       <c r="G71" t="n">
-        <v>3.573499978708</v>
+        <v>3.5734999787</v>
       </c>
     </row>
     <row r="72">
@@ -11825,19 +11825,19 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>10.4385673114443</v>
+        <v>10.4385673114</v>
       </c>
       <c r="D72" t="n">
-        <v>11.7000588437225</v>
+        <v>11.7000588437</v>
       </c>
       <c r="E72" t="n">
-        <v>10.5403348497741</v>
+        <v>10.5403348498</v>
       </c>
       <c r="F72" t="n">
-        <v>4.0499758177365</v>
+        <v>4.0499758177</v>
       </c>
       <c r="G72" t="n">
-        <v>3.84478455544366</v>
+        <v>3.8447845554</v>
       </c>
     </row>
     <row r="73">
@@ -11848,19 +11848,19 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>11.6894206750458</v>
+        <v>11.689420675</v>
       </c>
       <c r="D73" t="n">
-        <v>10.115708799826</v>
+        <v>10.1157087998</v>
       </c>
       <c r="E73" t="n">
-        <v>9.11945666703889</v>
+        <v>9.119456667</v>
       </c>
       <c r="F73" t="n">
-        <v>5.0366322087952</v>
+        <v>5.0366322088</v>
       </c>
       <c r="G73" t="n">
-        <v>5.21717628737978</v>
+        <v>5.2171762874</v>
       </c>
     </row>
     <row r="74">
@@ -11871,17 +11871,17 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>6.94149078132162</v>
+        <v>6.9414907813</v>
       </c>
       <c r="D74" t="n">
-        <v>6.27904842131616</v>
+        <v>6.2790484213</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>3.06734718399075</v>
+        <v>3.067347184</v>
       </c>
       <c r="G74" t="n">
-        <v>2.88662955707565</v>
+        <v>2.8866295571</v>
       </c>
     </row>
     <row r="75">
@@ -11892,17 +11892,17 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>9.62180458644249</v>
+        <v>9.6218045864</v>
       </c>
       <c r="D75" t="n">
-        <v>3.00609368739937</v>
+        <v>3.0060936874</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>4.30591618944001</v>
+        <v>4.3059161894</v>
       </c>
       <c r="G75" t="n">
-        <v>3.47824017323365</v>
+        <v>3.4782401732</v>
       </c>
     </row>
     <row r="76">
@@ -11913,19 +11913,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>10.3165899701313</v>
+        <v>10.3165899701</v>
       </c>
       <c r="D76" t="n">
-        <v>10.5917906566569</v>
+        <v>10.5917906567</v>
       </c>
       <c r="E76" t="n">
-        <v>6.67223178165859</v>
+        <v>6.6722317817</v>
       </c>
       <c r="F76" t="n">
-        <v>2.7727299530385</v>
+        <v>2.772729953</v>
       </c>
       <c r="G76" t="n">
-        <v>3.10141905591397</v>
+        <v>3.1014190559</v>
       </c>
     </row>
     <row r="77">
@@ -11936,17 +11936,17 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>7.44703778784906</v>
+        <v>7.4470377878</v>
       </c>
       <c r="D77" t="n">
-        <v>6.24068956955926</v>
+        <v>6.2406895696</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>2.85581087044776</v>
+        <v>2.8558108704</v>
       </c>
       <c r="G77" t="n">
-        <v>2.58474008745224</v>
+        <v>2.5847400875</v>
       </c>
     </row>
     <row r="78">
@@ -11957,17 +11957,17 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>5.81449736511506</v>
+        <v>5.8144973651</v>
       </c>
       <c r="D78" t="n">
-        <v>5.97500408333687</v>
+        <v>5.9750040833</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>1.92128859106578</v>
+        <v>1.9212885911</v>
       </c>
       <c r="G78" t="n">
-        <v>1.86163889241958</v>
+        <v>1.8616388924</v>
       </c>
     </row>
     <row r="79">
@@ -11978,19 +11978,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>8.56384622554045</v>
+        <v>8.5638462255</v>
       </c>
       <c r="D79" t="n">
-        <v>10.183604497238</v>
+        <v>10.1836044972</v>
       </c>
       <c r="E79" t="n">
-        <v>8.71466734624833</v>
+        <v>8.7146673462</v>
       </c>
       <c r="F79" t="n">
-        <v>3.06610749030634</v>
+        <v>3.0661074903</v>
       </c>
       <c r="G79" t="n">
-        <v>3.61693352366388</v>
+        <v>3.6169335237</v>
       </c>
     </row>
     <row r="80">
@@ -12001,19 +12001,19 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>10.6037187463333</v>
+        <v>10.6037187463</v>
       </c>
       <c r="D80" t="n">
-        <v>7.97485101847027</v>
+        <v>7.9748510185</v>
       </c>
       <c r="E80" t="n">
-        <v>6.89034835168044</v>
+        <v>6.8903483517</v>
       </c>
       <c r="F80" t="n">
-        <v>4.90230625063937</v>
+        <v>4.9023062506</v>
       </c>
       <c r="G80" t="n">
-        <v>2.31158299355749</v>
+        <v>2.3115829936</v>
       </c>
     </row>
     <row r="81">
@@ -12024,13 +12024,13 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>7.17513531303983</v>
+        <v>7.175135313</v>
       </c>
       <c r="D81" t="n">
-        <v>6.26604057478032</v>
+        <v>6.2660405748</v>
       </c>
       <c r="E81" t="n">
-        <v>18.8012206823571</v>
+        <v>18.8012206824</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -12043,19 +12043,19 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>9.31598037146559</v>
+        <v>9.3159803715</v>
       </c>
       <c r="D82" t="n">
-        <v>9.34110527986801</v>
+        <v>9.3411052799</v>
       </c>
       <c r="E82" t="n">
-        <v>9.1525444764795</v>
+        <v>9.1525444765</v>
       </c>
       <c r="F82" t="n">
-        <v>4.90018330237283</v>
+        <v>4.9001833024</v>
       </c>
       <c r="G82" t="n">
-        <v>5.27636442875168</v>
+        <v>5.2763644288</v>
       </c>
     </row>
     <row r="83">
@@ -12066,19 +12066,19 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>8.9636314104233</v>
+        <v>8.9636314104</v>
       </c>
       <c r="D83" t="n">
-        <v>9.7915445324669</v>
+        <v>9.7915445325</v>
       </c>
       <c r="E83" t="n">
-        <v>10.5047466777795</v>
+        <v>10.5047466778</v>
       </c>
       <c r="F83" t="n">
-        <v>6.7500967409657</v>
+        <v>6.750096741</v>
       </c>
       <c r="G83" t="n">
-        <v>4.72114630435763</v>
+        <v>4.7211463044</v>
       </c>
     </row>
     <row r="84">
@@ -12089,19 +12089,19 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>10.2311129323222</v>
+        <v>10.2311129323</v>
       </c>
       <c r="D84" t="n">
-        <v>9.89024008814698</v>
+        <v>9.8902400881</v>
       </c>
       <c r="E84" t="n">
-        <v>10.192034180047</v>
+        <v>10.19203418</v>
       </c>
       <c r="F84" t="n">
-        <v>4.00532070076513</v>
+        <v>4.0053207008</v>
       </c>
       <c r="G84" t="n">
-        <v>5.37216275614056</v>
+        <v>5.3721627561</v>
       </c>
     </row>
     <row r="85">
@@ -12112,15 +12112,15 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>8.18633308930031</v>
+        <v>8.1863330893</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>1.98203298412481</v>
+        <v>1.9820329841</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0923461719019898</v>
+        <v>0.0923461719</v>
       </c>
     </row>
     <row r="86">
@@ -12131,19 +12131,19 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>7.45438353340657</v>
+        <v>7.4543835334</v>
       </c>
       <c r="D86" t="n">
-        <v>6.83656260075334</v>
+        <v>6.8365626008</v>
       </c>
       <c r="E86" t="n">
-        <v>7.20696442742711</v>
+        <v>7.2069644274</v>
       </c>
       <c r="F86" t="n">
-        <v>3.86596488873411</v>
+        <v>3.8659648887</v>
       </c>
       <c r="G86" t="n">
-        <v>3.98892435031855</v>
+        <v>3.9889243503</v>
       </c>
     </row>
     <row r="87">
@@ -12154,19 +12154,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>13.0646523931089</v>
+        <v>13.0646523931</v>
       </c>
       <c r="D87" t="n">
-        <v>11.7449363534639</v>
+        <v>11.7449363535</v>
       </c>
       <c r="E87" t="n">
-        <v>7.32255063615005</v>
+        <v>7.3225506362</v>
       </c>
       <c r="F87" t="n">
-        <v>4.14289206181569</v>
+        <v>4.1428920618</v>
       </c>
       <c r="G87" t="n">
-        <v>3.93714631853271</v>
+        <v>3.9371463185</v>
       </c>
     </row>
     <row r="88">
@@ -12177,17 +12177,17 @@
         <v>179</v>
       </c>
       <c r="C88" t="n">
-        <v>9.72354691560234</v>
+        <v>9.7235469156</v>
       </c>
       <c r="D88" t="n">
-        <v>8.98626899283736</v>
+        <v>8.9862689928</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
-        <v>4.04727658147586</v>
+        <v>4.0472765815</v>
       </c>
       <c r="G88" t="n">
-        <v>4.36961861801544</v>
+        <v>4.369618618</v>
       </c>
     </row>
     <row r="89">
@@ -12198,19 +12198,19 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>8.9739255037393</v>
+        <v>8.9739255037</v>
       </c>
       <c r="D89" t="n">
-        <v>14.5487706062056</v>
+        <v>14.5487706062</v>
       </c>
       <c r="E89" t="n">
-        <v>13.9460601739954</v>
+        <v>13.946060174</v>
       </c>
       <c r="F89" t="n">
-        <v>6.10066645666986</v>
+        <v>6.1006664567</v>
       </c>
       <c r="G89" t="n">
-        <v>6.40820265976177</v>
+        <v>6.4082026598</v>
       </c>
     </row>
     <row r="90">
@@ -12221,19 +12221,19 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>7.85159070976478</v>
+        <v>7.8515907098</v>
       </c>
       <c r="D90" t="n">
-        <v>6.54270562652523</v>
+        <v>6.5427056265</v>
       </c>
       <c r="E90" t="n">
-        <v>6.44814336314601</v>
+        <v>6.4481433631</v>
       </c>
       <c r="F90" t="n">
-        <v>2.24142891917309</v>
+        <v>2.2414289192</v>
       </c>
       <c r="G90" t="n">
-        <v>2.97836088734162</v>
+        <v>2.9783608873</v>
       </c>
     </row>
     <row r="91">
@@ -12244,19 +12244,19 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>11.6959819052555</v>
+        <v>11.6959819053</v>
       </c>
       <c r="D91" t="n">
-        <v>11.1813743459796</v>
+        <v>11.181374346</v>
       </c>
       <c r="E91" t="n">
-        <v>11.2928946364714</v>
+        <v>11.2928946365</v>
       </c>
       <c r="F91" t="n">
-        <v>4.77070309566356</v>
+        <v>4.7707030957</v>
       </c>
       <c r="G91" t="n">
-        <v>5.0441613615538</v>
+        <v>5.0441613616</v>
       </c>
     </row>
     <row r="92">
@@ -12267,19 +12267,19 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>7.75430452921526</v>
+        <v>7.7543045292</v>
       </c>
       <c r="D92" t="n">
-        <v>6.43276756748644</v>
+        <v>6.4327675675</v>
       </c>
       <c r="E92" t="n">
-        <v>7.16011145930358</v>
+        <v>7.1601114593</v>
       </c>
       <c r="F92" t="n">
-        <v>4.57631300508669</v>
+        <v>4.5763130051</v>
       </c>
       <c r="G92" t="n">
-        <v>3.85347706328145</v>
+        <v>3.8534770633</v>
       </c>
     </row>
     <row r="93">
@@ -12290,19 +12290,19 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>8.3599726921645</v>
+        <v>8.3599726922</v>
       </c>
       <c r="D93" t="n">
-        <v>7.7430558838447</v>
+        <v>7.7430558838</v>
       </c>
       <c r="E93" t="n">
-        <v>7.2578926152393</v>
+        <v>7.2578926152</v>
       </c>
       <c r="F93" t="n">
-        <v>5.72794671765994</v>
+        <v>5.7279467177</v>
       </c>
       <c r="G93" t="n">
-        <v>5.87266776967117</v>
+        <v>5.8726677697</v>
       </c>
     </row>
     <row r="94">
@@ -12313,19 +12313,19 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>17.9650710113863</v>
+        <v>17.9650710114</v>
       </c>
       <c r="D94" t="n">
-        <v>15.0370386381313</v>
+        <v>15.0370386381</v>
       </c>
       <c r="E94" t="n">
-        <v>15.6392244050876</v>
+        <v>15.6392244051</v>
       </c>
       <c r="F94" t="n">
-        <v>6.46208013200029</v>
+        <v>6.462080132</v>
       </c>
       <c r="G94" t="n">
-        <v>6.26960523034716</v>
+        <v>6.2696052303</v>
       </c>
     </row>
     <row r="95">
@@ -12336,15 +12336,15 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>8.0074993525966</v>
+        <v>8.0074993526</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="n">
-        <v>3.02827948664478</v>
+        <v>3.0282794866</v>
       </c>
       <c r="G95" t="n">
-        <v>3.01603898326827</v>
+        <v>3.0160389833</v>
       </c>
     </row>
     <row r="96">
@@ -12355,17 +12355,17 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>13.7310751754742</v>
+        <v>13.7310751755</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>2.84431178955569</v>
+        <v>2.8443117896</v>
       </c>
       <c r="F96" t="n">
-        <v>2.38723216400704</v>
+        <v>2.387232164</v>
       </c>
       <c r="G96" t="n">
-        <v>3.02047984163184</v>
+        <v>3.0204798416</v>
       </c>
     </row>
     <row r="97">
@@ -12376,19 +12376,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>10.0824774871366</v>
+        <v>10.0824774871</v>
       </c>
       <c r="D97" t="n">
-        <v>7.84401665103379</v>
+        <v>7.844016651</v>
       </c>
       <c r="E97" t="n">
-        <v>8.53760232077742</v>
+        <v>8.5376023208</v>
       </c>
       <c r="F97" t="n">
-        <v>4.3147155160544</v>
+        <v>4.3147155161</v>
       </c>
       <c r="G97" t="n">
-        <v>4.50439635440184</v>
+        <v>4.5043963544</v>
       </c>
     </row>
     <row r="98">
@@ -12399,19 +12399,19 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>5.04890709807218</v>
+        <v>5.0489070981</v>
       </c>
       <c r="D98" t="n">
-        <v>5.7525968908275</v>
+        <v>5.7525968908</v>
       </c>
       <c r="E98" t="n">
-        <v>6.0134708027742</v>
+        <v>6.0134708028</v>
       </c>
       <c r="F98" t="n">
-        <v>3.56942619527015</v>
+        <v>3.5694261953</v>
       </c>
       <c r="G98" t="n">
-        <v>3.3467601832916</v>
+        <v>3.3467601833</v>
       </c>
     </row>
     <row r="99">
@@ -12422,19 +12422,19 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>10.3460110665562</v>
+        <v>10.3460110666</v>
       </c>
       <c r="D99" t="n">
-        <v>7.3202660846667</v>
+        <v>7.3202660847</v>
       </c>
       <c r="E99" t="n">
-        <v>8.59142398088117</v>
+        <v>8.5914239809</v>
       </c>
       <c r="F99" t="n">
-        <v>4.76551138955178</v>
+        <v>4.7655113896</v>
       </c>
       <c r="G99" t="n">
-        <v>4.10686392212455</v>
+        <v>4.1068639221</v>
       </c>
     </row>
     <row r="100">
@@ -12445,19 +12445,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>8.44494529964525</v>
+        <v>8.4449452996</v>
       </c>
       <c r="D100" t="n">
-        <v>9.48122455542808</v>
+        <v>9.4812245554</v>
       </c>
       <c r="E100" t="n">
-        <v>8.30629898410762</v>
+        <v>8.3062989841</v>
       </c>
       <c r="F100" t="n">
-        <v>4.11939054885735</v>
+        <v>4.1193905489</v>
       </c>
       <c r="G100" t="n">
-        <v>4.21941385789732</v>
+        <v>4.2194138579</v>
       </c>
     </row>
     <row r="101">
@@ -12468,19 +12468,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>8.28041794592948</v>
+        <v>8.2804179459</v>
       </c>
       <c r="D101" t="n">
-        <v>6.76530864482789</v>
+        <v>6.7653086448</v>
       </c>
       <c r="E101" t="n">
-        <v>5.9422657283936</v>
+        <v>5.9422657284</v>
       </c>
       <c r="F101" t="n">
-        <v>2.43073319635665</v>
+        <v>2.4307331964</v>
       </c>
       <c r="G101" t="n">
-        <v>2.49199573569038</v>
+        <v>2.4919957357</v>
       </c>
     </row>
     <row r="102">
@@ -12491,19 +12491,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>11.6389639217804</v>
+        <v>11.6389639218</v>
       </c>
       <c r="D102" t="n">
-        <v>15.3191680915763</v>
+        <v>15.3191680916</v>
       </c>
       <c r="E102" t="n">
-        <v>12.4710062615334</v>
+        <v>12.4710062615</v>
       </c>
       <c r="F102" t="n">
-        <v>4.2586467265156</v>
+        <v>4.2586467265</v>
       </c>
       <c r="G102" t="n">
-        <v>4.51374303021412</v>
+        <v>4.5137430302</v>
       </c>
     </row>
     <row r="103">
@@ -12514,17 +12514,17 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>5.86848046115121</v>
+        <v>5.8684804612</v>
       </c>
       <c r="D103" t="n">
-        <v>5.86657413605499</v>
+        <v>5.8665741361</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="n">
-        <v>2.27371488846368</v>
+        <v>2.2737148885</v>
       </c>
       <c r="G103" t="n">
-        <v>2.27882887385513</v>
+        <v>2.2788288739</v>
       </c>
     </row>
     <row r="104">
@@ -12535,19 +12535,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>10.4724094406545</v>
+        <v>10.4724094407</v>
       </c>
       <c r="D104" t="n">
-        <v>7.81854806641631</v>
+        <v>7.8185480664</v>
       </c>
       <c r="E104" t="n">
-        <v>7.95035548847996</v>
+        <v>7.9503554885</v>
       </c>
       <c r="F104" t="n">
-        <v>2.94937140626014</v>
+        <v>2.9493714063</v>
       </c>
       <c r="G104" t="n">
-        <v>2.8795172444756</v>
+        <v>2.8795172445</v>
       </c>
     </row>
     <row r="105">
@@ -12558,17 +12558,17 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>7.09440851244348</v>
+        <v>7.0944085124</v>
       </c>
       <c r="D105" t="n">
-        <v>7.43739640254527</v>
+        <v>7.4373964025</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="n">
-        <v>3.4194858085743</v>
+        <v>3.4194858086</v>
       </c>
       <c r="G105" t="n">
-        <v>3.14262579938956</v>
+        <v>3.1426257994</v>
       </c>
     </row>
     <row r="106">
@@ -12579,19 +12579,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>11.1230097075742</v>
+        <v>11.1230097076</v>
       </c>
       <c r="D106" t="n">
-        <v>14.6885296725182</v>
+        <v>14.6885296725</v>
       </c>
       <c r="E106" t="n">
-        <v>12.1025809414454</v>
+        <v>12.1025809414</v>
       </c>
       <c r="F106" t="n">
-        <v>5.78203933275637</v>
+        <v>5.7820393328</v>
       </c>
       <c r="G106" t="n">
-        <v>4.94184466895133</v>
+        <v>4.941844669</v>
       </c>
     </row>
     <row r="107">
@@ -12602,19 +12602,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>4.59184283174218</v>
+        <v>4.5918428317</v>
       </c>
       <c r="D107" t="n">
-        <v>4.01979506393479</v>
+        <v>4.0197950639</v>
       </c>
       <c r="E107" t="n">
-        <v>4.37787879942587</v>
+        <v>4.3778787994</v>
       </c>
       <c r="F107" t="n">
-        <v>19.0517760341452</v>
+        <v>19.0517760341</v>
       </c>
       <c r="G107" t="n">
-        <v>20.5895236246539</v>
+        <v>20.5895236247</v>
       </c>
     </row>
     <row r="108">
@@ -12625,19 +12625,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>7.28297190040978</v>
+        <v>7.2829719004</v>
       </c>
       <c r="D108" t="n">
-        <v>7.19045441173739</v>
+        <v>7.1904544117</v>
       </c>
       <c r="E108" t="n">
-        <v>7.59199542393648</v>
+        <v>7.5919954239</v>
       </c>
       <c r="F108" t="n">
-        <v>4.17614232837901</v>
+        <v>4.1761423284</v>
       </c>
       <c r="G108" t="n">
-        <v>4.20644592200153</v>
+        <v>4.206445922</v>
       </c>
     </row>
     <row r="109">
@@ -12648,19 +12648,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>7.94662647904924</v>
+        <v>7.946626479</v>
       </c>
       <c r="D109" t="n">
-        <v>8.2347209525916</v>
+        <v>8.2347209526</v>
       </c>
       <c r="E109" t="n">
-        <v>6.71418244776595</v>
+        <v>6.7141824478</v>
       </c>
       <c r="F109" t="n">
-        <v>2.77160201378017</v>
+        <v>2.7716020138</v>
       </c>
       <c r="G109" t="n">
-        <v>2.73904236201718</v>
+        <v>2.739042362</v>
       </c>
     </row>
     <row r="110">
@@ -12671,19 +12671,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>8.12550808085498</v>
+        <v>8.1255080809</v>
       </c>
       <c r="D110" t="n">
-        <v>6.0921282730127</v>
+        <v>6.092128273</v>
       </c>
       <c r="E110" t="n">
-        <v>5.16454265251543</v>
+        <v>5.1645426525</v>
       </c>
       <c r="F110" t="n">
-        <v>2.48883864487316</v>
+        <v>2.4888386449</v>
       </c>
       <c r="G110" t="n">
-        <v>2.54747244689278</v>
+        <v>2.5474724469</v>
       </c>
     </row>
     <row r="111">
@@ -12694,19 +12694,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>9.00774057125783</v>
+        <v>9.0077405713</v>
       </c>
       <c r="D111" t="n">
-        <v>10.10780226485</v>
+        <v>10.1078022649</v>
       </c>
       <c r="E111" t="n">
-        <v>10.3442640826259</v>
+        <v>10.3442640826</v>
       </c>
       <c r="F111" t="n">
-        <v>4.11336416245093</v>
+        <v>4.1133641625</v>
       </c>
       <c r="G111" t="n">
-        <v>3.53189805855939</v>
+        <v>3.5318980586</v>
       </c>
     </row>
     <row r="112">
@@ -12718,16 +12718,16 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="n">
-        <v>10.4099513129626</v>
+        <v>10.409951313</v>
       </c>
       <c r="E112" t="n">
-        <v>10.0458184438864</v>
+        <v>10.0458184439</v>
       </c>
       <c r="F112" t="n">
-        <v>3.91719646768963</v>
+        <v>3.9171964677</v>
       </c>
       <c r="G112" t="n">
-        <v>3.73263723251937</v>
+        <v>3.7326372325</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -751,7 +751,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -7712,36 +7712,36 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B385" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C385" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>9.31598037146559</v>
+        <v>8.357547619174</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B386" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C386" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D386" t="s">
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>9.34110527986801</v>
+        <v>5.60484723341018</v>
       </c>
     </row>
     <row r="387">
@@ -7752,13 +7752,13 @@
         <v>167</v>
       </c>
       <c r="C387" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>9.1525444764795</v>
+        <v>9.31598037146559</v>
       </c>
     </row>
     <row r="388">
@@ -7769,13 +7769,13 @@
         <v>167</v>
       </c>
       <c r="C388" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D388" t="s">
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>4.90018330237283</v>
+        <v>9.34110527986801</v>
       </c>
     </row>
     <row r="389">
@@ -7786,47 +7786,47 @@
         <v>167</v>
       </c>
       <c r="C389" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D389" t="s">
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>5.27636442875168</v>
+        <v>9.1525444764795</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B390" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C390" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D390" t="s">
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>8.9636314104233</v>
+        <v>4.90018330237283</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B391" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C391" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D391" t="s">
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>9.7915445324669</v>
+        <v>5.27636442875168</v>
       </c>
     </row>
     <row r="392">
@@ -7837,13 +7837,13 @@
         <v>169</v>
       </c>
       <c r="C392" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D392" t="s">
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>10.5047466777795</v>
+        <v>8.9636314104233</v>
       </c>
     </row>
     <row r="393">
@@ -7854,13 +7854,13 @@
         <v>169</v>
       </c>
       <c r="C393" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>6.7500967409657</v>
+        <v>9.7915445324669</v>
       </c>
     </row>
     <row r="394">
@@ -7871,47 +7871,47 @@
         <v>169</v>
       </c>
       <c r="C394" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D394" t="s">
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>4.72114630435763</v>
+        <v>10.5047466777795</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B395" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C395" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D395" t="s">
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>10.2311129323222</v>
+        <v>6.7500967409657</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B396" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C396" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D396" t="s">
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>9.89024008814698</v>
+        <v>4.72114630435763</v>
       </c>
     </row>
     <row r="397">
@@ -7922,13 +7922,13 @@
         <v>171</v>
       </c>
       <c r="C397" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>10.192034180047</v>
+        <v>10.2311129323222</v>
       </c>
     </row>
     <row r="398">
@@ -7939,13 +7939,13 @@
         <v>171</v>
       </c>
       <c r="C398" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D398" t="s">
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>4.00532070076513</v>
+        <v>9.89024008814698</v>
       </c>
     </row>
     <row r="399">
@@ -7956,47 +7956,47 @@
         <v>171</v>
       </c>
       <c r="C399" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D399" t="s">
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>5.37216275614056</v>
+        <v>10.192034180047</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B400" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C400" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>8.18633308930031</v>
+        <v>4.00532070076513</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B401" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C401" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>1.98203298412481</v>
+        <v>5.37216275614056</v>
       </c>
     </row>
     <row r="402">
@@ -8007,47 +8007,47 @@
         <v>173</v>
       </c>
       <c r="C402" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>0.0923461719019898</v>
+        <v>8.18633308930031</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B403" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C403" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D403" t="s">
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>7.45438353340657</v>
+        <v>1.98203298412481</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B404" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C404" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D404" t="s">
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>6.83656260075334</v>
+        <v>0.0923461719019898</v>
       </c>
     </row>
     <row r="405">
@@ -8058,13 +8058,13 @@
         <v>175</v>
       </c>
       <c r="C405" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D405" t="s">
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>7.20696442742711</v>
+        <v>7.45438353340657</v>
       </c>
     </row>
     <row r="406">
@@ -8075,13 +8075,13 @@
         <v>175</v>
       </c>
       <c r="C406" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>3.86596488873411</v>
+        <v>6.83656260075334</v>
       </c>
     </row>
     <row r="407">
@@ -8092,47 +8092,47 @@
         <v>175</v>
       </c>
       <c r="C407" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>3.98892435031855</v>
+        <v>7.20696442742711</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B408" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C408" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D408" t="s">
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>13.0646523931089</v>
+        <v>3.86596488873411</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B409" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C409" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>11.7449363534639</v>
+        <v>3.98892435031855</v>
       </c>
     </row>
     <row r="410">
@@ -8143,13 +8143,13 @@
         <v>177</v>
       </c>
       <c r="C410" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D410" t="s">
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>7.32255063615005</v>
+        <v>13.0646523931089</v>
       </c>
     </row>
     <row r="411">
@@ -8160,13 +8160,13 @@
         <v>177</v>
       </c>
       <c r="C411" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>4.14289206181569</v>
+        <v>11.7449363534639</v>
       </c>
     </row>
     <row r="412">
@@ -8177,47 +8177,47 @@
         <v>177</v>
       </c>
       <c r="C412" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>3.93714631853271</v>
+        <v>7.32255063615005</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B413" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C413" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D413" t="s">
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>9.72354691560234</v>
+        <v>4.14289206181569</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B414" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C414" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D414" t="s">
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>8.98626899283736</v>
+        <v>3.93714631853271</v>
       </c>
     </row>
     <row r="415">
@@ -8228,13 +8228,13 @@
         <v>179</v>
       </c>
       <c r="C415" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D415" t="s">
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>4.04727658147586</v>
+        <v>9.72354691560234</v>
       </c>
     </row>
     <row r="416">
@@ -8245,47 +8245,47 @@
         <v>179</v>
       </c>
       <c r="C416" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>4.36961861801544</v>
+        <v>8.98626899283736</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B417" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C417" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>8.9739255037393</v>
+        <v>4.04727658147586</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B418" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C418" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>14.5487706062056</v>
+        <v>4.36961861801544</v>
       </c>
     </row>
     <row r="419">
@@ -8296,13 +8296,13 @@
         <v>181</v>
       </c>
       <c r="C419" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D419" t="s">
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>13.9460601739954</v>
+        <v>8.9739255037393</v>
       </c>
     </row>
     <row r="420">
@@ -8313,13 +8313,13 @@
         <v>181</v>
       </c>
       <c r="C420" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D420" t="s">
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>6.10066645666986</v>
+        <v>14.5487706062056</v>
       </c>
     </row>
     <row r="421">
@@ -8330,47 +8330,47 @@
         <v>181</v>
       </c>
       <c r="C421" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D421" t="s">
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>6.40820265976177</v>
+        <v>13.9460601739954</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B422" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C422" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D422" t="s">
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>7.85159070976478</v>
+        <v>6.10066645666986</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B423" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C423" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D423" t="s">
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>6.54270562652523</v>
+        <v>6.40820265976177</v>
       </c>
     </row>
     <row r="424">
@@ -8381,13 +8381,13 @@
         <v>183</v>
       </c>
       <c r="C424" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D424" t="s">
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>6.44814336314601</v>
+        <v>7.85159070976478</v>
       </c>
     </row>
     <row r="425">
@@ -8398,13 +8398,13 @@
         <v>183</v>
       </c>
       <c r="C425" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D425" t="s">
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>2.24142891917309</v>
+        <v>6.54270562652523</v>
       </c>
     </row>
     <row r="426">
@@ -8415,47 +8415,47 @@
         <v>183</v>
       </c>
       <c r="C426" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>2.97836088734162</v>
+        <v>6.44814336314601</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B427" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C427" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>11.6959819052555</v>
+        <v>2.24142891917309</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B428" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C428" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D428" t="s">
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>11.1813743459796</v>
+        <v>2.97836088734162</v>
       </c>
     </row>
     <row r="429">
@@ -8466,13 +8466,13 @@
         <v>185</v>
       </c>
       <c r="C429" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>11.2928946364714</v>
+        <v>11.6959819052555</v>
       </c>
     </row>
     <row r="430">
@@ -8483,13 +8483,13 @@
         <v>185</v>
       </c>
       <c r="C430" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D430" t="s">
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>4.77070309566356</v>
+        <v>11.1813743459796</v>
       </c>
     </row>
     <row r="431">
@@ -8500,47 +8500,47 @@
         <v>185</v>
       </c>
       <c r="C431" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D431" t="s">
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>5.0441613615538</v>
+        <v>11.2928946364714</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B432" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C432" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D432" t="s">
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>7.75430452921526</v>
+        <v>4.77070309566356</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B433" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C433" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>6.43276756748644</v>
+        <v>5.0441613615538</v>
       </c>
     </row>
     <row r="434">
@@ -8551,13 +8551,13 @@
         <v>187</v>
       </c>
       <c r="C434" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D434" t="s">
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>7.16011145930358</v>
+        <v>7.75430452921526</v>
       </c>
     </row>
     <row r="435">
@@ -8568,13 +8568,13 @@
         <v>187</v>
       </c>
       <c r="C435" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D435" t="s">
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>4.57631300508669</v>
+        <v>6.43276756748644</v>
       </c>
     </row>
     <row r="436">
@@ -8585,47 +8585,47 @@
         <v>187</v>
       </c>
       <c r="C436" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D436" t="s">
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>3.85347706328145</v>
+        <v>7.16011145930358</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B437" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C437" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>8.3599726921645</v>
+        <v>4.57631300508669</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B438" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C438" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D438" t="s">
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>7.7430558838447</v>
+        <v>3.85347706328145</v>
       </c>
     </row>
     <row r="439">
@@ -8636,13 +8636,13 @@
         <v>189</v>
       </c>
       <c r="C439" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D439" t="s">
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>7.2578926152393</v>
+        <v>8.3599726921645</v>
       </c>
     </row>
     <row r="440">
@@ -8653,13 +8653,13 @@
         <v>189</v>
       </c>
       <c r="C440" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>5.72794671765994</v>
+        <v>7.7430558838447</v>
       </c>
     </row>
     <row r="441">
@@ -8670,47 +8670,47 @@
         <v>189</v>
       </c>
       <c r="C441" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D441" t="s">
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>5.87266776967117</v>
+        <v>7.2578926152393</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B442" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C442" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D442" t="s">
         <v>7</v>
       </c>
       <c r="E442" t="n">
-        <v>17.9650710113863</v>
+        <v>5.72794671765994</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B443" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C443" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D443" t="s">
         <v>7</v>
       </c>
       <c r="E443" t="n">
-        <v>15.0370386381313</v>
+        <v>5.87266776967117</v>
       </c>
     </row>
     <row r="444">
@@ -8721,13 +8721,13 @@
         <v>191</v>
       </c>
       <c r="C444" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D444" t="s">
         <v>7</v>
       </c>
       <c r="E444" t="n">
-        <v>15.6392244050876</v>
+        <v>17.9650710113863</v>
       </c>
     </row>
     <row r="445">
@@ -8738,13 +8738,13 @@
         <v>191</v>
       </c>
       <c r="C445" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D445" t="s">
         <v>7</v>
       </c>
       <c r="E445" t="n">
-        <v>6.46208013200029</v>
+        <v>15.0370386381313</v>
       </c>
     </row>
     <row r="446">
@@ -8755,47 +8755,47 @@
         <v>191</v>
       </c>
       <c r="C446" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D446" t="s">
         <v>7</v>
       </c>
       <c r="E446" t="n">
-        <v>6.26960523034716</v>
+        <v>15.6392244050876</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B447" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C447" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D447" t="s">
         <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>8.0074993525966</v>
+        <v>6.46208013200029</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B448" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C448" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D448" t="s">
         <v>7</v>
       </c>
       <c r="E448" t="n">
-        <v>3.02827948664478</v>
+        <v>6.26960523034716</v>
       </c>
     </row>
     <row r="449">
@@ -8806,47 +8806,47 @@
         <v>193</v>
       </c>
       <c r="C449" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
       </c>
       <c r="E449" t="n">
-        <v>3.01603898326827</v>
+        <v>8.0074993525966</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B450" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C450" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D450" t="s">
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>13.7310751754742</v>
+        <v>3.02827948664478</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B451" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C451" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
       </c>
       <c r="E451" t="n">
-        <v>2.84431178955569</v>
+        <v>3.01603898326827</v>
       </c>
     </row>
     <row r="452">
@@ -8857,13 +8857,13 @@
         <v>195</v>
       </c>
       <c r="C452" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D452" t="s">
         <v>7</v>
       </c>
       <c r="E452" t="n">
-        <v>2.38723216400704</v>
+        <v>13.7310751754742</v>
       </c>
     </row>
     <row r="453">
@@ -8874,47 +8874,47 @@
         <v>195</v>
       </c>
       <c r="C453" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D453" t="s">
         <v>7</v>
       </c>
       <c r="E453" t="n">
-        <v>3.02047984163184</v>
+        <v>2.84431178955569</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B454" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C454" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D454" t="s">
         <v>7</v>
       </c>
       <c r="E454" t="n">
-        <v>10.0824774871366</v>
+        <v>2.38723216400704</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B455" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C455" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D455" t="s">
         <v>7</v>
       </c>
       <c r="E455" t="n">
-        <v>7.84401665103379</v>
+        <v>3.02047984163184</v>
       </c>
     </row>
     <row r="456">
@@ -8925,13 +8925,13 @@
         <v>197</v>
       </c>
       <c r="C456" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D456" t="s">
         <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>8.53760232077742</v>
+        <v>10.0824774871366</v>
       </c>
     </row>
     <row r="457">
@@ -8942,13 +8942,13 @@
         <v>197</v>
       </c>
       <c r="C457" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D457" t="s">
         <v>7</v>
       </c>
       <c r="E457" t="n">
-        <v>4.3147155160544</v>
+        <v>7.84401665103379</v>
       </c>
     </row>
     <row r="458">
@@ -8959,47 +8959,47 @@
         <v>197</v>
       </c>
       <c r="C458" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D458" t="s">
         <v>7</v>
       </c>
       <c r="E458" t="n">
-        <v>4.50439635440184</v>
+        <v>8.53760232077742</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B459" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C459" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
       </c>
       <c r="E459" t="n">
-        <v>5.04890709807218</v>
+        <v>4.3147155160544</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B460" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C460" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
       </c>
       <c r="E460" t="n">
-        <v>5.7525968908275</v>
+        <v>4.50439635440184</v>
       </c>
     </row>
     <row r="461">
@@ -9010,13 +9010,13 @@
         <v>199</v>
       </c>
       <c r="C461" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
       </c>
       <c r="E461" t="n">
-        <v>6.0134708027742</v>
+        <v>5.04890709807218</v>
       </c>
     </row>
     <row r="462">
@@ -9027,13 +9027,13 @@
         <v>199</v>
       </c>
       <c r="C462" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D462" t="s">
         <v>7</v>
       </c>
       <c r="E462" t="n">
-        <v>3.56942619527015</v>
+        <v>5.7525968908275</v>
       </c>
     </row>
     <row r="463">
@@ -9044,47 +9044,47 @@
         <v>199</v>
       </c>
       <c r="C463" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D463" t="s">
         <v>7</v>
       </c>
       <c r="E463" t="n">
-        <v>3.3467601832916</v>
+        <v>6.0134708027742</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B464" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C464" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D464" t="s">
         <v>7</v>
       </c>
       <c r="E464" t="n">
-        <v>10.3460110665562</v>
+        <v>3.56942619527015</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B465" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C465" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D465" t="s">
         <v>7</v>
       </c>
       <c r="E465" t="n">
-        <v>7.3202660846667</v>
+        <v>3.3467601832916</v>
       </c>
     </row>
     <row r="466">
@@ -9095,13 +9095,13 @@
         <v>201</v>
       </c>
       <c r="C466" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
       </c>
       <c r="E466" t="n">
-        <v>8.59142398088117</v>
+        <v>10.3460110665562</v>
       </c>
     </row>
     <row r="467">
@@ -9112,13 +9112,13 @@
         <v>201</v>
       </c>
       <c r="C467" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D467" t="s">
         <v>7</v>
       </c>
       <c r="E467" t="n">
-        <v>4.76551138955178</v>
+        <v>7.3202660846667</v>
       </c>
     </row>
     <row r="468">
@@ -9129,47 +9129,47 @@
         <v>201</v>
       </c>
       <c r="C468" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D468" t="s">
         <v>7</v>
       </c>
       <c r="E468" t="n">
-        <v>4.10686392212455</v>
+        <v>8.59142398088117</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B469" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C469" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D469" t="s">
         <v>7</v>
       </c>
       <c r="E469" t="n">
-        <v>8.44494529964525</v>
+        <v>4.76551138955178</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B470" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C470" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D470" t="s">
         <v>7</v>
       </c>
       <c r="E470" t="n">
-        <v>9.48122455542808</v>
+        <v>4.10686392212455</v>
       </c>
     </row>
     <row r="471">
@@ -9180,13 +9180,13 @@
         <v>203</v>
       </c>
       <c r="C471" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D471" t="s">
         <v>7</v>
       </c>
       <c r="E471" t="n">
-        <v>8.30629898410762</v>
+        <v>8.44494529964525</v>
       </c>
     </row>
     <row r="472">
@@ -9197,13 +9197,13 @@
         <v>203</v>
       </c>
       <c r="C472" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D472" t="s">
         <v>7</v>
       </c>
       <c r="E472" t="n">
-        <v>4.11939054885735</v>
+        <v>9.48122455542808</v>
       </c>
     </row>
     <row r="473">
@@ -9214,47 +9214,47 @@
         <v>203</v>
       </c>
       <c r="C473" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D473" t="s">
         <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>4.21941385789732</v>
+        <v>8.30629898410762</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B474" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C474" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D474" t="s">
         <v>7</v>
       </c>
       <c r="E474" t="n">
-        <v>8.28041794592948</v>
+        <v>4.11939054885735</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B475" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C475" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D475" t="s">
         <v>7</v>
       </c>
       <c r="E475" t="n">
-        <v>6.76530864482789</v>
+        <v>4.21941385789732</v>
       </c>
     </row>
     <row r="476">
@@ -9265,13 +9265,13 @@
         <v>205</v>
       </c>
       <c r="C476" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D476" t="s">
         <v>7</v>
       </c>
       <c r="E476" t="n">
-        <v>5.9422657283936</v>
+        <v>8.28041794592948</v>
       </c>
     </row>
     <row r="477">
@@ -9282,13 +9282,13 @@
         <v>205</v>
       </c>
       <c r="C477" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
       </c>
       <c r="E477" t="n">
-        <v>2.43073319635665</v>
+        <v>6.76530864482789</v>
       </c>
     </row>
     <row r="478">
@@ -9299,47 +9299,47 @@
         <v>205</v>
       </c>
       <c r="C478" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D478" t="s">
         <v>7</v>
       </c>
       <c r="E478" t="n">
-        <v>2.49199573569038</v>
+        <v>5.9422657283936</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B479" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C479" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D479" t="s">
         <v>7</v>
       </c>
       <c r="E479" t="n">
-        <v>11.6389639217804</v>
+        <v>2.43073319635665</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B480" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C480" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D480" t="s">
         <v>7</v>
       </c>
       <c r="E480" t="n">
-        <v>15.3191680915763</v>
+        <v>2.49199573569038</v>
       </c>
     </row>
     <row r="481">
@@ -9350,13 +9350,13 @@
         <v>207</v>
       </c>
       <c r="C481" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D481" t="s">
         <v>7</v>
       </c>
       <c r="E481" t="n">
-        <v>12.4710062615334</v>
+        <v>11.6389639217804</v>
       </c>
     </row>
     <row r="482">
@@ -9367,13 +9367,13 @@
         <v>207</v>
       </c>
       <c r="C482" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D482" t="s">
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>4.2586467265156</v>
+        <v>15.3191680915763</v>
       </c>
     </row>
     <row r="483">
@@ -9384,47 +9384,47 @@
         <v>207</v>
       </c>
       <c r="C483" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D483" t="s">
         <v>7</v>
       </c>
       <c r="E483" t="n">
-        <v>4.51374303021412</v>
+        <v>12.4710062615334</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B484" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C484" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D484" t="s">
         <v>7</v>
       </c>
       <c r="E484" t="n">
-        <v>5.86848046115121</v>
+        <v>4.2586467265156</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B485" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C485" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D485" t="s">
         <v>7</v>
       </c>
       <c r="E485" t="n">
-        <v>5.86657413605499</v>
+        <v>4.51374303021412</v>
       </c>
     </row>
     <row r="486">
@@ -9435,13 +9435,13 @@
         <v>209</v>
       </c>
       <c r="C486" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D486" t="s">
         <v>7</v>
       </c>
       <c r="E486" t="n">
-        <v>2.27371488846368</v>
+        <v>5.86848046115121</v>
       </c>
     </row>
     <row r="487">
@@ -9452,47 +9452,47 @@
         <v>209</v>
       </c>
       <c r="C487" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
       </c>
       <c r="E487" t="n">
-        <v>2.27882887385513</v>
+        <v>5.86657413605499</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B488" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C488" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
       </c>
       <c r="E488" t="n">
-        <v>10.4724094406545</v>
+        <v>2.27371488846368</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B489" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C489" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
       </c>
       <c r="E489" t="n">
-        <v>7.81854806641631</v>
+        <v>2.27882887385513</v>
       </c>
     </row>
     <row r="490">
@@ -9503,13 +9503,13 @@
         <v>211</v>
       </c>
       <c r="C490" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
       </c>
       <c r="E490" t="n">
-        <v>7.95035548847996</v>
+        <v>10.4724094406545</v>
       </c>
     </row>
     <row r="491">
@@ -9520,13 +9520,13 @@
         <v>211</v>
       </c>
       <c r="C491" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
       </c>
       <c r="E491" t="n">
-        <v>2.94937140626014</v>
+        <v>7.81854806641631</v>
       </c>
     </row>
     <row r="492">
@@ -9537,47 +9537,47 @@
         <v>211</v>
       </c>
       <c r="C492" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
       </c>
       <c r="E492" t="n">
-        <v>2.8795172444756</v>
+        <v>7.95035548847996</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B493" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C493" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
       </c>
       <c r="E493" t="n">
-        <v>7.09440851244348</v>
+        <v>2.94937140626014</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B494" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C494" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
       </c>
       <c r="E494" t="n">
-        <v>7.43739640254527</v>
+        <v>2.8795172444756</v>
       </c>
     </row>
     <row r="495">
@@ -9588,13 +9588,13 @@
         <v>213</v>
       </c>
       <c r="C495" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
       </c>
       <c r="E495" t="n">
-        <v>3.4194858085743</v>
+        <v>7.09440851244348</v>
       </c>
     </row>
     <row r="496">
@@ -9605,47 +9605,47 @@
         <v>213</v>
       </c>
       <c r="C496" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D496" t="s">
         <v>7</v>
       </c>
       <c r="E496" t="n">
-        <v>3.14262579938956</v>
+        <v>7.43739640254527</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B497" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C497" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
       </c>
       <c r="E497" t="n">
-        <v>11.1230097075742</v>
+        <v>3.4194858085743</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B498" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C498" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D498" t="s">
         <v>7</v>
       </c>
       <c r="E498" t="n">
-        <v>14.6885296725182</v>
+        <v>3.14262579938956</v>
       </c>
     </row>
     <row r="499">
@@ -9656,13 +9656,13 @@
         <v>215</v>
       </c>
       <c r="C499" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D499" t="s">
         <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>12.1025809414454</v>
+        <v>11.1230097075742</v>
       </c>
     </row>
     <row r="500">
@@ -9673,13 +9673,13 @@
         <v>215</v>
       </c>
       <c r="C500" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D500" t="s">
         <v>7</v>
       </c>
       <c r="E500" t="n">
-        <v>5.78203933275637</v>
+        <v>14.6885296725182</v>
       </c>
     </row>
     <row r="501">
@@ -9690,47 +9690,47 @@
         <v>215</v>
       </c>
       <c r="C501" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D501" t="s">
         <v>7</v>
       </c>
       <c r="E501" t="n">
-        <v>4.94184466895133</v>
+        <v>12.1025809414454</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B502" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C502" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D502" t="s">
         <v>7</v>
       </c>
       <c r="E502" t="n">
-        <v>4.59184283174218</v>
+        <v>5.78203933275637</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B503" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C503" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D503" t="s">
         <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>4.01979506393479</v>
+        <v>4.94184466895133</v>
       </c>
     </row>
     <row r="504">
@@ -9741,13 +9741,13 @@
         <v>217</v>
       </c>
       <c r="C504" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D504" t="s">
         <v>7</v>
       </c>
       <c r="E504" t="n">
-        <v>4.37787879942587</v>
+        <v>4.59184283174218</v>
       </c>
     </row>
     <row r="505">
@@ -9758,13 +9758,13 @@
         <v>217</v>
       </c>
       <c r="C505" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D505" t="s">
         <v>7</v>
       </c>
       <c r="E505" t="n">
-        <v>19.0517760341452</v>
+        <v>4.01979506393479</v>
       </c>
     </row>
     <row r="506">
@@ -9775,47 +9775,47 @@
         <v>217</v>
       </c>
       <c r="C506" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D506" t="s">
         <v>7</v>
       </c>
       <c r="E506" t="n">
-        <v>20.5895236246539</v>
+        <v>4.37787879942587</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B507" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C507" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D507" t="s">
         <v>7</v>
       </c>
       <c r="E507" t="n">
-        <v>7.28297190040978</v>
+        <v>19.0517760341452</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B508" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C508" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D508" t="s">
         <v>7</v>
       </c>
       <c r="E508" t="n">
-        <v>7.19045441173739</v>
+        <v>20.5895236246539</v>
       </c>
     </row>
     <row r="509">
@@ -9826,13 +9826,13 @@
         <v>219</v>
       </c>
       <c r="C509" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D509" t="s">
         <v>7</v>
       </c>
       <c r="E509" t="n">
-        <v>7.59199542393648</v>
+        <v>7.28297190040978</v>
       </c>
     </row>
     <row r="510">
@@ -9843,13 +9843,13 @@
         <v>219</v>
       </c>
       <c r="C510" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D510" t="s">
         <v>7</v>
       </c>
       <c r="E510" t="n">
-        <v>4.17614232837901</v>
+        <v>7.19045441173739</v>
       </c>
     </row>
     <row r="511">
@@ -9860,47 +9860,47 @@
         <v>219</v>
       </c>
       <c r="C511" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D511" t="s">
         <v>7</v>
       </c>
       <c r="E511" t="n">
-        <v>4.20644592200153</v>
+        <v>7.59199542393648</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B512" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C512" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D512" t="s">
         <v>7</v>
       </c>
       <c r="E512" t="n">
-        <v>7.94662647904924</v>
+        <v>4.17614232837901</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B513" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C513" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D513" t="s">
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>8.2347209525916</v>
+        <v>4.20644592200153</v>
       </c>
     </row>
     <row r="514">
@@ -9911,13 +9911,13 @@
         <v>221</v>
       </c>
       <c r="C514" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D514" t="s">
         <v>7</v>
       </c>
       <c r="E514" t="n">
-        <v>6.71418244776595</v>
+        <v>7.94662647904924</v>
       </c>
     </row>
     <row r="515">
@@ -9928,13 +9928,13 @@
         <v>221</v>
       </c>
       <c r="C515" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D515" t="s">
         <v>7</v>
       </c>
       <c r="E515" t="n">
-        <v>2.77160201378017</v>
+        <v>8.2347209525916</v>
       </c>
     </row>
     <row r="516">
@@ -9945,47 +9945,47 @@
         <v>221</v>
       </c>
       <c r="C516" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D516" t="s">
         <v>7</v>
       </c>
       <c r="E516" t="n">
-        <v>2.73904236201718</v>
+        <v>6.71418244776595</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B517" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C517" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D517" t="s">
         <v>7</v>
       </c>
       <c r="E517" t="n">
-        <v>8.12550808085498</v>
+        <v>2.77160201378017</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B518" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C518" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D518" t="s">
         <v>7</v>
       </c>
       <c r="E518" t="n">
-        <v>6.0921282730127</v>
+        <v>2.73904236201718</v>
       </c>
     </row>
     <row r="519">
@@ -9996,13 +9996,13 @@
         <v>223</v>
       </c>
       <c r="C519" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D519" t="s">
         <v>7</v>
       </c>
       <c r="E519" t="n">
-        <v>5.16454265251543</v>
+        <v>8.12550808085498</v>
       </c>
     </row>
     <row r="520">
@@ -10013,13 +10013,13 @@
         <v>223</v>
       </c>
       <c r="C520" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D520" t="s">
         <v>7</v>
       </c>
       <c r="E520" t="n">
-        <v>2.48883864487316</v>
+        <v>6.0921282730127</v>
       </c>
     </row>
     <row r="521">
@@ -10030,47 +10030,47 @@
         <v>223</v>
       </c>
       <c r="C521" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D521" t="s">
         <v>7</v>
       </c>
       <c r="E521" t="n">
-        <v>2.54747244689278</v>
+        <v>5.16454265251543</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B522" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C522" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D522" t="s">
         <v>7</v>
       </c>
       <c r="E522" t="n">
-        <v>9.00774057125783</v>
+        <v>2.48883864487316</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B523" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C523" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D523" t="s">
         <v>7</v>
       </c>
       <c r="E523" t="n">
-        <v>10.10780226485</v>
+        <v>2.54747244689278</v>
       </c>
     </row>
     <row r="524">
@@ -10081,13 +10081,13 @@
         <v>225</v>
       </c>
       <c r="C524" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D524" t="s">
         <v>7</v>
       </c>
       <c r="E524" t="n">
-        <v>10.3442640826259</v>
+        <v>9.00774057125783</v>
       </c>
     </row>
     <row r="525">
@@ -10098,13 +10098,13 @@
         <v>225</v>
       </c>
       <c r="C525" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D525" t="s">
         <v>7</v>
       </c>
       <c r="E525" t="n">
-        <v>4.11336416245093</v>
+        <v>10.10780226485</v>
       </c>
     </row>
     <row r="526">
@@ -10115,47 +10115,47 @@
         <v>225</v>
       </c>
       <c r="C526" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D526" t="s">
         <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>3.53189805855939</v>
+        <v>10.3442640826259</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B527" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C527" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D527" t="s">
         <v>7</v>
       </c>
       <c r="E527" t="n">
-        <v>10.4099513129626</v>
+        <v>4.11336416245093</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B528" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C528" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D528" t="s">
         <v>7</v>
       </c>
       <c r="E528" t="n">
-        <v>10.0458184438864</v>
+        <v>3.53189805855939</v>
       </c>
     </row>
     <row r="529">
@@ -10166,13 +10166,13 @@
         <v>227</v>
       </c>
       <c r="C529" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D529" t="s">
         <v>7</v>
       </c>
       <c r="E529" t="n">
-        <v>3.91719646768963</v>
+        <v>10.4099513129626</v>
       </c>
     </row>
     <row r="530">
@@ -10183,12 +10183,46 @@
         <v>227</v>
       </c>
       <c r="C530" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+      <c r="E530" t="n">
+        <v>10.0458184438864</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>226</v>
+      </c>
+      <c r="B531" t="s">
+        <v>227</v>
+      </c>
+      <c r="C531" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+      <c r="E531" t="n">
+        <v>3.91719646768963</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>226</v>
+      </c>
+      <c r="B532" t="s">
+        <v>227</v>
+      </c>
+      <c r="C532" t="n">
         <v>2016</v>
       </c>
-      <c r="D530" t="s">
-        <v>7</v>
-      </c>
-      <c r="E530" t="n">
+      <c r="D532" t="s">
+        <v>7</v>
+      </c>
+      <c r="E532" t="n">
         <v>3.73263723251937</v>
       </c>
     </row>
@@ -12032,8 +12066,12 @@
       <c r="E81" t="n">
         <v>18.8012206823571</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
+      <c r="F81" t="n">
+        <v>8.357547619174</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.60484723341018</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -8816,18 +8816,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8835,19 +8838,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>19.4286001497</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>14.7211621314</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>19.634605851</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>12.4496856368</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>16.1122376939</v>
       </c>
     </row>
@@ -8855,19 +8861,22 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>9.5277498738</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>10.3282270124</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>9.6110306118</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.2586002191</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>5.3111099925</v>
       </c>
     </row>
@@ -8875,19 +8884,22 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
         <v>7.7981411334</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>7.0681707735</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>5.1825479879</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.0445568845</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>2.0613561044</v>
       </c>
     </row>
@@ -8895,17 +8907,20 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>6.9414907813</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>6.2790484213</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" t="n">
+      <c r="E5"/>
+      <c r="F5" t="n">
         <v>3.067347184</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2.8866295571</v>
       </c>
     </row>
@@ -8913,19 +8928,22 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
         <v>8.9636314104</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>9.7915445325</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>10.5047466778</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.750096741</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4.7211463044</v>
       </c>
     </row>
@@ -8933,19 +8951,22 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>10.2311129323</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>9.8902400881</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>10.19203418</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.0053207008</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.3721627561</v>
       </c>
     </row>
@@ -8953,15 +8974,18 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>8.1863330893</v>
       </c>
-      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" t="n">
+      <c r="E8"/>
+      <c r="F8" t="n">
         <v>1.9820329841</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.0923461719</v>
       </c>
     </row>
@@ -8969,17 +8993,20 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
         <v>9.7235469156</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>8.9862689928</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="n">
+      <c r="E9"/>
+      <c r="F9" t="n">
         <v>4.0472765815</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.369618618</v>
       </c>
     </row>
@@ -8987,19 +9014,22 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
         <v>8.2804179459</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>6.7653086448</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>5.9422657284</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.4307331964</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.4919957357</v>
       </c>
     </row>
@@ -9007,19 +9037,22 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
         <v>7.2829719004</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>7.1904544117</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>7.5919954239</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.1761423284</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.206445922</v>
       </c>
     </row>
@@ -9027,19 +9060,22 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>5.4296971151</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>5.9113793778</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.0440563239</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.1073596049</v>
       </c>
     </row>
@@ -9047,19 +9083,22 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
         <v>8.1255080809</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>6.092128273</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>5.1645426525</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.4888386449</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.5474724469</v>
       </c>
     </row>
@@ -9067,19 +9106,22 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>11.5814927511</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>9.734074213</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>9.0381599582</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3.778379705</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.5734999787</v>
       </c>
     </row>
@@ -9087,19 +9129,22 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
         <v>10.6037187463</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>7.9748510185</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>6.8903483517</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>4.9023062506</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.3115829936</v>
       </c>
     </row>
@@ -9107,19 +9152,22 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>13.0646523931</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>11.7449363535</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>7.3225506362</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>4.1428920618</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.9371463185</v>
       </c>
     </row>
@@ -9127,19 +9175,22 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
         <v>6.3962600473</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>7.7786964599</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>6.3754634928</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.6348392653</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2.7001841435</v>
       </c>
     </row>
@@ -9147,37 +9198,43 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
         <v>8.9502621899</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>6.5178004886</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>5.8350642386</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2.9585468284</v>
       </c>
-      <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>9.3105241105</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>6.1903532609</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>5.0887135803</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.6713968024</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.6748626991</v>
       </c>
     </row>
@@ -9185,17 +9242,20 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20"/>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
         <v>16.9205024303</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>14.6687930345</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>6.7036233726</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>7.1972556143</v>
       </c>
     </row>
@@ -9203,19 +9263,22 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
         <v>10.0781210284</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>7.6315496049</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>7.9423693859</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>3.0021716188</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.7327889703</v>
       </c>
     </row>
@@ -9223,19 +9286,22 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
         <v>7.3746937033</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>5.8273738288</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>5.3083274749</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.6479605751</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.6284100442</v>
       </c>
     </row>
@@ -9243,19 +9309,22 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
         <v>10.5644178772</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>12.4383404695</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>12.9885969671</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>4.7878444518</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>5.4593133954</v>
       </c>
     </row>
@@ -9263,19 +9332,22 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
         <v>7.7465258591</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>6.8929395805</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>6.2389190095</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>3.2070149997</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>3.0858096039</v>
       </c>
     </row>
@@ -9283,19 +9355,22 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
         <v>9.5850093142</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>7.109693889</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>6.7387549602</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>3.4994573742</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>4.2979102726</v>
       </c>
     </row>
@@ -9303,19 +9378,22 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
         <v>7.9961090749</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>10.5982989181</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>6.6627112454</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>2.9368511334</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3.0196079619</v>
       </c>
     </row>
@@ -9323,17 +9401,20 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
         <v>6.0944234253</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>5.744751533</v>
       </c>
-      <c r="D27"/>
-      <c r="E27" t="n">
+      <c r="E27"/>
+      <c r="F27" t="n">
         <v>2.3155316675</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>2.3542088206</v>
       </c>
     </row>
@@ -9341,17 +9422,20 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
         <v>4.5151786302</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>6.0416291829</v>
       </c>
-      <c r="D28"/>
-      <c r="E28" t="n">
+      <c r="E28"/>
+      <c r="F28" t="n">
         <v>1.4990796377</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1.8595613007</v>
       </c>
     </row>
@@ -9359,19 +9443,22 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
         <v>7.6399693665</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>7.0947080953</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>6.329421772</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>2.6610069428</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>2.7786140667</v>
       </c>
     </row>
@@ -9379,19 +9466,22 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
         <v>13.3034218561</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>11.7309862975</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>11.1486499498</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>4.4568187397</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>4.6514623199</v>
       </c>
     </row>
@@ -9399,19 +9489,22 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
         <v>8.2681208926</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>10.0725961775</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>7.7392729165</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>3.649594552</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>3.8955935389</v>
       </c>
     </row>
@@ -9419,19 +9512,22 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
         <v>7.329428945</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>6.8574078931</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>7.4979149087</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>3.9652959404</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.8691434507</v>
       </c>
     </row>
@@ -9439,17 +9535,20 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
         <v>7.4470377878</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>6.2406895696</v>
       </c>
-      <c r="D33"/>
-      <c r="E33" t="n">
+      <c r="E33"/>
+      <c r="F33" t="n">
         <v>2.8558108704</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>2.5847400875</v>
       </c>
     </row>
@@ -9457,19 +9556,22 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
         <v>8.4449452996</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>9.4812245554</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>8.3062989841</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>4.1193905489</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>4.2194138579</v>
       </c>
     </row>
@@ -9477,19 +9579,22 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
         <v>4.5918428317</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>4.0197950639</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>4.3778787994</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>19.0517760341</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>20.5895236247</v>
       </c>
     </row>
@@ -9497,19 +9602,22 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
         <v>7.946626479</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>8.2347209526</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>6.7141824478</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>2.7716020138</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>2.739042362</v>
       </c>
     </row>
@@ -9517,19 +9625,22 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.7569134587</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>8.1980189765</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>9.3387977897</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>5.6123944214</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>5.2268154886</v>
       </c>
     </row>
@@ -9537,19 +9648,22 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
         <v>10.3165899701</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>10.5917906567</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>6.6722317817</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>2.772729953</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>3.1014190559</v>
       </c>
     </row>
@@ -9557,19 +9671,22 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
         <v>11.1230097076</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>14.6885296725</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>12.1025809414</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>5.7820393328</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>4.941844669</v>
       </c>
     </row>
@@ -9577,19 +9694,22 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
         <v>10.7700257052</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>11.1416565552</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>9.844253154</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>4.7842770384</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>4.7747353841</v>
       </c>
     </row>
@@ -9597,19 +9717,22 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
         <v>7.1296116299</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>9.9102123236</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>8.6152999842</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>3.5665979754</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>3.7222634422</v>
       </c>
     </row>
@@ -9617,19 +9740,22 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
         <v>9.7678327083</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>13.1241993219</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>15.4429583155</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>4.4283996886</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>4.5796358311</v>
       </c>
     </row>
@@ -9637,19 +9763,22 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
         <v>7.4737101761</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>7.0374540072</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>7.0821472983</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>3.6562532343</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>3.7999534128</v>
       </c>
     </row>
@@ -9657,19 +9786,22 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
         <v>8.6382885043</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>8.5813372523</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>10.37349718</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>3.4775157001</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>3.1961290672</v>
       </c>
     </row>
@@ -9677,19 +9809,22 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
         <v>7.3166629839</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>9.1397725546</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>7.7790183894</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>3.0163071545</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>2.9766958538</v>
       </c>
     </row>
@@ -9697,19 +9832,22 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
         <v>8.7588458979</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>6.7177755028</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>6.2501848216</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>2.6800568957</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>2.5698900722</v>
       </c>
     </row>
@@ -9717,19 +9855,22 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
         <v>10.4385673114</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>11.7000588437</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>10.5403348498</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>4.0499758177</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>3.8447845554</v>
       </c>
     </row>
@@ -9737,19 +9878,22 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
         <v>7.8515907098</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>6.5427056265</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>6.4481433631</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>2.2414289192</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>2.9783608873</v>
       </c>
     </row>
@@ -9757,19 +9901,22 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n">
         <v>14.6294114743</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>18.1485692125</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>15.5507605256</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>5.7884224821</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.2429095641</v>
       </c>
     </row>
@@ -9777,19 +9924,22 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
         <v>11.1768355873</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>8.6778192792</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>7.9231328491</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>3.2368321909</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>3.2856271842</v>
       </c>
     </row>
@@ -9797,19 +9947,22 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
         <v>8.8101016079</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>10.4078741685</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>9.1998998973</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>3.3190072266</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>3.3888277649</v>
       </c>
     </row>
@@ -9817,19 +9970,22 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
         <v>15.6116262138</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>12.2835974255</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>12.5234181486</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>6.6741319891</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>5.4881065014</v>
       </c>
     </row>
@@ -9837,37 +9993,43 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
         <v>8.1940102573</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>7.6768161679</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>7.0690997926</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>2.6367126122</v>
       </c>
-      <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
         <v>8.9739255037</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>14.5487706062</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>13.946060174</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>6.1006664567</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>6.4082026598</v>
       </c>
     </row>
@@ -9875,19 +10037,22 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
         <v>8.3599726922</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>7.7430558838</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>7.2578926152</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>5.7279467177</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>5.8726677697</v>
       </c>
     </row>
@@ -9895,19 +10060,22 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
         <v>10.4724094407</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>7.8185480664</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>7.9503554885</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>2.9493714063</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>2.8795172445</v>
       </c>
     </row>
@@ -9915,19 +10083,22 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
         <v>8.188506523</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>8.6834036212</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>7.2503439728</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>4.005327384</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>4.003640323</v>
       </c>
     </row>
@@ -9935,19 +10106,22 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
         <v>7.1859545659</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>7.3400056012</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>5.0278434783</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>2.4715471017</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>2.5618290986</v>
       </c>
     </row>
@@ -9955,19 +10129,22 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
         <v>5.6118398488</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>6.8145866884</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>5.1777449387</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>2.2547798879</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>2.364409314</v>
       </c>
     </row>
@@ -9975,19 +10152,22 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
         <v>6.4135002767</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>4.9696141412</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>5.4073506881</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>1.7262667069</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>2.1162099333</v>
       </c>
     </row>
@@ -9995,19 +10175,22 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
         <v>7.3203291564</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>6.6371182127</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>6.0831405756</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>4.090159435</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>3.2175795441</v>
       </c>
     </row>
@@ -10015,19 +10198,22 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
         <v>6.808096671</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>9.5380883665</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>8.6017488994</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>5.3178799457</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>5.3133721099</v>
       </c>
     </row>
@@ -10035,17 +10221,20 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
         <v>4.7355298871</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>5.6636595139</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" t="n">
+      <c r="E63"/>
+      <c r="F63" t="n">
         <v>2.8547747939</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>2.7682886931</v>
       </c>
     </row>
@@ -10053,35 +10242,41 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
         <v>7.175135313</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>6.2660405748</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>18.8012206824</v>
       </c>
-      <c r="E64"/>
       <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n">
         <v>9.3159803715</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>9.3411052799</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>9.1525444765</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>4.9001833024</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>5.2763644288</v>
       </c>
     </row>
@@ -10089,19 +10284,22 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
         <v>7.7543045292</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>6.4327675675</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>7.1601114593</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>4.5763130051</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>3.8534770633</v>
       </c>
     </row>
@@ -10109,19 +10307,22 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
         <v>7.4543835334</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>6.8365626008</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>7.2069644274</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>3.8659648887</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>3.9889243503</v>
       </c>
     </row>
@@ -10129,19 +10330,22 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
         <v>10.3460110666</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>7.3202660847</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>8.5914239809</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>4.7655113896</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>4.1068639221</v>
       </c>
     </row>
@@ -10149,19 +10353,22 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="n">
         <v>9.0077405713</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>10.1078022649</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>10.3442640826</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>4.1133641625</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>3.5318980586</v>
       </c>
     </row>
@@ -10169,19 +10376,22 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
         <v>11.8733461862</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>8.8922098912</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>5.9528841129</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>2.9559526605</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>2.6291486883</v>
       </c>
     </row>
@@ -10189,19 +10399,22 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
         <v>9.5188614111</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>15.2069806029</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>8.4795016755</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>3.5958349056</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>3.4687653005</v>
       </c>
     </row>
@@ -10209,17 +10422,20 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72"/>
-      <c r="C72" t="n">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="n">
         <v>4.5777938285</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>4.6506229551</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>2.5981629704</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>2.8722364409</v>
       </c>
     </row>
@@ -10227,17 +10443,20 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73"/>
-      <c r="C73" t="n">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="n">
         <v>9.450783712</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>7.6829685381</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>3.2099012111</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>3.3159084789</v>
       </c>
     </row>
@@ -10245,19 +10464,22 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
         <v>9.7795810249</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>12.1275186195</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>9.1979133384</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>6.1121697614</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>6.3149624849</v>
       </c>
     </row>
@@ -10265,19 +10487,22 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
         <v>6.6601091781</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>7.9561237137</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>7.1209922467</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>2.8808500134</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>3.5218317138</v>
       </c>
     </row>
@@ -10285,19 +10510,22 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
         <v>11.689420675</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>10.1157087998</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>9.119456667</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>5.0366322088</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>5.2171762874</v>
       </c>
     </row>
@@ -10305,19 +10533,22 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
         <v>5.0489070981</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>5.7525968908</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>6.0134708028</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>3.5694261953</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>3.3467601833</v>
       </c>
     </row>
@@ -10325,17 +10556,20 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78"/>
-      <c r="C78" t="n">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="n">
         <v>10.79292382</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>9.3759768137</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>3.582558737</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>3.7119441578</v>
       </c>
     </row>
@@ -10343,19 +10577,22 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
         <v>10.4333389727</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>7.7999872619</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>7.8121130973</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>3.247486469</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>3.9226872321</v>
       </c>
     </row>
@@ -10363,17 +10600,20 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80"/>
-      <c r="C80" t="n">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="n">
         <v>8.9735449092</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>10.2293977721</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>4.5320120137</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>4.374069295</v>
       </c>
     </row>
@@ -10381,19 +10621,22 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
         <v>8.3082826777</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>8.8563528731</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>7.9977934872</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>2.5606681409</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>2.9532781762</v>
       </c>
     </row>
@@ -10401,19 +10644,22 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
         <v>13.4982933476</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>8.0107812486</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>8.7539115751</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>4.250874486</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>5.4818432206</v>
       </c>
     </row>
@@ -10421,19 +10667,22 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
         <v>11.6959819053</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>11.181374346</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>11.2928946365</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>4.7707030957</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>5.0441613616</v>
       </c>
     </row>
@@ -10441,17 +10690,20 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n">
         <v>13.7310751755</v>
       </c>
-      <c r="C84"/>
-      <c r="D84" t="n">
+      <c r="D84"/>
+      <c r="E84" t="n">
         <v>2.8443117896</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>2.387232164</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>3.0204798416</v>
       </c>
     </row>
@@ -10459,19 +10711,22 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
         <v>10.0824774871</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>7.844016651</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>8.5376023208</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>4.3147155161</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>4.5043963544</v>
       </c>
     </row>
@@ -10479,17 +10734,20 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86"/>
-      <c r="C86" t="n">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" t="n">
         <v>10.409951313</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>10.0458184439</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>3.9171964677</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>3.7326372325</v>
       </c>
     </row>
@@ -10497,19 +10755,22 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="n">
         <v>9.3127861731</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>11.5949247489</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>10.5430706134</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>4.6008699742</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>3.7271565299</v>
       </c>
     </row>
@@ -10517,19 +10778,22 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
         <v>7.2754698377</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>7.00401986</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>6.0513580317</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>2.3526616422</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>2.383544741</v>
       </c>
     </row>
@@ -10537,19 +10801,22 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
         <v>8.6728173875</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>8.0874417986</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>6.2989361187</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>2.0956520758</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>2.4625199432</v>
       </c>
     </row>
@@ -10557,17 +10824,20 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90"/>
-      <c r="C90" t="n">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" t="n">
         <v>6.3713723748</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>7.4573501411</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>5.8850421145</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>6.0903558114</v>
       </c>
     </row>
@@ -10575,19 +10845,22 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
         <v>7.3550125034</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>7.1856186531</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>7.0790300064</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>2.457319284</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>2.6303882313</v>
       </c>
     </row>
@@ -10595,19 +10868,22 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
         <v>9.2737050951</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>7.3086487038</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>6.2159912117</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>4.3821209272</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>4.1609321606</v>
       </c>
     </row>
@@ -10615,19 +10891,22 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
         <v>12.5566374076</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>13.4947693954</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>10.5923314638</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>3.937115595</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>4.1290189216</v>
       </c>
     </row>
@@ -10635,19 +10914,22 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
         <v>8.2787646268</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>6.6053969374</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>5.9483566656</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>2.7323315693</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>2.7775026706</v>
       </c>
     </row>
@@ -10655,17 +10937,20 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
         <v>9.6218045864</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>3.0060936874</v>
       </c>
-      <c r="D95"/>
-      <c r="E95" t="n">
+      <c r="E95"/>
+      <c r="F95" t="n">
         <v>4.3059161894</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>3.4782401732</v>
       </c>
     </row>
@@ -10673,17 +10958,20 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
         <v>5.8144973651</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>5.9750040833</v>
       </c>
-      <c r="D96"/>
-      <c r="E96" t="n">
+      <c r="E96"/>
+      <c r="F96" t="n">
         <v>1.9212885911</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>1.8616388924</v>
       </c>
     </row>
@@ -10691,15 +10979,18 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
         <v>8.0074993526</v>
       </c>
-      <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" t="n">
+      <c r="E97"/>
+      <c r="F97" t="n">
         <v>3.0282794866</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>3.0160389833</v>
       </c>
     </row>
@@ -10707,17 +10998,20 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
         <v>5.8684804612</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>5.8665741361</v>
       </c>
-      <c r="D98"/>
-      <c r="E98" t="n">
+      <c r="E98"/>
+      <c r="F98" t="n">
         <v>2.2737148885</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>2.2788288739</v>
       </c>
     </row>
@@ -10725,19 +11019,22 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
         <v>13.0536543651</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>11.6357403754</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>8.8756071755</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>3.5156283773</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>3.8423517174</v>
       </c>
     </row>
@@ -10745,19 +11042,22 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
         <v>9.3258823462</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>8.5212854995</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>7.6134721791</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>3.0573297568</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.1098435126</v>
       </c>
     </row>
@@ -10765,19 +11065,22 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
         <v>9.7530114332</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>13.5311667224</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>10.8726612672</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>8.498934221</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>10.1533657044</v>
       </c>
     </row>
@@ -10785,19 +11088,22 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
         <v>9.2403404496</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>11.2693001912</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>7.3566546587</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>3.1862667799</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>3.6849310829</v>
       </c>
     </row>
@@ -10805,19 +11111,22 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
         <v>8.4017209974</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>9.5242889642</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>9.1551322441</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>4.3272104415</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>3.6832593278</v>
       </c>
     </row>
@@ -10825,19 +11134,22 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
         <v>10.243690773</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>10.4062491731</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>8.5715704389</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>3.2608952248</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>3.3931360173</v>
       </c>
     </row>
@@ -10845,19 +11157,22 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
         <v>11.2271463038</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>11.4294006221</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>10.8176769849</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>4.0394940318</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>4.1062813707</v>
       </c>
     </row>
@@ -10865,19 +11180,22 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
         <v>11.060959275</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>11.2466654938</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>11.3484807761</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>4.7375428169</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>5.1524625642</v>
       </c>
     </row>
@@ -10885,19 +11203,22 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
         <v>9.2526675712</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>8.2828612025</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>8.1578964938</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>4.7336677792</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.9352431641</v>
       </c>
     </row>
@@ -10905,19 +11226,22 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
         <v>8.9949886265</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>9.0077430467</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>9.9895457291</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>6.0623590846</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>5.9577150559</v>
       </c>
     </row>
@@ -10925,19 +11249,22 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
         <v>8.5638462255</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>10.1836044972</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>8.7146673462</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>3.0661074903</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>3.6169335237</v>
       </c>
     </row>
@@ -10945,19 +11272,22 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
         <v>17.9650710114</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>15.0370386381</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>15.6392244051</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>6.462080132</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>6.2696052303</v>
       </c>
     </row>
@@ -10965,19 +11295,22 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
         <v>11.6389639218</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>15.3191680916</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>12.4710062615</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>4.2586467265</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>4.5137430302</v>
       </c>
     </row>
@@ -10985,17 +11318,20 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
         <v>7.0944085124</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>7.4373964025</v>
       </c>
-      <c r="D112"/>
-      <c r="E112" t="n">
+      <c r="E112"/>
+      <c r="F112" t="n">
         <v>3.4194858086</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.1426257994</v>
       </c>
     </row>

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -8816,21 +8816,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8838,22 +8835,19 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" t="n">
+        <v>19.4286001497</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4286001497</v>
+        <v>14.7211621314</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7211621314</v>
+        <v>19.634605851</v>
       </c>
       <c r="E2" t="n">
-        <v>19.634605851</v>
+        <v>12.4496856368</v>
       </c>
       <c r="F2" t="n">
-        <v>12.4496856368</v>
-      </c>
-      <c r="G2" t="n">
         <v>16.1122376939</v>
       </c>
     </row>
@@ -8861,22 +8855,19 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="n">
+        <v>9.5277498738</v>
       </c>
       <c r="C3" t="n">
-        <v>9.5277498738</v>
+        <v>10.3282270124</v>
       </c>
       <c r="D3" t="n">
-        <v>10.3282270124</v>
+        <v>9.6110306118</v>
       </c>
       <c r="E3" t="n">
-        <v>9.6110306118</v>
+        <v>5.2586002191</v>
       </c>
       <c r="F3" t="n">
-        <v>5.2586002191</v>
-      </c>
-      <c r="G3" t="n">
         <v>5.3111099925</v>
       </c>
     </row>
@@ -8884,22 +8875,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" t="n">
+        <v>7.7981411334</v>
       </c>
       <c r="C4" t="n">
-        <v>7.7981411334</v>
+        <v>7.0681707735</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0681707735</v>
+        <v>5.1825479879</v>
       </c>
       <c r="E4" t="n">
-        <v>5.1825479879</v>
+        <v>2.0445568845</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0445568845</v>
-      </c>
-      <c r="G4" t="n">
         <v>2.0613561044</v>
       </c>
     </row>
@@ -8907,20 +8895,17 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" t="n">
+        <v>6.9414907813</v>
       </c>
       <c r="C5" t="n">
-        <v>6.9414907813</v>
-      </c>
-      <c r="D5" t="n">
         <v>6.2790484213</v>
       </c>
-      <c r="E5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>3.067347184</v>
+      </c>
       <c r="F5" t="n">
-        <v>3.067347184</v>
-      </c>
-      <c r="G5" t="n">
         <v>2.8866295571</v>
       </c>
     </row>
@@ -8928,22 +8913,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" t="n">
+        <v>8.9636314104</v>
       </c>
       <c r="C6" t="n">
-        <v>8.9636314104</v>
+        <v>9.7915445325</v>
       </c>
       <c r="D6" t="n">
-        <v>9.7915445325</v>
+        <v>10.5047466778</v>
       </c>
       <c r="E6" t="n">
-        <v>10.5047466778</v>
+        <v>6.750096741</v>
       </c>
       <c r="F6" t="n">
-        <v>6.750096741</v>
-      </c>
-      <c r="G6" t="n">
         <v>4.7211463044</v>
       </c>
     </row>
@@ -8951,22 +8933,19 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" t="n">
+        <v>10.2311129323</v>
       </c>
       <c r="C7" t="n">
-        <v>10.2311129323</v>
+        <v>9.8902400881</v>
       </c>
       <c r="D7" t="n">
-        <v>9.8902400881</v>
+        <v>10.19203418</v>
       </c>
       <c r="E7" t="n">
-        <v>10.19203418</v>
+        <v>4.0053207008</v>
       </c>
       <c r="F7" t="n">
-        <v>4.0053207008</v>
-      </c>
-      <c r="G7" t="n">
         <v>5.3721627561</v>
       </c>
     </row>
@@ -8974,18 +8953,15 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>8.1863330893</v>
       </c>
+      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>1.9820329841</v>
+      </c>
       <c r="F8" t="n">
-        <v>1.9820329841</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.0923461719</v>
       </c>
     </row>
@@ -8993,20 +8969,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" t="n">
+        <v>9.7235469156</v>
       </c>
       <c r="C9" t="n">
-        <v>9.7235469156</v>
-      </c>
-      <c r="D9" t="n">
         <v>8.9862689928</v>
       </c>
-      <c r="E9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>4.0472765815</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.0472765815</v>
-      </c>
-      <c r="G9" t="n">
         <v>4.369618618</v>
       </c>
     </row>
@@ -9014,22 +8987,19 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10" t="n">
+        <v>8.2804179459</v>
       </c>
       <c r="C10" t="n">
-        <v>8.2804179459</v>
+        <v>6.7653086448</v>
       </c>
       <c r="D10" t="n">
-        <v>6.7653086448</v>
+        <v>5.9422657284</v>
       </c>
       <c r="E10" t="n">
-        <v>5.9422657284</v>
+        <v>2.4307331964</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4307331964</v>
-      </c>
-      <c r="G10" t="n">
         <v>2.4919957357</v>
       </c>
     </row>
@@ -9037,22 +9007,19 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" t="n">
+        <v>7.2829719004</v>
       </c>
       <c r="C11" t="n">
-        <v>7.2829719004</v>
+        <v>7.1904544117</v>
       </c>
       <c r="D11" t="n">
-        <v>7.1904544117</v>
+        <v>7.5919954239</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5919954239</v>
+        <v>4.1761423284</v>
       </c>
       <c r="F11" t="n">
-        <v>4.1761423284</v>
-      </c>
-      <c r="G11" t="n">
         <v>4.206445922</v>
       </c>
     </row>
@@ -9060,22 +9027,19 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5.4296971151</v>
       </c>
       <c r="D12" t="n">
-        <v>5.4296971151</v>
+        <v>5.9113793778</v>
       </c>
       <c r="E12" t="n">
-        <v>5.9113793778</v>
+        <v>3.0440563239</v>
       </c>
       <c r="F12" t="n">
-        <v>3.0440563239</v>
-      </c>
-      <c r="G12" t="n">
         <v>3.1073596049</v>
       </c>
     </row>
@@ -9083,22 +9047,19 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13" t="n">
+        <v>8.1255080809</v>
       </c>
       <c r="C13" t="n">
-        <v>8.1255080809</v>
+        <v>6.092128273</v>
       </c>
       <c r="D13" t="n">
-        <v>6.092128273</v>
+        <v>5.1645426525</v>
       </c>
       <c r="E13" t="n">
-        <v>5.1645426525</v>
+        <v>2.4888386449</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4888386449</v>
-      </c>
-      <c r="G13" t="n">
         <v>2.5474724469</v>
       </c>
     </row>
@@ -9106,22 +9067,19 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" t="n">
+        <v>11.5814927511</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5814927511</v>
+        <v>9.734074213</v>
       </c>
       <c r="D14" t="n">
-        <v>9.734074213</v>
+        <v>9.0381599582</v>
       </c>
       <c r="E14" t="n">
-        <v>9.0381599582</v>
+        <v>3.778379705</v>
       </c>
       <c r="F14" t="n">
-        <v>3.778379705</v>
-      </c>
-      <c r="G14" t="n">
         <v>3.5734999787</v>
       </c>
     </row>
@@ -9129,22 +9087,19 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15" t="n">
+        <v>10.6037187463</v>
       </c>
       <c r="C15" t="n">
-        <v>10.6037187463</v>
+        <v>7.9748510185</v>
       </c>
       <c r="D15" t="n">
-        <v>7.9748510185</v>
+        <v>6.8903483517</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8903483517</v>
+        <v>4.9023062506</v>
       </c>
       <c r="F15" t="n">
-        <v>4.9023062506</v>
-      </c>
-      <c r="G15" t="n">
         <v>2.3115829936</v>
       </c>
     </row>
@@ -9152,22 +9107,19 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16" t="n">
+        <v>13.0646523931</v>
       </c>
       <c r="C16" t="n">
-        <v>13.0646523931</v>
+        <v>11.7449363535</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7449363535</v>
+        <v>7.3225506362</v>
       </c>
       <c r="E16" t="n">
-        <v>7.3225506362</v>
+        <v>4.1428920618</v>
       </c>
       <c r="F16" t="n">
-        <v>4.1428920618</v>
-      </c>
-      <c r="G16" t="n">
         <v>3.9371463185</v>
       </c>
     </row>
@@ -9175,22 +9127,19 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="B17" t="n">
+        <v>6.3962600473</v>
       </c>
       <c r="C17" t="n">
-        <v>6.3962600473</v>
+        <v>7.7786964599</v>
       </c>
       <c r="D17" t="n">
-        <v>7.7786964599</v>
+        <v>6.3754634928</v>
       </c>
       <c r="E17" t="n">
-        <v>6.3754634928</v>
+        <v>2.6348392653</v>
       </c>
       <c r="F17" t="n">
-        <v>2.6348392653</v>
-      </c>
-      <c r="G17" t="n">
         <v>2.7001841435</v>
       </c>
     </row>
@@ -9198,43 +9147,37 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" t="n">
+        <v>8.9502621899</v>
       </c>
       <c r="C18" t="n">
-        <v>8.9502621899</v>
+        <v>6.5178004886</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5178004886</v>
+        <v>5.8350642386</v>
       </c>
       <c r="E18" t="n">
-        <v>5.8350642386</v>
-      </c>
-      <c r="F18" t="n">
         <v>2.9585468284</v>
       </c>
-      <c r="G18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19" t="n">
+        <v>9.3105241105</v>
       </c>
       <c r="C19" t="n">
-        <v>9.3105241105</v>
+        <v>6.1903532609</v>
       </c>
       <c r="D19" t="n">
-        <v>6.1903532609</v>
+        <v>5.0887135803</v>
       </c>
       <c r="E19" t="n">
-        <v>5.0887135803</v>
+        <v>1.6713968024</v>
       </c>
       <c r="F19" t="n">
-        <v>1.6713968024</v>
-      </c>
-      <c r="G19" t="n">
         <v>1.6748626991</v>
       </c>
     </row>
@@ -9242,20 +9185,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20"/>
+      <c r="B20"/>
+      <c r="C20" t="n">
+        <v>16.9205024303</v>
+      </c>
       <c r="D20" t="n">
-        <v>16.9205024303</v>
+        <v>14.6687930345</v>
       </c>
       <c r="E20" t="n">
-        <v>14.6687930345</v>
+        <v>6.7036233726</v>
       </c>
       <c r="F20" t="n">
-        <v>6.7036233726</v>
-      </c>
-      <c r="G20" t="n">
         <v>7.1972556143</v>
       </c>
     </row>
@@ -9263,22 +9203,19 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
+      <c r="B21" t="n">
+        <v>10.0781210284</v>
       </c>
       <c r="C21" t="n">
-        <v>10.0781210284</v>
+        <v>7.6315496049</v>
       </c>
       <c r="D21" t="n">
-        <v>7.6315496049</v>
+        <v>7.9423693859</v>
       </c>
       <c r="E21" t="n">
-        <v>7.9423693859</v>
+        <v>3.0021716188</v>
       </c>
       <c r="F21" t="n">
-        <v>3.0021716188</v>
-      </c>
-      <c r="G21" t="n">
         <v>2.7327889703</v>
       </c>
     </row>
@@ -9286,22 +9223,19 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22" t="n">
+        <v>7.3746937033</v>
       </c>
       <c r="C22" t="n">
-        <v>7.3746937033</v>
+        <v>5.8273738288</v>
       </c>
       <c r="D22" t="n">
-        <v>5.8273738288</v>
+        <v>5.3083274749</v>
       </c>
       <c r="E22" t="n">
-        <v>5.3083274749</v>
+        <v>1.6479605751</v>
       </c>
       <c r="F22" t="n">
-        <v>1.6479605751</v>
-      </c>
-      <c r="G22" t="n">
         <v>1.6284100442</v>
       </c>
     </row>
@@ -9309,22 +9243,19 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23" t="n">
+        <v>10.5644178772</v>
       </c>
       <c r="C23" t="n">
-        <v>10.5644178772</v>
+        <v>12.4383404695</v>
       </c>
       <c r="D23" t="n">
-        <v>12.4383404695</v>
+        <v>12.9885969671</v>
       </c>
       <c r="E23" t="n">
-        <v>12.9885969671</v>
+        <v>4.7878444518</v>
       </c>
       <c r="F23" t="n">
-        <v>4.7878444518</v>
-      </c>
-      <c r="G23" t="n">
         <v>5.4593133954</v>
       </c>
     </row>
@@ -9332,22 +9263,19 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24" t="n">
+        <v>7.7465258591</v>
       </c>
       <c r="C24" t="n">
-        <v>7.7465258591</v>
+        <v>6.8929395805</v>
       </c>
       <c r="D24" t="n">
-        <v>6.8929395805</v>
+        <v>6.2389190095</v>
       </c>
       <c r="E24" t="n">
-        <v>6.2389190095</v>
+        <v>3.2070149997</v>
       </c>
       <c r="F24" t="n">
-        <v>3.2070149997</v>
-      </c>
-      <c r="G24" t="n">
         <v>3.0858096039</v>
       </c>
     </row>
@@ -9355,22 +9283,19 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
+      <c r="B25" t="n">
+        <v>9.5850093142</v>
       </c>
       <c r="C25" t="n">
-        <v>9.5850093142</v>
+        <v>7.109693889</v>
       </c>
       <c r="D25" t="n">
-        <v>7.109693889</v>
+        <v>6.7387549602</v>
       </c>
       <c r="E25" t="n">
-        <v>6.7387549602</v>
+        <v>3.4994573742</v>
       </c>
       <c r="F25" t="n">
-        <v>3.4994573742</v>
-      </c>
-      <c r="G25" t="n">
         <v>4.2979102726</v>
       </c>
     </row>
@@ -9378,22 +9303,19 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
+      <c r="B26" t="n">
+        <v>7.9961090749</v>
       </c>
       <c r="C26" t="n">
-        <v>7.9961090749</v>
+        <v>10.5982989181</v>
       </c>
       <c r="D26" t="n">
-        <v>10.5982989181</v>
+        <v>6.6627112454</v>
       </c>
       <c r="E26" t="n">
-        <v>6.6627112454</v>
+        <v>2.9368511334</v>
       </c>
       <c r="F26" t="n">
-        <v>2.9368511334</v>
-      </c>
-      <c r="G26" t="n">
         <v>3.0196079619</v>
       </c>
     </row>
@@ -9401,20 +9323,17 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
+      <c r="B27" t="n">
+        <v>6.0944234253</v>
       </c>
       <c r="C27" t="n">
-        <v>6.0944234253</v>
-      </c>
-      <c r="D27" t="n">
         <v>5.744751533</v>
       </c>
-      <c r="E27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>2.3155316675</v>
+      </c>
       <c r="F27" t="n">
-        <v>2.3155316675</v>
-      </c>
-      <c r="G27" t="n">
         <v>2.3542088206</v>
       </c>
     </row>
@@ -9422,20 +9341,17 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28" t="n">
+        <v>4.5151786302</v>
       </c>
       <c r="C28" t="n">
-        <v>4.5151786302</v>
-      </c>
-      <c r="D28" t="n">
         <v>6.0416291829</v>
       </c>
-      <c r="E28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>1.4990796377</v>
+      </c>
       <c r="F28" t="n">
-        <v>1.4990796377</v>
-      </c>
-      <c r="G28" t="n">
         <v>1.8595613007</v>
       </c>
     </row>
@@ -9443,22 +9359,19 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29" t="n">
+        <v>7.6399693665</v>
       </c>
       <c r="C29" t="n">
-        <v>7.6399693665</v>
+        <v>7.0947080953</v>
       </c>
       <c r="D29" t="n">
-        <v>7.0947080953</v>
+        <v>6.329421772</v>
       </c>
       <c r="E29" t="n">
-        <v>6.329421772</v>
+        <v>2.6610069428</v>
       </c>
       <c r="F29" t="n">
-        <v>2.6610069428</v>
-      </c>
-      <c r="G29" t="n">
         <v>2.7786140667</v>
       </c>
     </row>
@@ -9466,22 +9379,19 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
+      <c r="B30" t="n">
+        <v>13.3034218561</v>
       </c>
       <c r="C30" t="n">
-        <v>13.3034218561</v>
+        <v>11.7309862975</v>
       </c>
       <c r="D30" t="n">
-        <v>11.7309862975</v>
+        <v>11.1486499498</v>
       </c>
       <c r="E30" t="n">
-        <v>11.1486499498</v>
+        <v>4.4568187397</v>
       </c>
       <c r="F30" t="n">
-        <v>4.4568187397</v>
-      </c>
-      <c r="G30" t="n">
         <v>4.6514623199</v>
       </c>
     </row>
@@ -9489,22 +9399,19 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31" t="n">
+        <v>8.2681208926</v>
       </c>
       <c r="C31" t="n">
-        <v>8.2681208926</v>
+        <v>10.0725961775</v>
       </c>
       <c r="D31" t="n">
-        <v>10.0725961775</v>
+        <v>7.7392729165</v>
       </c>
       <c r="E31" t="n">
-        <v>7.7392729165</v>
+        <v>3.649594552</v>
       </c>
       <c r="F31" t="n">
-        <v>3.649594552</v>
-      </c>
-      <c r="G31" t="n">
         <v>3.8955935389</v>
       </c>
     </row>
@@ -9512,22 +9419,19 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
+      <c r="B32" t="n">
+        <v>7.329428945</v>
       </c>
       <c r="C32" t="n">
-        <v>7.329428945</v>
+        <v>6.8574078931</v>
       </c>
       <c r="D32" t="n">
-        <v>6.8574078931</v>
+        <v>7.4979149087</v>
       </c>
       <c r="E32" t="n">
-        <v>7.4979149087</v>
+        <v>3.9652959404</v>
       </c>
       <c r="F32" t="n">
-        <v>3.9652959404</v>
-      </c>
-      <c r="G32" t="n">
         <v>3.8691434507</v>
       </c>
     </row>
@@ -9535,20 +9439,17 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33" t="n">
+        <v>7.4470377878</v>
       </c>
       <c r="C33" t="n">
-        <v>7.4470377878</v>
-      </c>
-      <c r="D33" t="n">
         <v>6.2406895696</v>
       </c>
-      <c r="E33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>2.8558108704</v>
+      </c>
       <c r="F33" t="n">
-        <v>2.8558108704</v>
-      </c>
-      <c r="G33" t="n">
         <v>2.5847400875</v>
       </c>
     </row>
@@ -9556,22 +9457,19 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34" t="n">
+        <v>8.4449452996</v>
       </c>
       <c r="C34" t="n">
-        <v>8.4449452996</v>
+        <v>9.4812245554</v>
       </c>
       <c r="D34" t="n">
-        <v>9.4812245554</v>
+        <v>8.3062989841</v>
       </c>
       <c r="E34" t="n">
-        <v>8.3062989841</v>
+        <v>4.1193905489</v>
       </c>
       <c r="F34" t="n">
-        <v>4.1193905489</v>
-      </c>
-      <c r="G34" t="n">
         <v>4.2194138579</v>
       </c>
     </row>
@@ -9579,22 +9477,19 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
+      <c r="B35" t="n">
+        <v>4.5918428317</v>
       </c>
       <c r="C35" t="n">
-        <v>4.5918428317</v>
+        <v>4.0197950639</v>
       </c>
       <c r="D35" t="n">
-        <v>4.0197950639</v>
+        <v>4.3778787994</v>
       </c>
       <c r="E35" t="n">
-        <v>4.3778787994</v>
+        <v>19.0517760341</v>
       </c>
       <c r="F35" t="n">
-        <v>19.0517760341</v>
-      </c>
-      <c r="G35" t="n">
         <v>20.5895236247</v>
       </c>
     </row>
@@ -9602,22 +9497,19 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36" t="n">
+        <v>7.946626479</v>
       </c>
       <c r="C36" t="n">
-        <v>7.946626479</v>
+        <v>8.2347209526</v>
       </c>
       <c r="D36" t="n">
-        <v>8.2347209526</v>
+        <v>6.7141824478</v>
       </c>
       <c r="E36" t="n">
-        <v>6.7141824478</v>
+        <v>2.7716020138</v>
       </c>
       <c r="F36" t="n">
-        <v>2.7716020138</v>
-      </c>
-      <c r="G36" t="n">
         <v>2.739042362</v>
       </c>
     </row>
@@ -9625,22 +9517,19 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
+      <c r="B37" t="n">
+        <v>7.7569134587</v>
       </c>
       <c r="C37" t="n">
-        <v>7.7569134587</v>
+        <v>8.1980189765</v>
       </c>
       <c r="D37" t="n">
-        <v>8.1980189765</v>
+        <v>9.3387977897</v>
       </c>
       <c r="E37" t="n">
-        <v>9.3387977897</v>
+        <v>5.6123944214</v>
       </c>
       <c r="F37" t="n">
-        <v>5.6123944214</v>
-      </c>
-      <c r="G37" t="n">
         <v>5.2268154886</v>
       </c>
     </row>
@@ -9648,22 +9537,19 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38" t="n">
+        <v>10.3165899701</v>
       </c>
       <c r="C38" t="n">
-        <v>10.3165899701</v>
+        <v>10.5917906567</v>
       </c>
       <c r="D38" t="n">
-        <v>10.5917906567</v>
+        <v>6.6722317817</v>
       </c>
       <c r="E38" t="n">
-        <v>6.6722317817</v>
+        <v>2.772729953</v>
       </c>
       <c r="F38" t="n">
-        <v>2.772729953</v>
-      </c>
-      <c r="G38" t="n">
         <v>3.1014190559</v>
       </c>
     </row>
@@ -9671,22 +9557,19 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39" t="n">
+        <v>11.1230097076</v>
       </c>
       <c r="C39" t="n">
-        <v>11.1230097076</v>
+        <v>14.6885296725</v>
       </c>
       <c r="D39" t="n">
-        <v>14.6885296725</v>
+        <v>12.1025809414</v>
       </c>
       <c r="E39" t="n">
-        <v>12.1025809414</v>
+        <v>5.7820393328</v>
       </c>
       <c r="F39" t="n">
-        <v>5.7820393328</v>
-      </c>
-      <c r="G39" t="n">
         <v>4.941844669</v>
       </c>
     </row>
@@ -9694,22 +9577,19 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40" t="n">
+        <v>10.7700257052</v>
       </c>
       <c r="C40" t="n">
-        <v>10.7700257052</v>
+        <v>11.1416565552</v>
       </c>
       <c r="D40" t="n">
-        <v>11.1416565552</v>
+        <v>9.844253154</v>
       </c>
       <c r="E40" t="n">
-        <v>9.844253154</v>
+        <v>4.7842770384</v>
       </c>
       <c r="F40" t="n">
-        <v>4.7842770384</v>
-      </c>
-      <c r="G40" t="n">
         <v>4.7747353841</v>
       </c>
     </row>
@@ -9717,22 +9597,19 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41" t="n">
+        <v>7.1296116299</v>
       </c>
       <c r="C41" t="n">
-        <v>7.1296116299</v>
+        <v>9.9102123236</v>
       </c>
       <c r="D41" t="n">
-        <v>9.9102123236</v>
+        <v>8.6152999842</v>
       </c>
       <c r="E41" t="n">
-        <v>8.6152999842</v>
+        <v>3.5665979754</v>
       </c>
       <c r="F41" t="n">
-        <v>3.5665979754</v>
-      </c>
-      <c r="G41" t="n">
         <v>3.7222634422</v>
       </c>
     </row>
@@ -9740,22 +9617,19 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42" t="n">
+        <v>9.7678327083</v>
       </c>
       <c r="C42" t="n">
-        <v>9.7678327083</v>
+        <v>13.1241993219</v>
       </c>
       <c r="D42" t="n">
-        <v>13.1241993219</v>
+        <v>15.4429583155</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4429583155</v>
+        <v>4.4283996886</v>
       </c>
       <c r="F42" t="n">
-        <v>4.4283996886</v>
-      </c>
-      <c r="G42" t="n">
         <v>4.5796358311</v>
       </c>
     </row>
@@ -9763,22 +9637,19 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43" t="n">
+        <v>7.4737101761</v>
       </c>
       <c r="C43" t="n">
-        <v>7.4737101761</v>
+        <v>7.0374540072</v>
       </c>
       <c r="D43" t="n">
-        <v>7.0374540072</v>
+        <v>7.0821472983</v>
       </c>
       <c r="E43" t="n">
-        <v>7.0821472983</v>
+        <v>3.6562532343</v>
       </c>
       <c r="F43" t="n">
-        <v>3.6562532343</v>
-      </c>
-      <c r="G43" t="n">
         <v>3.7999534128</v>
       </c>
     </row>
@@ -9786,22 +9657,19 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" t="n">
+        <v>8.6382885043</v>
       </c>
       <c r="C44" t="n">
-        <v>8.6382885043</v>
+        <v>8.5813372523</v>
       </c>
       <c r="D44" t="n">
-        <v>8.5813372523</v>
+        <v>10.37349718</v>
       </c>
       <c r="E44" t="n">
-        <v>10.37349718</v>
+        <v>3.4775157001</v>
       </c>
       <c r="F44" t="n">
-        <v>3.4775157001</v>
-      </c>
-      <c r="G44" t="n">
         <v>3.1961290672</v>
       </c>
     </row>
@@ -9809,22 +9677,19 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45" t="n">
+        <v>7.3166629839</v>
       </c>
       <c r="C45" t="n">
-        <v>7.3166629839</v>
+        <v>9.1397725546</v>
       </c>
       <c r="D45" t="n">
-        <v>9.1397725546</v>
+        <v>7.7790183894</v>
       </c>
       <c r="E45" t="n">
-        <v>7.7790183894</v>
+        <v>3.0163071545</v>
       </c>
       <c r="F45" t="n">
-        <v>3.0163071545</v>
-      </c>
-      <c r="G45" t="n">
         <v>2.9766958538</v>
       </c>
     </row>
@@ -9832,22 +9697,19 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46" t="n">
+        <v>8.7588458979</v>
       </c>
       <c r="C46" t="n">
-        <v>8.7588458979</v>
+        <v>6.7177755028</v>
       </c>
       <c r="D46" t="n">
-        <v>6.7177755028</v>
+        <v>6.2501848216</v>
       </c>
       <c r="E46" t="n">
-        <v>6.2501848216</v>
+        <v>2.6800568957</v>
       </c>
       <c r="F46" t="n">
-        <v>2.6800568957</v>
-      </c>
-      <c r="G46" t="n">
         <v>2.5698900722</v>
       </c>
     </row>
@@ -9855,22 +9717,19 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47" t="n">
+        <v>10.4385673114</v>
       </c>
       <c r="C47" t="n">
-        <v>10.4385673114</v>
+        <v>11.7000588437</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7000588437</v>
+        <v>10.5403348498</v>
       </c>
       <c r="E47" t="n">
-        <v>10.5403348498</v>
+        <v>4.0499758177</v>
       </c>
       <c r="F47" t="n">
-        <v>4.0499758177</v>
-      </c>
-      <c r="G47" t="n">
         <v>3.8447845554</v>
       </c>
     </row>
@@ -9878,22 +9737,19 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48" t="n">
+        <v>7.8515907098</v>
       </c>
       <c r="C48" t="n">
-        <v>7.8515907098</v>
+        <v>6.5427056265</v>
       </c>
       <c r="D48" t="n">
-        <v>6.5427056265</v>
+        <v>6.4481433631</v>
       </c>
       <c r="E48" t="n">
-        <v>6.4481433631</v>
+        <v>2.2414289192</v>
       </c>
       <c r="F48" t="n">
-        <v>2.2414289192</v>
-      </c>
-      <c r="G48" t="n">
         <v>2.9783608873</v>
       </c>
     </row>
@@ -9901,22 +9757,19 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
+      <c r="B49" t="n">
+        <v>14.6294114743</v>
       </c>
       <c r="C49" t="n">
-        <v>14.6294114743</v>
+        <v>18.1485692125</v>
       </c>
       <c r="D49" t="n">
-        <v>18.1485692125</v>
+        <v>15.5507605256</v>
       </c>
       <c r="E49" t="n">
-        <v>15.5507605256</v>
+        <v>5.7884224821</v>
       </c>
       <c r="F49" t="n">
-        <v>5.7884224821</v>
-      </c>
-      <c r="G49" t="n">
         <v>6.2429095641</v>
       </c>
     </row>
@@ -9924,22 +9777,19 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
+      <c r="B50" t="n">
+        <v>11.1768355873</v>
       </c>
       <c r="C50" t="n">
-        <v>11.1768355873</v>
+        <v>8.6778192792</v>
       </c>
       <c r="D50" t="n">
-        <v>8.6778192792</v>
+        <v>7.9231328491</v>
       </c>
       <c r="E50" t="n">
-        <v>7.9231328491</v>
+        <v>3.2368321909</v>
       </c>
       <c r="F50" t="n">
-        <v>3.2368321909</v>
-      </c>
-      <c r="G50" t="n">
         <v>3.2856271842</v>
       </c>
     </row>
@@ -9947,22 +9797,19 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
+      <c r="B51" t="n">
+        <v>8.8101016079</v>
       </c>
       <c r="C51" t="n">
-        <v>8.8101016079</v>
+        <v>10.4078741685</v>
       </c>
       <c r="D51" t="n">
-        <v>10.4078741685</v>
+        <v>9.1998998973</v>
       </c>
       <c r="E51" t="n">
-        <v>9.1998998973</v>
+        <v>3.3190072266</v>
       </c>
       <c r="F51" t="n">
-        <v>3.3190072266</v>
-      </c>
-      <c r="G51" t="n">
         <v>3.3888277649</v>
       </c>
     </row>
@@ -9970,22 +9817,19 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
+      <c r="B52" t="n">
+        <v>15.6116262138</v>
       </c>
       <c r="C52" t="n">
-        <v>15.6116262138</v>
+        <v>12.2835974255</v>
       </c>
       <c r="D52" t="n">
-        <v>12.2835974255</v>
+        <v>12.5234181486</v>
       </c>
       <c r="E52" t="n">
-        <v>12.5234181486</v>
+        <v>6.6741319891</v>
       </c>
       <c r="F52" t="n">
-        <v>6.6741319891</v>
-      </c>
-      <c r="G52" t="n">
         <v>5.4881065014</v>
       </c>
     </row>
@@ -9993,43 +9837,37 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
+      <c r="B53" t="n">
+        <v>8.1940102573</v>
       </c>
       <c r="C53" t="n">
-        <v>8.1940102573</v>
+        <v>7.6768161679</v>
       </c>
       <c r="D53" t="n">
-        <v>7.6768161679</v>
+        <v>7.0690997926</v>
       </c>
       <c r="E53" t="n">
-        <v>7.0690997926</v>
-      </c>
-      <c r="F53" t="n">
         <v>2.6367126122</v>
       </c>
-      <c r="G53"/>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
+      <c r="B54" t="n">
+        <v>8.9739255037</v>
       </c>
       <c r="C54" t="n">
-        <v>8.9739255037</v>
+        <v>14.5487706062</v>
       </c>
       <c r="D54" t="n">
-        <v>14.5487706062</v>
+        <v>13.946060174</v>
       </c>
       <c r="E54" t="n">
-        <v>13.946060174</v>
+        <v>6.1006664567</v>
       </c>
       <c r="F54" t="n">
-        <v>6.1006664567</v>
-      </c>
-      <c r="G54" t="n">
         <v>6.4082026598</v>
       </c>
     </row>
@@ -10037,22 +9875,19 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
+      <c r="B55" t="n">
+        <v>8.3599726922</v>
       </c>
       <c r="C55" t="n">
-        <v>8.3599726922</v>
+        <v>7.7430558838</v>
       </c>
       <c r="D55" t="n">
-        <v>7.7430558838</v>
+        <v>7.2578926152</v>
       </c>
       <c r="E55" t="n">
-        <v>7.2578926152</v>
+        <v>5.7279467177</v>
       </c>
       <c r="F55" t="n">
-        <v>5.7279467177</v>
-      </c>
-      <c r="G55" t="n">
         <v>5.8726677697</v>
       </c>
     </row>
@@ -10060,22 +9895,19 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
+      <c r="B56" t="n">
+        <v>10.4724094407</v>
       </c>
       <c r="C56" t="n">
-        <v>10.4724094407</v>
+        <v>7.8185480664</v>
       </c>
       <c r="D56" t="n">
-        <v>7.8185480664</v>
+        <v>7.9503554885</v>
       </c>
       <c r="E56" t="n">
-        <v>7.9503554885</v>
+        <v>2.9493714063</v>
       </c>
       <c r="F56" t="n">
-        <v>2.9493714063</v>
-      </c>
-      <c r="G56" t="n">
         <v>2.8795172445</v>
       </c>
     </row>
@@ -10083,22 +9915,19 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
+      <c r="B57" t="n">
+        <v>8.188506523</v>
       </c>
       <c r="C57" t="n">
-        <v>8.188506523</v>
+        <v>8.6834036212</v>
       </c>
       <c r="D57" t="n">
-        <v>8.6834036212</v>
+        <v>7.2503439728</v>
       </c>
       <c r="E57" t="n">
-        <v>7.2503439728</v>
+        <v>4.005327384</v>
       </c>
       <c r="F57" t="n">
-        <v>4.005327384</v>
-      </c>
-      <c r="G57" t="n">
         <v>4.003640323</v>
       </c>
     </row>
@@ -10106,22 +9935,19 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
+      <c r="B58" t="n">
+        <v>7.1859545659</v>
       </c>
       <c r="C58" t="n">
-        <v>7.1859545659</v>
+        <v>7.3400056012</v>
       </c>
       <c r="D58" t="n">
-        <v>7.3400056012</v>
+        <v>5.0278434783</v>
       </c>
       <c r="E58" t="n">
-        <v>5.0278434783</v>
+        <v>2.4715471017</v>
       </c>
       <c r="F58" t="n">
-        <v>2.4715471017</v>
-      </c>
-      <c r="G58" t="n">
         <v>2.5618290986</v>
       </c>
     </row>
@@ -10129,22 +9955,19 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59" t="n">
+        <v>5.6118398488</v>
       </c>
       <c r="C59" t="n">
-        <v>5.6118398488</v>
+        <v>6.8145866884</v>
       </c>
       <c r="D59" t="n">
-        <v>6.8145866884</v>
+        <v>5.1777449387</v>
       </c>
       <c r="E59" t="n">
-        <v>5.1777449387</v>
+        <v>2.2547798879</v>
       </c>
       <c r="F59" t="n">
-        <v>2.2547798879</v>
-      </c>
-      <c r="G59" t="n">
         <v>2.364409314</v>
       </c>
     </row>
@@ -10152,22 +9975,19 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
+      <c r="B60" t="n">
+        <v>6.4135002767</v>
       </c>
       <c r="C60" t="n">
-        <v>6.4135002767</v>
+        <v>4.9696141412</v>
       </c>
       <c r="D60" t="n">
-        <v>4.9696141412</v>
+        <v>5.4073506881</v>
       </c>
       <c r="E60" t="n">
-        <v>5.4073506881</v>
+        <v>1.7262667069</v>
       </c>
       <c r="F60" t="n">
-        <v>1.7262667069</v>
-      </c>
-      <c r="G60" t="n">
         <v>2.1162099333</v>
       </c>
     </row>
@@ -10175,22 +9995,19 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
+      <c r="B61" t="n">
+        <v>7.3203291564</v>
       </c>
       <c r="C61" t="n">
-        <v>7.3203291564</v>
+        <v>6.6371182127</v>
       </c>
       <c r="D61" t="n">
-        <v>6.6371182127</v>
+        <v>6.0831405756</v>
       </c>
       <c r="E61" t="n">
-        <v>6.0831405756</v>
+        <v>4.090159435</v>
       </c>
       <c r="F61" t="n">
-        <v>4.090159435</v>
-      </c>
-      <c r="G61" t="n">
         <v>3.2175795441</v>
       </c>
     </row>
@@ -10198,22 +10015,19 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62" t="n">
+        <v>6.808096671</v>
       </c>
       <c r="C62" t="n">
-        <v>6.808096671</v>
+        <v>9.5380883665</v>
       </c>
       <c r="D62" t="n">
-        <v>9.5380883665</v>
+        <v>8.6017488994</v>
       </c>
       <c r="E62" t="n">
-        <v>8.6017488994</v>
+        <v>5.3178799457</v>
       </c>
       <c r="F62" t="n">
-        <v>5.3178799457</v>
-      </c>
-      <c r="G62" t="n">
         <v>5.3133721099</v>
       </c>
     </row>
@@ -10221,20 +10035,17 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
+      <c r="B63" t="n">
+        <v>4.7355298871</v>
       </c>
       <c r="C63" t="n">
-        <v>4.7355298871</v>
-      </c>
-      <c r="D63" t="n">
         <v>5.6636595139</v>
       </c>
-      <c r="E63"/>
+      <c r="D63"/>
+      <c r="E63" t="n">
+        <v>2.8547747939</v>
+      </c>
       <c r="F63" t="n">
-        <v>2.8547747939</v>
-      </c>
-      <c r="G63" t="n">
         <v>2.7682886931</v>
       </c>
     </row>
@@ -10242,41 +10053,35 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64" t="n">
+        <v>7.175135313</v>
       </c>
       <c r="C64" t="n">
-        <v>7.175135313</v>
+        <v>6.2660405748</v>
       </c>
       <c r="D64" t="n">
-        <v>6.2660405748</v>
-      </c>
-      <c r="E64" t="n">
         <v>18.8012206824</v>
       </c>
+      <c r="E64"/>
       <c r="F64"/>
-      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
+      <c r="B65" t="n">
+        <v>9.3159803715</v>
       </c>
       <c r="C65" t="n">
-        <v>9.3159803715</v>
+        <v>9.3411052799</v>
       </c>
       <c r="D65" t="n">
-        <v>9.3411052799</v>
+        <v>9.1525444765</v>
       </c>
       <c r="E65" t="n">
-        <v>9.1525444765</v>
+        <v>4.9001833024</v>
       </c>
       <c r="F65" t="n">
-        <v>4.9001833024</v>
-      </c>
-      <c r="G65" t="n">
         <v>5.2763644288</v>
       </c>
     </row>
@@ -10284,22 +10089,19 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
+      <c r="B66" t="n">
+        <v>7.7543045292</v>
       </c>
       <c r="C66" t="n">
-        <v>7.7543045292</v>
+        <v>6.4327675675</v>
       </c>
       <c r="D66" t="n">
-        <v>6.4327675675</v>
+        <v>7.1601114593</v>
       </c>
       <c r="E66" t="n">
-        <v>7.1601114593</v>
+        <v>4.5763130051</v>
       </c>
       <c r="F66" t="n">
-        <v>4.5763130051</v>
-      </c>
-      <c r="G66" t="n">
         <v>3.8534770633</v>
       </c>
     </row>
@@ -10307,22 +10109,19 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
+      <c r="B67" t="n">
+        <v>7.4543835334</v>
       </c>
       <c r="C67" t="n">
-        <v>7.4543835334</v>
+        <v>6.8365626008</v>
       </c>
       <c r="D67" t="n">
-        <v>6.8365626008</v>
+        <v>7.2069644274</v>
       </c>
       <c r="E67" t="n">
-        <v>7.2069644274</v>
+        <v>3.8659648887</v>
       </c>
       <c r="F67" t="n">
-        <v>3.8659648887</v>
-      </c>
-      <c r="G67" t="n">
         <v>3.9889243503</v>
       </c>
     </row>
@@ -10330,22 +10129,19 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
+      <c r="B68" t="n">
+        <v>10.3460110666</v>
       </c>
       <c r="C68" t="n">
-        <v>10.3460110666</v>
+        <v>7.3202660847</v>
       </c>
       <c r="D68" t="n">
-        <v>7.3202660847</v>
+        <v>8.5914239809</v>
       </c>
       <c r="E68" t="n">
-        <v>8.5914239809</v>
+        <v>4.7655113896</v>
       </c>
       <c r="F68" t="n">
-        <v>4.7655113896</v>
-      </c>
-      <c r="G68" t="n">
         <v>4.1068639221</v>
       </c>
     </row>
@@ -10353,22 +10149,19 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
+      <c r="B69" t="n">
+        <v>9.0077405713</v>
       </c>
       <c r="C69" t="n">
-        <v>9.0077405713</v>
+        <v>10.1078022649</v>
       </c>
       <c r="D69" t="n">
-        <v>10.1078022649</v>
+        <v>10.3442640826</v>
       </c>
       <c r="E69" t="n">
-        <v>10.3442640826</v>
+        <v>4.1133641625</v>
       </c>
       <c r="F69" t="n">
-        <v>4.1133641625</v>
-      </c>
-      <c r="G69" t="n">
         <v>3.5318980586</v>
       </c>
     </row>
@@ -10376,22 +10169,19 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
+      <c r="B70" t="n">
+        <v>11.8733461862</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8733461862</v>
+        <v>8.8922098912</v>
       </c>
       <c r="D70" t="n">
-        <v>8.8922098912</v>
+        <v>5.9528841129</v>
       </c>
       <c r="E70" t="n">
-        <v>5.9528841129</v>
+        <v>2.9559526605</v>
       </c>
       <c r="F70" t="n">
-        <v>2.9559526605</v>
-      </c>
-      <c r="G70" t="n">
         <v>2.6291486883</v>
       </c>
     </row>
@@ -10399,22 +10189,19 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
+      <c r="B71" t="n">
+        <v>9.5188614111</v>
       </c>
       <c r="C71" t="n">
-        <v>9.5188614111</v>
+        <v>15.2069806029</v>
       </c>
       <c r="D71" t="n">
-        <v>15.2069806029</v>
+        <v>8.4795016755</v>
       </c>
       <c r="E71" t="n">
-        <v>8.4795016755</v>
+        <v>3.5958349056</v>
       </c>
       <c r="F71" t="n">
-        <v>3.5958349056</v>
-      </c>
-      <c r="G71" t="n">
         <v>3.4687653005</v>
       </c>
     </row>
@@ -10422,20 +10209,17 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72"/>
+      <c r="B72"/>
+      <c r="C72" t="n">
+        <v>4.5777938285</v>
+      </c>
       <c r="D72" t="n">
-        <v>4.5777938285</v>
+        <v>4.6506229551</v>
       </c>
       <c r="E72" t="n">
-        <v>4.6506229551</v>
+        <v>2.5981629704</v>
       </c>
       <c r="F72" t="n">
-        <v>2.5981629704</v>
-      </c>
-      <c r="G72" t="n">
         <v>2.8722364409</v>
       </c>
     </row>
@@ -10443,20 +10227,17 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73"/>
+      <c r="B73"/>
+      <c r="C73" t="n">
+        <v>9.450783712</v>
+      </c>
       <c r="D73" t="n">
-        <v>9.450783712</v>
+        <v>7.6829685381</v>
       </c>
       <c r="E73" t="n">
-        <v>7.6829685381</v>
+        <v>3.2099012111</v>
       </c>
       <c r="F73" t="n">
-        <v>3.2099012111</v>
-      </c>
-      <c r="G73" t="n">
         <v>3.3159084789</v>
       </c>
     </row>
@@ -10464,22 +10245,19 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
+      <c r="B74" t="n">
+        <v>9.7795810249</v>
       </c>
       <c r="C74" t="n">
-        <v>9.7795810249</v>
+        <v>12.1275186195</v>
       </c>
       <c r="D74" t="n">
-        <v>12.1275186195</v>
+        <v>9.1979133384</v>
       </c>
       <c r="E74" t="n">
-        <v>9.1979133384</v>
+        <v>6.1121697614</v>
       </c>
       <c r="F74" t="n">
-        <v>6.1121697614</v>
-      </c>
-      <c r="G74" t="n">
         <v>6.3149624849</v>
       </c>
     </row>
@@ -10487,22 +10265,19 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75" t="n">
+        <v>6.6601091781</v>
       </c>
       <c r="C75" t="n">
-        <v>6.6601091781</v>
+        <v>7.9561237137</v>
       </c>
       <c r="D75" t="n">
-        <v>7.9561237137</v>
+        <v>7.1209922467</v>
       </c>
       <c r="E75" t="n">
-        <v>7.1209922467</v>
+        <v>2.8808500134</v>
       </c>
       <c r="F75" t="n">
-        <v>2.8808500134</v>
-      </c>
-      <c r="G75" t="n">
         <v>3.5218317138</v>
       </c>
     </row>
@@ -10510,22 +10285,19 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
+      <c r="B76" t="n">
+        <v>11.689420675</v>
       </c>
       <c r="C76" t="n">
-        <v>11.689420675</v>
+        <v>10.1157087998</v>
       </c>
       <c r="D76" t="n">
-        <v>10.1157087998</v>
+        <v>9.119456667</v>
       </c>
       <c r="E76" t="n">
-        <v>9.119456667</v>
+        <v>5.0366322088</v>
       </c>
       <c r="F76" t="n">
-        <v>5.0366322088</v>
-      </c>
-      <c r="G76" t="n">
         <v>5.2171762874</v>
       </c>
     </row>
@@ -10533,22 +10305,19 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="B77" t="n">
+        <v>5.0489070981</v>
       </c>
       <c r="C77" t="n">
-        <v>5.0489070981</v>
+        <v>5.7525968908</v>
       </c>
       <c r="D77" t="n">
-        <v>5.7525968908</v>
+        <v>6.0134708028</v>
       </c>
       <c r="E77" t="n">
-        <v>6.0134708028</v>
+        <v>3.5694261953</v>
       </c>
       <c r="F77" t="n">
-        <v>3.5694261953</v>
-      </c>
-      <c r="G77" t="n">
         <v>3.3467601833</v>
       </c>
     </row>
@@ -10556,20 +10325,17 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78"/>
+      <c r="B78"/>
+      <c r="C78" t="n">
+        <v>10.79292382</v>
+      </c>
       <c r="D78" t="n">
-        <v>10.79292382</v>
+        <v>9.3759768137</v>
       </c>
       <c r="E78" t="n">
-        <v>9.3759768137</v>
+        <v>3.582558737</v>
       </c>
       <c r="F78" t="n">
-        <v>3.582558737</v>
-      </c>
-      <c r="G78" t="n">
         <v>3.7119441578</v>
       </c>
     </row>
@@ -10577,22 +10343,19 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79" t="n">
+        <v>10.4333389727</v>
       </c>
       <c r="C79" t="n">
-        <v>10.4333389727</v>
+        <v>7.7999872619</v>
       </c>
       <c r="D79" t="n">
-        <v>7.7999872619</v>
+        <v>7.8121130973</v>
       </c>
       <c r="E79" t="n">
-        <v>7.8121130973</v>
+        <v>3.247486469</v>
       </c>
       <c r="F79" t="n">
-        <v>3.247486469</v>
-      </c>
-      <c r="G79" t="n">
         <v>3.9226872321</v>
       </c>
     </row>
@@ -10600,20 +10363,17 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80"/>
+      <c r="B80"/>
+      <c r="C80" t="n">
+        <v>8.9735449092</v>
+      </c>
       <c r="D80" t="n">
-        <v>8.9735449092</v>
+        <v>10.2293977721</v>
       </c>
       <c r="E80" t="n">
-        <v>10.2293977721</v>
+        <v>4.5320120137</v>
       </c>
       <c r="F80" t="n">
-        <v>4.5320120137</v>
-      </c>
-      <c r="G80" t="n">
         <v>4.374069295</v>
       </c>
     </row>
@@ -10621,22 +10381,19 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81" t="n">
+        <v>8.3082826777</v>
       </c>
       <c r="C81" t="n">
-        <v>8.3082826777</v>
+        <v>8.8563528731</v>
       </c>
       <c r="D81" t="n">
-        <v>8.8563528731</v>
+        <v>7.9977934872</v>
       </c>
       <c r="E81" t="n">
-        <v>7.9977934872</v>
+        <v>2.5606681409</v>
       </c>
       <c r="F81" t="n">
-        <v>2.5606681409</v>
-      </c>
-      <c r="G81" t="n">
         <v>2.9532781762</v>
       </c>
     </row>
@@ -10644,22 +10401,19 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82" t="n">
+        <v>13.4982933476</v>
       </c>
       <c r="C82" t="n">
-        <v>13.4982933476</v>
+        <v>8.0107812486</v>
       </c>
       <c r="D82" t="n">
-        <v>8.0107812486</v>
+        <v>8.7539115751</v>
       </c>
       <c r="E82" t="n">
-        <v>8.7539115751</v>
+        <v>4.250874486</v>
       </c>
       <c r="F82" t="n">
-        <v>4.250874486</v>
-      </c>
-      <c r="G82" t="n">
         <v>5.4818432206</v>
       </c>
     </row>
@@ -10667,22 +10421,19 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83" t="n">
+        <v>11.6959819053</v>
       </c>
       <c r="C83" t="n">
-        <v>11.6959819053</v>
+        <v>11.181374346</v>
       </c>
       <c r="D83" t="n">
-        <v>11.181374346</v>
+        <v>11.2928946365</v>
       </c>
       <c r="E83" t="n">
-        <v>11.2928946365</v>
+        <v>4.7707030957</v>
       </c>
       <c r="F83" t="n">
-        <v>4.7707030957</v>
-      </c>
-      <c r="G83" t="n">
         <v>5.0441613616</v>
       </c>
     </row>
@@ -10690,20 +10441,17 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>13.7310751755</v>
       </c>
-      <c r="D84"/>
+      <c r="C84"/>
+      <c r="D84" t="n">
+        <v>2.8443117896</v>
+      </c>
       <c r="E84" t="n">
-        <v>2.8443117896</v>
+        <v>2.387232164</v>
       </c>
       <c r="F84" t="n">
-        <v>2.387232164</v>
-      </c>
-      <c r="G84" t="n">
         <v>3.0204798416</v>
       </c>
     </row>
@@ -10711,22 +10459,19 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85" t="n">
+        <v>10.0824774871</v>
       </c>
       <c r="C85" t="n">
-        <v>10.0824774871</v>
+        <v>7.844016651</v>
       </c>
       <c r="D85" t="n">
-        <v>7.844016651</v>
+        <v>8.5376023208</v>
       </c>
       <c r="E85" t="n">
-        <v>8.5376023208</v>
+        <v>4.3147155161</v>
       </c>
       <c r="F85" t="n">
-        <v>4.3147155161</v>
-      </c>
-      <c r="G85" t="n">
         <v>4.5043963544</v>
       </c>
     </row>
@@ -10734,20 +10479,17 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86"/>
+      <c r="B86"/>
+      <c r="C86" t="n">
+        <v>10.409951313</v>
+      </c>
       <c r="D86" t="n">
-        <v>10.409951313</v>
+        <v>10.0458184439</v>
       </c>
       <c r="E86" t="n">
-        <v>10.0458184439</v>
+        <v>3.9171964677</v>
       </c>
       <c r="F86" t="n">
-        <v>3.9171964677</v>
-      </c>
-      <c r="G86" t="n">
         <v>3.7326372325</v>
       </c>
     </row>
@@ -10755,22 +10497,19 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87" t="n">
+        <v>9.3127861731</v>
       </c>
       <c r="C87" t="n">
-        <v>9.3127861731</v>
+        <v>11.5949247489</v>
       </c>
       <c r="D87" t="n">
-        <v>11.5949247489</v>
+        <v>10.5430706134</v>
       </c>
       <c r="E87" t="n">
-        <v>10.5430706134</v>
+        <v>4.6008699742</v>
       </c>
       <c r="F87" t="n">
-        <v>4.6008699742</v>
-      </c>
-      <c r="G87" t="n">
         <v>3.7271565299</v>
       </c>
     </row>
@@ -10778,22 +10517,19 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" t="n">
+        <v>7.2754698377</v>
       </c>
       <c r="C88" t="n">
-        <v>7.2754698377</v>
+        <v>7.00401986</v>
       </c>
       <c r="D88" t="n">
-        <v>7.00401986</v>
+        <v>6.0513580317</v>
       </c>
       <c r="E88" t="n">
-        <v>6.0513580317</v>
+        <v>2.3526616422</v>
       </c>
       <c r="F88" t="n">
-        <v>2.3526616422</v>
-      </c>
-      <c r="G88" t="n">
         <v>2.383544741</v>
       </c>
     </row>
@@ -10801,22 +10537,19 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89" t="n">
+        <v>8.6728173875</v>
       </c>
       <c r="C89" t="n">
-        <v>8.6728173875</v>
+        <v>8.0874417986</v>
       </c>
       <c r="D89" t="n">
-        <v>8.0874417986</v>
+        <v>6.2989361187</v>
       </c>
       <c r="E89" t="n">
-        <v>6.2989361187</v>
+        <v>2.0956520758</v>
       </c>
       <c r="F89" t="n">
-        <v>2.0956520758</v>
-      </c>
-      <c r="G89" t="n">
         <v>2.4625199432</v>
       </c>
     </row>
@@ -10824,20 +10557,17 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90"/>
+      <c r="B90"/>
+      <c r="C90" t="n">
+        <v>6.3713723748</v>
+      </c>
       <c r="D90" t="n">
-        <v>6.3713723748</v>
+        <v>7.4573501411</v>
       </c>
       <c r="E90" t="n">
-        <v>7.4573501411</v>
+        <v>5.8850421145</v>
       </c>
       <c r="F90" t="n">
-        <v>5.8850421145</v>
-      </c>
-      <c r="G90" t="n">
         <v>6.0903558114</v>
       </c>
     </row>
@@ -10845,22 +10575,19 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" t="n">
+        <v>7.3550125034</v>
       </c>
       <c r="C91" t="n">
-        <v>7.3550125034</v>
+        <v>7.1856186531</v>
       </c>
       <c r="D91" t="n">
-        <v>7.1856186531</v>
+        <v>7.0790300064</v>
       </c>
       <c r="E91" t="n">
-        <v>7.0790300064</v>
+        <v>2.457319284</v>
       </c>
       <c r="F91" t="n">
-        <v>2.457319284</v>
-      </c>
-      <c r="G91" t="n">
         <v>2.6303882313</v>
       </c>
     </row>
@@ -10868,22 +10595,19 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" t="n">
+        <v>9.2737050951</v>
       </c>
       <c r="C92" t="n">
-        <v>9.2737050951</v>
+        <v>7.3086487038</v>
       </c>
       <c r="D92" t="n">
-        <v>7.3086487038</v>
+        <v>6.2159912117</v>
       </c>
       <c r="E92" t="n">
-        <v>6.2159912117</v>
+        <v>4.3821209272</v>
       </c>
       <c r="F92" t="n">
-        <v>4.3821209272</v>
-      </c>
-      <c r="G92" t="n">
         <v>4.1609321606</v>
       </c>
     </row>
@@ -10891,22 +10615,19 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
+      <c r="B93" t="n">
+        <v>12.5566374076</v>
       </c>
       <c r="C93" t="n">
-        <v>12.5566374076</v>
+        <v>13.4947693954</v>
       </c>
       <c r="D93" t="n">
-        <v>13.4947693954</v>
+        <v>10.5923314638</v>
       </c>
       <c r="E93" t="n">
-        <v>10.5923314638</v>
+        <v>3.937115595</v>
       </c>
       <c r="F93" t="n">
-        <v>3.937115595</v>
-      </c>
-      <c r="G93" t="n">
         <v>4.1290189216</v>
       </c>
     </row>
@@ -10914,22 +10635,19 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
+      <c r="B94" t="n">
+        <v>8.2787646268</v>
       </c>
       <c r="C94" t="n">
-        <v>8.2787646268</v>
+        <v>6.6053969374</v>
       </c>
       <c r="D94" t="n">
-        <v>6.6053969374</v>
+        <v>5.9483566656</v>
       </c>
       <c r="E94" t="n">
-        <v>5.9483566656</v>
+        <v>2.7323315693</v>
       </c>
       <c r="F94" t="n">
-        <v>2.7323315693</v>
-      </c>
-      <c r="G94" t="n">
         <v>2.7775026706</v>
       </c>
     </row>
@@ -10937,20 +10655,17 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
+      <c r="B95" t="n">
+        <v>9.6218045864</v>
       </c>
       <c r="C95" t="n">
-        <v>9.6218045864</v>
-      </c>
-      <c r="D95" t="n">
         <v>3.0060936874</v>
       </c>
-      <c r="E95"/>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>4.3059161894</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.3059161894</v>
-      </c>
-      <c r="G95" t="n">
         <v>3.4782401732</v>
       </c>
     </row>
@@ -10958,20 +10673,17 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
+      <c r="B96" t="n">
+        <v>5.8144973651</v>
       </c>
       <c r="C96" t="n">
-        <v>5.8144973651</v>
-      </c>
-      <c r="D96" t="n">
         <v>5.9750040833</v>
       </c>
-      <c r="E96"/>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>1.9212885911</v>
+      </c>
       <c r="F96" t="n">
-        <v>1.9212885911</v>
-      </c>
-      <c r="G96" t="n">
         <v>1.8616388924</v>
       </c>
     </row>
@@ -10979,18 +10691,15 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>8.0074993526</v>
       </c>
+      <c r="C97"/>
       <c r="D97"/>
-      <c r="E97"/>
+      <c r="E97" t="n">
+        <v>3.0282794866</v>
+      </c>
       <c r="F97" t="n">
-        <v>3.0282794866</v>
-      </c>
-      <c r="G97" t="n">
         <v>3.0160389833</v>
       </c>
     </row>
@@ -10998,20 +10707,17 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
+      <c r="B98" t="n">
+        <v>5.8684804612</v>
       </c>
       <c r="C98" t="n">
-        <v>5.8684804612</v>
-      </c>
-      <c r="D98" t="n">
         <v>5.8665741361</v>
       </c>
-      <c r="E98"/>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>2.2737148885</v>
+      </c>
       <c r="F98" t="n">
-        <v>2.2737148885</v>
-      </c>
-      <c r="G98" t="n">
         <v>2.2788288739</v>
       </c>
     </row>
@@ -11019,22 +10725,19 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
+      <c r="B99" t="n">
+        <v>13.0536543651</v>
       </c>
       <c r="C99" t="n">
-        <v>13.0536543651</v>
+        <v>11.6357403754</v>
       </c>
       <c r="D99" t="n">
-        <v>11.6357403754</v>
+        <v>8.8756071755</v>
       </c>
       <c r="E99" t="n">
-        <v>8.8756071755</v>
+        <v>3.5156283773</v>
       </c>
       <c r="F99" t="n">
-        <v>3.5156283773</v>
-      </c>
-      <c r="G99" t="n">
         <v>3.8423517174</v>
       </c>
     </row>
@@ -11042,22 +10745,19 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100" t="n">
+        <v>9.3258823462</v>
       </c>
       <c r="C100" t="n">
-        <v>9.3258823462</v>
+        <v>8.5212854995</v>
       </c>
       <c r="D100" t="n">
-        <v>8.5212854995</v>
+        <v>7.6134721791</v>
       </c>
       <c r="E100" t="n">
-        <v>7.6134721791</v>
+        <v>3.0573297568</v>
       </c>
       <c r="F100" t="n">
-        <v>3.0573297568</v>
-      </c>
-      <c r="G100" t="n">
         <v>3.1098435126</v>
       </c>
     </row>
@@ -11065,22 +10765,19 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
+      <c r="B101" t="n">
+        <v>9.7530114332</v>
       </c>
       <c r="C101" t="n">
-        <v>9.7530114332</v>
+        <v>13.5311667224</v>
       </c>
       <c r="D101" t="n">
-        <v>13.5311667224</v>
+        <v>10.8726612672</v>
       </c>
       <c r="E101" t="n">
-        <v>10.8726612672</v>
+        <v>8.498934221</v>
       </c>
       <c r="F101" t="n">
-        <v>8.498934221</v>
-      </c>
-      <c r="G101" t="n">
         <v>10.1533657044</v>
       </c>
     </row>
@@ -11088,22 +10785,19 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102" t="n">
+        <v>9.2403404496</v>
       </c>
       <c r="C102" t="n">
-        <v>9.2403404496</v>
+        <v>11.2693001912</v>
       </c>
       <c r="D102" t="n">
-        <v>11.2693001912</v>
+        <v>7.3566546587</v>
       </c>
       <c r="E102" t="n">
-        <v>7.3566546587</v>
+        <v>3.1862667799</v>
       </c>
       <c r="F102" t="n">
-        <v>3.1862667799</v>
-      </c>
-      <c r="G102" t="n">
         <v>3.6849310829</v>
       </c>
     </row>
@@ -11111,22 +10805,19 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
+      <c r="B103" t="n">
+        <v>8.4017209974</v>
       </c>
       <c r="C103" t="n">
-        <v>8.4017209974</v>
+        <v>9.5242889642</v>
       </c>
       <c r="D103" t="n">
-        <v>9.5242889642</v>
+        <v>9.1551322441</v>
       </c>
       <c r="E103" t="n">
-        <v>9.1551322441</v>
+        <v>4.3272104415</v>
       </c>
       <c r="F103" t="n">
-        <v>4.3272104415</v>
-      </c>
-      <c r="G103" t="n">
         <v>3.6832593278</v>
       </c>
     </row>
@@ -11134,22 +10825,19 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
+      <c r="B104" t="n">
+        <v>10.243690773</v>
       </c>
       <c r="C104" t="n">
-        <v>10.243690773</v>
+        <v>10.4062491731</v>
       </c>
       <c r="D104" t="n">
-        <v>10.4062491731</v>
+        <v>8.5715704389</v>
       </c>
       <c r="E104" t="n">
-        <v>8.5715704389</v>
+        <v>3.2608952248</v>
       </c>
       <c r="F104" t="n">
-        <v>3.2608952248</v>
-      </c>
-      <c r="G104" t="n">
         <v>3.3931360173</v>
       </c>
     </row>
@@ -11157,22 +10845,19 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
+      <c r="B105" t="n">
+        <v>11.2271463038</v>
       </c>
       <c r="C105" t="n">
-        <v>11.2271463038</v>
+        <v>11.4294006221</v>
       </c>
       <c r="D105" t="n">
-        <v>11.4294006221</v>
+        <v>10.8176769849</v>
       </c>
       <c r="E105" t="n">
-        <v>10.8176769849</v>
+        <v>4.0394940318</v>
       </c>
       <c r="F105" t="n">
-        <v>4.0394940318</v>
-      </c>
-      <c r="G105" t="n">
         <v>4.1062813707</v>
       </c>
     </row>
@@ -11180,22 +10865,19 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
+      <c r="B106" t="n">
+        <v>11.060959275</v>
       </c>
       <c r="C106" t="n">
-        <v>11.060959275</v>
+        <v>11.2466654938</v>
       </c>
       <c r="D106" t="n">
-        <v>11.2466654938</v>
+        <v>11.3484807761</v>
       </c>
       <c r="E106" t="n">
-        <v>11.3484807761</v>
+        <v>4.7375428169</v>
       </c>
       <c r="F106" t="n">
-        <v>4.7375428169</v>
-      </c>
-      <c r="G106" t="n">
         <v>5.1524625642</v>
       </c>
     </row>
@@ -11203,22 +10885,19 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
+      <c r="B107" t="n">
+        <v>9.2526675712</v>
       </c>
       <c r="C107" t="n">
-        <v>9.2526675712</v>
+        <v>8.2828612025</v>
       </c>
       <c r="D107" t="n">
-        <v>8.2828612025</v>
+        <v>8.1578964938</v>
       </c>
       <c r="E107" t="n">
-        <v>8.1578964938</v>
+        <v>4.7336677792</v>
       </c>
       <c r="F107" t="n">
-        <v>4.7336677792</v>
-      </c>
-      <c r="G107" t="n">
         <v>4.9352431641</v>
       </c>
     </row>
@@ -11226,22 +10905,19 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
+      <c r="B108" t="n">
+        <v>8.9949886265</v>
       </c>
       <c r="C108" t="n">
-        <v>8.9949886265</v>
+        <v>9.0077430467</v>
       </c>
       <c r="D108" t="n">
-        <v>9.0077430467</v>
+        <v>9.9895457291</v>
       </c>
       <c r="E108" t="n">
-        <v>9.9895457291</v>
+        <v>6.0623590846</v>
       </c>
       <c r="F108" t="n">
-        <v>6.0623590846</v>
-      </c>
-      <c r="G108" t="n">
         <v>5.9577150559</v>
       </c>
     </row>
@@ -11249,22 +10925,19 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
+      <c r="B109" t="n">
+        <v>8.5638462255</v>
       </c>
       <c r="C109" t="n">
-        <v>8.5638462255</v>
+        <v>10.1836044972</v>
       </c>
       <c r="D109" t="n">
-        <v>10.1836044972</v>
+        <v>8.7146673462</v>
       </c>
       <c r="E109" t="n">
-        <v>8.7146673462</v>
+        <v>3.0661074903</v>
       </c>
       <c r="F109" t="n">
-        <v>3.0661074903</v>
-      </c>
-      <c r="G109" t="n">
         <v>3.6169335237</v>
       </c>
     </row>
@@ -11272,22 +10945,19 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
+      <c r="B110" t="n">
+        <v>17.9650710114</v>
       </c>
       <c r="C110" t="n">
-        <v>17.9650710114</v>
+        <v>15.0370386381</v>
       </c>
       <c r="D110" t="n">
-        <v>15.0370386381</v>
+        <v>15.6392244051</v>
       </c>
       <c r="E110" t="n">
-        <v>15.6392244051</v>
+        <v>6.462080132</v>
       </c>
       <c r="F110" t="n">
-        <v>6.462080132</v>
-      </c>
-      <c r="G110" t="n">
         <v>6.2696052303</v>
       </c>
     </row>
@@ -11295,22 +10965,19 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
+      <c r="B111" t="n">
+        <v>11.6389639218</v>
       </c>
       <c r="C111" t="n">
-        <v>11.6389639218</v>
+        <v>15.3191680916</v>
       </c>
       <c r="D111" t="n">
-        <v>15.3191680916</v>
+        <v>12.4710062615</v>
       </c>
       <c r="E111" t="n">
-        <v>12.4710062615</v>
+        <v>4.2586467265</v>
       </c>
       <c r="F111" t="n">
-        <v>4.2586467265</v>
-      </c>
-      <c r="G111" t="n">
         <v>4.5137430302</v>
       </c>
     </row>
@@ -11318,20 +10985,17 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
+      <c r="B112" t="n">
+        <v>7.0944085124</v>
       </c>
       <c r="C112" t="n">
-        <v>7.0944085124</v>
-      </c>
-      <c r="D112" t="n">
         <v>7.4373964025</v>
       </c>
-      <c r="E112"/>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>3.4194858086</v>
+      </c>
       <c r="F112" t="n">
-        <v>3.4194858086</v>
-      </c>
-      <c r="G112" t="n">
         <v>3.1426257994</v>
       </c>
     </row>

--- a/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
+++ b/user-data/uganda-agri-percent/uganda-agri-percent.xlsx
@@ -739,7 +739,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
